--- a/qdote.xlsx
+++ b/qdote.xlsx
@@ -450,2404 +450,2404 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44426.83371698093</v>
+        <v>44426.85046684906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.166666560679958</v>
+        <v>1.166666425659303</v>
       </c>
       <c r="B3" t="n">
-        <v>43470.35783148116</v>
+        <v>43470.37400046764</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.333333121359916</v>
+        <v>2.333332851318607</v>
       </c>
       <c r="B4" t="n">
-        <v>42534.47414315116</v>
+        <v>42534.48974850473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.499999682039873</v>
+        <v>3.49999927697791</v>
       </c>
       <c r="B5" t="n">
-        <v>41618.73931767367</v>
+        <v>41618.75437616875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.666666242719831</v>
+        <v>4.666665702637213</v>
       </c>
       <c r="B6" t="n">
-        <v>40722.71956538031</v>
+        <v>40722.73409333074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.833332803399789</v>
+        <v>5.833332128296517</v>
       </c>
       <c r="B7" t="n">
-        <v>39845.9904357648</v>
+        <v>39846.00444903504</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.999999364079747</v>
+        <v>6.99999855395582</v>
       </c>
       <c r="B8" t="n">
-        <v>38988.13661641663</v>
+        <v>38988.15013043427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.166665924759705</v>
+        <v>8.166664979615124</v>
       </c>
       <c r="B9" t="n">
-        <v>38148.75173628441</v>
+        <v>38148.76476605113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.333332485439662</v>
+        <v>9.333331405274427</v>
       </c>
       <c r="B10" t="n">
-        <v>37327.43817317666</v>
+        <v>37327.45073328016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.49999904611962</v>
+        <v>10.49999783093373</v>
       </c>
       <c r="B11" t="n">
-        <v>36523.80686540533</v>
+        <v>36523.81897002861</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.66666560679958</v>
+        <v>11.66666425659303</v>
       </c>
       <c r="B12" t="n">
-        <v>35737.4771274825</v>
+        <v>35737.4887904163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.83333216747954</v>
+        <v>12.83333068225234</v>
       </c>
       <c r="B13" t="n">
-        <v>34968.07646978999</v>
+        <v>34968.0877044423</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.99999872815949</v>
+        <v>13.99999710791164</v>
       </c>
       <c r="B14" t="n">
-        <v>34215.24042212719</v>
+        <v>34215.25124153325</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.16666528883945</v>
+        <v>15.16666353357094</v>
       </c>
       <c r="B15" t="n">
-        <v>33478.61236105864</v>
+        <v>33478.62277789145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.33333184951941</v>
+        <v>16.33332995923025</v>
       </c>
       <c r="B16" t="n">
-        <v>32757.84334098059</v>
+        <v>32757.85336755875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.49999841019937</v>
+        <v>17.49999638488955</v>
       </c>
       <c r="B17" t="n">
-        <v>32052.59192882225</v>
+        <v>32052.60157712152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.66666497087932</v>
+        <v>18.66666281054885</v>
       </c>
       <c r="B18" t="n">
-        <v>31362.52404230596</v>
+        <v>31362.53332396704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.83333153155928</v>
+        <v>19.83332923620816</v>
       </c>
       <c r="B19" t="n">
-        <v>30687.31279169187</v>
+        <v>30687.32171802925</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.99999809223924</v>
+        <v>20.99999566186746</v>
       </c>
       <c r="B20" t="n">
-        <v>30026.63832492609</v>
+        <v>30026.64690693794</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.1666646529192</v>
+        <v>22.16666208752676</v>
       </c>
       <c r="B21" t="n">
-        <v>29380.18767612717</v>
+        <v>29380.19592450254</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.33333121359916</v>
+        <v>23.33332851318607</v>
       </c>
       <c r="B22" t="n">
-        <v>28747.65461733015</v>
+        <v>28747.66254245616</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.49999777427911</v>
+        <v>24.49999493884537</v>
       </c>
       <c r="B23" t="n">
-        <v>28128.73951342423</v>
+        <v>28128.74712539645</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.66666433495907</v>
+        <v>25.66666136450467</v>
       </c>
       <c r="B24" t="n">
-        <v>27523.14918021506</v>
+        <v>27523.15648884414</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.83333089563903</v>
+        <v>26.83332779016398</v>
       </c>
       <c r="B25" t="n">
-        <v>26930.5967455402</v>
+        <v>26930.60376035952</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.99999745631899</v>
+        <v>27.99999421582328</v>
       </c>
       <c r="B26" t="n">
-        <v>26350.8015133767</v>
+        <v>26350.80824364952</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.16666401699894</v>
+        <v>29.16666064148258</v>
       </c>
       <c r="B27" t="n">
-        <v>25783.4888308727</v>
+        <v>25783.49528560033</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.3333305776789</v>
+        <v>30.33332706714189</v>
       </c>
       <c r="B28" t="n">
-        <v>25228.38995824347</v>
+        <v>25228.3961461702</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.49999713835886</v>
+        <v>31.49999349280119</v>
       </c>
       <c r="B29" t="n">
-        <v>24685.24194146645</v>
+        <v>24685.24787108932</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.66666369903882</v>
+        <v>32.6666599184605</v>
       </c>
       <c r="B30" t="n">
-        <v>24153.78748772016</v>
+        <v>24153.79316729229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.83333025971878</v>
+        <v>33.8333263441198</v>
       </c>
       <c r="B31" t="n">
-        <v>23633.77484349969</v>
+        <v>23633.78028103998</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34.99999682039874</v>
+        <v>34.9999927697791</v>
       </c>
       <c r="B32" t="n">
-        <v>23124.95767536345</v>
+        <v>23124.96287866098</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.16666338107869</v>
+        <v>36.16665919543841</v>
       </c>
       <c r="B33" t="n">
-        <v>22627.09495323956</v>
+        <v>22627.09992985951</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37.33332994175865</v>
+        <v>37.33332562109771</v>
       </c>
       <c r="B34" t="n">
-        <v>22139.95083625022</v>
+        <v>22139.95559354143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38.49999650243861</v>
+        <v>38.49999204675701</v>
       </c>
       <c r="B35" t="n">
-        <v>21663.2945609927</v>
+        <v>21663.29910609251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>39.66666306311856</v>
+        <v>39.66665847241632</v>
       </c>
       <c r="B36" t="n">
-        <v>21196.90033222344</v>
+        <v>21196.90467206417</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40.83332962379852</v>
+        <v>40.83332489807562</v>
       </c>
       <c r="B37" t="n">
-        <v>20740.54721590057</v>
+        <v>20740.55135721273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.99999618447848</v>
+        <v>41.99999132373492</v>
       </c>
       <c r="B38" t="n">
-        <v>20294.01903452112</v>
+        <v>20294.02298384199</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.16666274515844</v>
+        <v>43.16665774939423</v>
       </c>
       <c r="B39" t="n">
-        <v>19857.10426472154</v>
+        <v>19857.10802839782</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.3333293058384</v>
+        <v>44.33332417505353</v>
       </c>
       <c r="B40" t="n">
-        <v>19429.59593707306</v>
+        <v>19429.59952126837</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45.49999586651835</v>
+        <v>45.49999060071283</v>
       </c>
       <c r="B41" t="n">
-        <v>19011.29153804216</v>
+        <v>19011.29494874019</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46.66666242719831</v>
+        <v>46.66665702637214</v>
       </c>
       <c r="B42" t="n">
-        <v>18601.99291405769</v>
+        <v>18601.99615706754</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47.83332898787827</v>
+        <v>47.83332345203144</v>
       </c>
       <c r="B43" t="n">
-        <v>18201.50617764324</v>
+        <v>18201.50925860417</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48.99999554855822</v>
+        <v>48.99998987769074</v>
       </c>
       <c r="B44" t="n">
-        <v>17809.64161557292</v>
+        <v>17809.64453995912</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50.16666210923818</v>
+        <v>50.16665630335005</v>
       </c>
       <c r="B45" t="n">
-        <v>17426.21359900045</v>
+        <v>17426.21637212631</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51.33332866991815</v>
+        <v>51.33332272900935</v>
       </c>
       <c r="B46" t="n">
-        <v>17051.04049552892</v>
+        <v>17051.04312255215</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.4999952305981</v>
+        <v>52.49998915466865</v>
       </c>
       <c r="B47" t="n">
-        <v>16683.94458316737</v>
+        <v>16683.94706909321</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.66666179127806</v>
+        <v>53.66665558032796</v>
       </c>
       <c r="B48" t="n">
-        <v>16324.7519661452</v>
+        <v>16324.75431583168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54.83332835195802</v>
+        <v>54.83332200598726</v>
       </c>
       <c r="B49" t="n">
-        <v>15973.29249253387</v>
+        <v>15973.29471069488</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55.99999491263797</v>
+        <v>55.99998843164656</v>
       </c>
       <c r="B50" t="n">
-        <v>15629.39967364747</v>
+        <v>15629.40176485693</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>57.16666147331793</v>
+        <v>57.16665485730586</v>
       </c>
       <c r="B51" t="n">
-        <v>15292.91060517294</v>
+        <v>15292.91257386952</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>58.33332803399789</v>
+        <v>58.33332128296517</v>
       </c>
       <c r="B52" t="n">
-        <v>14963.66589000513</v>
+        <v>14963.66774049474</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59.49999459467784</v>
+        <v>59.49998770862447</v>
       </c>
       <c r="B53" t="n">
-        <v>14641.50956273612</v>
+        <v>14641.51129919557</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60.6666611553578</v>
+        <v>60.66665413428377</v>
       </c>
       <c r="B54" t="n">
-        <v>14326.28901577351</v>
+        <v>14326.29064225513</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61.83332771603776</v>
+        <v>61.83332055994308</v>
       </c>
       <c r="B55" t="n">
-        <v>14017.85492705171</v>
+        <v>14017.85644748639</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62.99999427671772</v>
+        <v>62.99998698560238</v>
       </c>
       <c r="B56" t="n">
-        <v>13716.06118929507</v>
+        <v>13716.06260749482</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64.16666083739767</v>
+        <v>64.16665341126168</v>
       </c>
       <c r="B57" t="n">
-        <v>13420.76484080477</v>
+        <v>13420.7661604673</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65.33332739807764</v>
+        <v>65.33331983692099</v>
       </c>
       <c r="B58" t="n">
-        <v>13131.82599774036</v>
+        <v>13131.82722245108</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66.4999939587576</v>
+        <v>66.49998626258029</v>
       </c>
       <c r="B59" t="n">
-        <v>12849.10778785343</v>
+        <v>12849.10892108898</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67.66666051943756</v>
+        <v>67.66665268823959</v>
       </c>
       <c r="B60" t="n">
-        <v>12572.47628564979</v>
+        <v>12572.4773307816</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68.83332708011751</v>
+        <v>68.8333191138989</v>
       </c>
       <c r="B61" t="n">
-        <v>12301.80044895037</v>
+        <v>12301.80140924657</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69.99999364079747</v>
+        <v>69.9999855395582</v>
       </c>
       <c r="B62" t="n">
-        <v>12036.95205681436</v>
+        <v>12036.95293544334</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>71.16666020147743</v>
+        <v>71.1666519652175</v>
       </c>
       <c r="B63" t="n">
-        <v>11777.80564879858</v>
+        <v>11777.80644883197</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72.33332676215738</v>
+        <v>72.33331839087681</v>
       </c>
       <c r="B64" t="n">
-        <v>11524.23846552953</v>
+        <v>11524.23918994411</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.49999332283734</v>
+        <v>73.49998481653611</v>
       </c>
       <c r="B65" t="n">
-        <v>11276.13039054857</v>
+        <v>11276.13104222924</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74.6666598835173</v>
+        <v>74.66665124219541</v>
       </c>
       <c r="B66" t="n">
-        <v>11033.36389341258</v>
+        <v>11033.36447515589</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75.83332644419725</v>
+        <v>75.83331766785471</v>
       </c>
       <c r="B67" t="n">
-        <v>10795.82397401981</v>
+        <v>10795.8244885353</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76.99999300487721</v>
+        <v>76.99998409351402</v>
       </c>
       <c r="B68" t="n">
-        <v>10563.39810813351</v>
+        <v>10563.39855804612</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78.16665956555717</v>
+        <v>78.16665051917333</v>
       </c>
       <c r="B69" t="n">
-        <v>10335.97619407778</v>
+        <v>10335.97658192977</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79.33332612623713</v>
+        <v>79.33331694483263</v>
       </c>
       <c r="B70" t="n">
-        <v>10113.45050058112</v>
+        <v>10113.45082883711</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>80.49999268691708</v>
+        <v>80.49998337049193</v>
       </c>
       <c r="B71" t="n">
-        <v>9895.71561574459</v>
+        <v>9895.715886790786</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81.66665924759704</v>
+        <v>81.66664979615123</v>
       </c>
       <c r="B72" t="n">
-        <v>9682.668397108571</v>
+        <v>9682.668613255695</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.833325808277</v>
+        <v>82.83331622181053</v>
       </c>
       <c r="B73" t="n">
-        <v>9474.207922789697</v>
+        <v>9474.208086276441</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>83.99999236895695</v>
+        <v>83.99998264746984</v>
       </c>
       <c r="B74" t="n">
-        <v>9270.235443677329</v>
+        <v>9270.235556671149</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>85.16665892963692</v>
+        <v>85.16664907312915</v>
       </c>
       <c r="B75" t="n">
-        <v>9070.654336653792</v>
+        <v>9070.654401253278</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>86.33332549031688</v>
+        <v>86.33331549878845</v>
       </c>
       <c r="B76" t="n">
-        <v>8875.370058823401</v>
+        <v>8875.37007705906</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87.49999205099684</v>
+        <v>87.49998192444775</v>
       </c>
       <c r="B77" t="n">
-        <v>8684.290102726802</v>
+        <v>8684.290076565574</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88.66665861167679</v>
+        <v>88.66664835010705</v>
       </c>
       <c r="B78" t="n">
-        <v>8497.323952519793</v>
+        <v>8497.323883865263</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>89.83332517235675</v>
+        <v>89.83331477576635</v>
       </c>
       <c r="B79" t="n">
-        <v>8314.383041095773</v>
+        <v>8314.382931789478</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90.99999173303671</v>
+        <v>90.99998120142565</v>
       </c>
       <c r="B80" t="n">
-        <v>8135.380708129965</v>
+        <v>8135.380559954279</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92.16665829371667</v>
+        <v>92.16664762708497</v>
       </c>
       <c r="B81" t="n">
-        <v>7960.232159028827</v>
+        <v>7960.231973707714</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>93.33332485439662</v>
+        <v>93.33331405274427</v>
       </c>
       <c r="B82" t="n">
-        <v>7788.8544247617</v>
+        <v>7788.854203963063</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>94.49999141507658</v>
+        <v>94.49998047840357</v>
       </c>
       <c r="B83" t="n">
-        <v>7621.166322557065</v>
+        <v>7621.166067894547</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95.66665797575654</v>
+        <v>95.66664690406287</v>
       </c>
       <c r="B84" t="n">
-        <v>7457.088417447926</v>
+        <v>7457.088130482723</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.83332453643649</v>
+        <v>96.83331332972217</v>
       </c>
       <c r="B85" t="n">
-        <v>7296.542984641212</v>
+        <v>7296.542666881199</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>97.99999109711645</v>
+        <v>97.99997975538147</v>
       </c>
       <c r="B86" t="n">
-        <v>7139.453972698927</v>
+        <v>7139.453625603655</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99.16665765779641</v>
+        <v>99.16664618104079</v>
       </c>
       <c r="B87" t="n">
-        <v>6985.746967513407</v>
+        <v>6985.746592493236</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100.3333242184764</v>
+        <v>100.3333126067001</v>
       </c>
       <c r="B88" t="n">
-        <v>6835.349157054817</v>
+        <v>6835.348755473221</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>101.4999907791563</v>
+        <v>101.4999790323594</v>
       </c>
       <c r="B89" t="n">
-        <v>6688.189296882299</v>
+        <v>6688.188870056594</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102.6666573398363</v>
+        <v>102.6666454580187</v>
       </c>
       <c r="B90" t="n">
-        <v>6544.197676393192</v>
+        <v>6544.197225596309</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>103.8333239005162</v>
+        <v>103.833311883678</v>
       </c>
       <c r="B91" t="n">
-        <v>6403.306085799585</v>
+        <v>6403.305612261854</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104.9999904611962</v>
+        <v>104.9999783093373</v>
       </c>
       <c r="B92" t="n">
-        <v>6265.447783819982</v>
+        <v>6265.447288729289</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106.1666570218762</v>
+        <v>106.1666447349966</v>
       </c>
       <c r="B93" t="n">
-        <v>6130.55746606198</v>
+        <v>6130.556950566083</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>107.3333235825561</v>
+        <v>107.3333111606559</v>
       </c>
       <c r="B94" t="n">
-        <v>5998.571234085351</v>
+        <v>5998.57069929203</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>108.4999901432361</v>
+        <v>108.4999775863152</v>
       </c>
       <c r="B95" t="n">
-        <v>5869.426565135838</v>
+        <v>5869.426012115203</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109.666656703916</v>
+        <v>109.6666440119745</v>
       </c>
       <c r="B96" t="n">
-        <v>5743.062282525711</v>
+        <v>5743.061712310881</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>110.833323264596</v>
+        <v>110.8333104376338</v>
       </c>
       <c r="B97" t="n">
-        <v>5619.418526656213</v>
+        <v>5619.417940242944</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111.9999898252759</v>
+        <v>111.9999768632931</v>
       </c>
       <c r="B98" t="n">
-        <v>5498.436726658972</v>
+        <v>5498.436125009534</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>113.1666563859559</v>
+        <v>113.1666432889524</v>
       </c>
       <c r="B99" t="n">
-        <v>5380.059572651018</v>
+        <v>5380.058956693282</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>114.3333229466359</v>
+        <v>114.3333097146117</v>
       </c>
       <c r="B100" t="n">
-        <v>5264.230988588999</v>
+        <v>5264.230359217644</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>115.4999895073158</v>
+        <v>115.499976140271</v>
       </c>
       <c r="B101" t="n">
-        <v>5150.896105703358</v>
+        <v>5150.895463782144</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>116.6666560679958</v>
+        <v>116.6666425659303</v>
       </c>
       <c r="B102" t="n">
-        <v>5040.001236507672</v>
+        <v>5040.000582867983</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117.8333226286757</v>
+        <v>117.8333089915896</v>
       </c>
       <c r="B103" t="n">
-        <v>4931.493849366074</v>
+        <v>4931.493184810245</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118.9999891893557</v>
+        <v>118.9999754172489</v>
       </c>
       <c r="B104" t="n">
-        <v>4825.32254360858</v>
+        <v>4825.321868909503</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120.1666557500356</v>
+        <v>120.1666418429082</v>
       </c>
       <c r="B105" t="n">
-        <v>4721.437025182075</v>
+        <v>4721.436341084924</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121.3333223107156</v>
+        <v>121.3333082685675</v>
       </c>
       <c r="B106" t="n">
-        <v>4619.788082827857</v>
+        <v>4619.787390049682</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>122.4999888713956</v>
+        <v>122.4999746942269</v>
       </c>
       <c r="B107" t="n">
-        <v>4520.32756476598</v>
+        <v>4520.326863997433</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>123.6666554320755</v>
+        <v>123.6666411198862</v>
       </c>
       <c r="B108" t="n">
-        <v>4423.00835588855</v>
+        <v>4423.0076477956</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>124.8333219927555</v>
+        <v>124.8333075455455</v>
       </c>
       <c r="B109" t="n">
-        <v>4327.784355440579</v>
+        <v>4327.783640662501</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125.9999885534354</v>
+        <v>125.9999739712048</v>
       </c>
       <c r="B110" t="n">
-        <v>4234.610455180431</v>
+        <v>4234.609734333655</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>127.1666551141154</v>
+        <v>127.1666403968641</v>
       </c>
       <c r="B111" t="n">
-        <v>4143.442518012339</v>
+        <v>4143.441791690031</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>128.3333216747953</v>
+        <v>128.3333068225234</v>
       </c>
       <c r="B112" t="n">
-        <v>4054.237357080345</v>
+        <v>4054.236625851981</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>129.4999882354753</v>
+        <v>129.4999732481827</v>
       </c>
       <c r="B113" t="n">
-        <v>3966.952715306558</v>
+        <v>3966.951979719634</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130.6666547961553</v>
+        <v>130.666639673842</v>
       </c>
       <c r="B114" t="n">
-        <v>3881.547245375865</v>
+        <v>3881.546505957603</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131.8333213568352</v>
+        <v>131.8333060995013</v>
       </c>
       <c r="B115" t="n">
-        <v>3797.980490151619</v>
+        <v>3797.979747407473</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132.9999879175152</v>
+        <v>132.9999725251606</v>
       </c>
       <c r="B116" t="n">
-        <v>3716.212863505737</v>
+        <v>3716.212117922158</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>134.1666544781951</v>
+        <v>134.1666389508199</v>
       </c>
       <c r="B117" t="n">
-        <v>3636.205631570695</v>
+        <v>3636.20488361363</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>135.3333210388751</v>
+        <v>135.3333053764792</v>
       </c>
       <c r="B118" t="n">
-        <v>3557.92089438991</v>
+        <v>3557.92014450757</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>136.4999875995551</v>
+        <v>136.4999718021385</v>
       </c>
       <c r="B119" t="n">
-        <v>3481.321567962782</v>
+        <v>3481.320816584666</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>137.666654160235</v>
+        <v>137.6666382277978</v>
       </c>
       <c r="B120" t="n">
-        <v>3406.371366680652</v>
+        <v>3406.370614218176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>138.833320720915</v>
+        <v>138.8333046534571</v>
       </c>
       <c r="B121" t="n">
-        <v>3333.034786134453</v>
+        <v>3333.034032983175</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>139.9999872815949</v>
+        <v>139.9999710791164</v>
       </c>
       <c r="B122" t="n">
-        <v>3261.27708629993</v>
+        <v>3261.276332838034</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>141.1666538422749</v>
+        <v>141.1666375047757</v>
       </c>
       <c r="B123" t="n">
-        <v>3191.064275077449</v>
+        <v>3191.063521667973</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>142.3333204029549</v>
+        <v>142.333303930435</v>
       </c>
       <c r="B124" t="n">
-        <v>3122.363092192303</v>
+        <v>3122.362339181617</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>143.4999869636348</v>
+        <v>143.4999703560943</v>
       </c>
       <c r="B125" t="n">
-        <v>3055.140993438391</v>
+        <v>3055.140241158419</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>144.6666535243148</v>
+        <v>144.6666367817536</v>
       </c>
       <c r="B126" t="n">
-        <v>2989.366135260484</v>
+        <v>2989.365384029317</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>145.8333200849947</v>
+        <v>145.8333032074129</v>
       </c>
       <c r="B127" t="n">
-        <v>2925.007359671869</v>
+        <v>2925.006609792777</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>146.9999866456747</v>
+        <v>146.9999696330722</v>
       </c>
       <c r="B128" t="n">
-        <v>2862.034179492944</v>
+        <v>2862.033431256057</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>148.1666532063546</v>
+        <v>148.1666360587315</v>
       </c>
       <c r="B129" t="n">
-        <v>2800.416763910249</v>
+        <v>2800.416017592097</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>149.3333197670346</v>
+        <v>149.3333024843908</v>
       </c>
       <c r="B130" t="n">
-        <v>2740.125924344694</v>
+        <v>2740.125180209885</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>150.4999863277146</v>
+        <v>150.4999689100501</v>
       </c>
       <c r="B131" t="n">
-        <v>2681.133100625801</v>
+        <v>2681.132358925491</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>151.6666528883945</v>
+        <v>151.6666353357094</v>
       </c>
       <c r="B132" t="n">
-        <v>2623.410347460197</v>
+        <v>2623.409608435364</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>152.8333194490745</v>
+        <v>152.8333017613687</v>
       </c>
       <c r="B133" t="n">
-        <v>2566.930321197032</v>
+        <v>2566.929585076412</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>153.9999860097544</v>
+        <v>153.999968187028</v>
       </c>
       <c r="B134" t="n">
-        <v>2511.666266873244</v>
+        <v>2511.665533873398</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>155.1666525704344</v>
+        <v>155.1666346126873</v>
       </c>
       <c r="B135" t="n">
-        <v>2457.592005538109</v>
+        <v>2457.591275866693</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>156.3333191311143</v>
+        <v>156.3333010383467</v>
       </c>
       <c r="B136" t="n">
-        <v>2404.681921856047</v>
+        <v>2404.681195708675</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>157.4999856917943</v>
+        <v>157.4999674640059</v>
       </c>
       <c r="B137" t="n">
-        <v>2352.910951968953</v>
+        <v>2352.910229532461</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>158.6666522524743</v>
+        <v>158.6666338896653</v>
       </c>
       <c r="B138" t="n">
-        <v>2302.254571623957</v>
+        <v>2302.253853075404</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>159.8333188131542</v>
+        <v>159.8333003153245</v>
       </c>
       <c r="B139" t="n">
-        <v>2252.688784558053</v>
+        <v>2252.688070064243</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160.9999853738342</v>
+        <v>160.9999667409839</v>
       </c>
       <c r="B140" t="n">
-        <v>2204.190111127856</v>
+        <v>2204.189400848068</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>162.1666519345141</v>
+        <v>162.1666331666432</v>
       </c>
       <c r="B141" t="n">
-        <v>2156.73557719035</v>
+        <v>2156.734871274263</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>163.3333184951941</v>
+        <v>163.3332995923025</v>
       </c>
       <c r="B142" t="n">
-        <v>2110.302703218089</v>
+        <v>2110.302001805836</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>164.499985055874</v>
+        <v>164.4999660179618</v>
       </c>
       <c r="B143" t="n">
-        <v>2064.869493649369</v>
+        <v>2064.868796875336</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>165.666651616554</v>
+        <v>165.6666324436211</v>
       </c>
       <c r="B144" t="n">
-        <v>2020.414426471779</v>
+        <v>2020.413734460917</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>166.833318177234</v>
+        <v>166.8332988692804</v>
       </c>
       <c r="B145" t="n">
-        <v>1976.916443024172</v>
+        <v>1976.915755895257</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>167.9999847379139</v>
+        <v>167.9999652949397</v>
       </c>
       <c r="B146" t="n">
-        <v>1934.354938024002</v>
+        <v>1934.354255886483</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>169.1666512985939</v>
+        <v>169.166631720599</v>
       </c>
       <c r="B147" t="n">
-        <v>1892.70974980294</v>
+        <v>1892.709072760192</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>170.3333178592738</v>
+        <v>170.3332981462583</v>
       </c>
       <c r="B148" t="n">
-        <v>1851.961150758231</v>
+        <v>1851.960478908145</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>171.4999844199538</v>
+        <v>171.4999645719176</v>
       </c>
       <c r="B149" t="n">
-        <v>1812.089838009138</v>
+        <v>1812.089171441496</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>172.6666509806338</v>
+        <v>172.6666309975769</v>
       </c>
       <c r="B150" t="n">
-        <v>1773.076924249902</v>
+        <v>1773.076263048026</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>173.8333175413137</v>
+        <v>173.8332974232362</v>
       </c>
       <c r="B151" t="n">
-        <v>1734.903928802968</v>
+        <v>1734.903273045907</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>174.9999841019937</v>
+        <v>174.9999638488955</v>
       </c>
       <c r="B152" t="n">
-        <v>1697.552768868209</v>
+        <v>1697.552118627576</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>176.1666506626736</v>
+        <v>176.1666302745548</v>
       </c>
       <c r="B153" t="n">
-        <v>1661.005750952646</v>
+        <v>1661.005106294272</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>177.3333172233536</v>
+        <v>177.3332967002141</v>
       </c>
       <c r="B154" t="n">
-        <v>1625.24556249137</v>
+        <v>1625.244923476943</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>178.4999837840335</v>
+        <v>178.4999631258734</v>
       </c>
       <c r="B155" t="n">
-        <v>1590.255263645211</v>
+        <v>1590.254630330188</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>179.6666503447135</v>
+        <v>179.6666295515327</v>
       </c>
       <c r="B156" t="n">
-        <v>1556.018279277863</v>
+        <v>1556.017651713111</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>180.8333169053934</v>
+        <v>180.833295977192</v>
       </c>
       <c r="B157" t="n">
-        <v>1522.518391102288</v>
+        <v>1522.517769333594</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>181.9999834660734</v>
+        <v>181.9999624028513</v>
       </c>
       <c r="B158" t="n">
-        <v>1489.739729998551</v>
+        <v>1489.739114067195</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>183.1666500267534</v>
+        <v>183.1666288285106</v>
       </c>
       <c r="B159" t="n">
-        <v>1457.666768497206</v>
+        <v>1457.666158440535</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>184.3333165874333</v>
+        <v>184.3332952541699</v>
       </c>
       <c r="B160" t="n">
-        <v>1426.284313424501</v>
+        <v>1426.283709274365</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>185.4999831481133</v>
+        <v>185.4999616798292</v>
       </c>
       <c r="B161" t="n">
-        <v>1395.577498701912</v>
+        <v>1395.576900487373</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>186.6666497087932</v>
+        <v>186.6666281054885</v>
       </c>
       <c r="B162" t="n">
-        <v>1365.531778307498</v>
+        <v>1365.531186052729</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>187.8333162694732</v>
+        <v>187.8332945311478</v>
       </c>
       <c r="B163" t="n">
-        <v>1336.132919384648</v>
+        <v>1336.132333110574</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>188.9999828301532</v>
+        <v>188.9999609568071</v>
       </c>
       <c r="B164" t="n">
-        <v>1307.366995498226</v>
+        <v>1307.366415221489</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>190.1666493908331</v>
+        <v>190.1666273824665</v>
       </c>
       <c r="B165" t="n">
-        <v>1279.220380039707</v>
+        <v>1279.219805773771</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>191.3333159515131</v>
+        <v>191.3332938081257</v>
       </c>
       <c r="B166" t="n">
-        <v>1251.679739769035</v>
+        <v>1251.679171524218</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>192.499982512193</v>
+        <v>192.4999602337851</v>
       </c>
       <c r="B167" t="n">
-        <v>1224.732028503336</v>
+        <v>1224.731466286845</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>193.666649072873</v>
+        <v>193.6666266594443</v>
       </c>
       <c r="B168" t="n">
-        <v>1198.364480932203</v>
+        <v>1198.36392474763</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>194.833315633553</v>
+        <v>194.8332930851037</v>
       </c>
       <c r="B169" t="n">
-        <v>1172.564606573962</v>
+        <v>1172.564056421317</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>195.9999821942329</v>
+        <v>195.9999595107629</v>
       </c>
       <c r="B170" t="n">
-        <v>1147.32018385584</v>
+        <v>1147.319639734255</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>197.1666487549129</v>
+        <v>197.1666259364223</v>
       </c>
       <c r="B171" t="n">
-        <v>1122.619254327109</v>
+        <v>1122.618716232195</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>198.3333153155928</v>
+        <v>198.3332923620816</v>
       </c>
       <c r="B172" t="n">
-        <v>1098.450116994523</v>
+        <v>1098.449584917865</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>199.4999818762728</v>
+        <v>199.4999587877409</v>
       </c>
       <c r="B173" t="n">
-        <v>1074.801322776845</v>
+        <v>1074.800796709239</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>200.6666484369527</v>
+        <v>200.6666252134002</v>
       </c>
       <c r="B174" t="n">
-        <v>1051.66166908274</v>
+        <v>1051.661149012082</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>201.8333149976327</v>
+        <v>201.8332916390595</v>
       </c>
       <c r="B175" t="n">
-        <v>1029.020194504554</v>
+        <v>1029.019680416404</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>202.9999815583126</v>
+        <v>202.9999580647188</v>
       </c>
       <c r="B176" t="n">
-        <v>1006.866173625842</v>
+        <v>1006.865665503984</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>204.1666481189926</v>
+        <v>204.1666244903781</v>
       </c>
       <c r="B177" t="n">
-        <v>985.1891119399787</v>
+        <v>985.1886097653813</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>205.3333146796726</v>
+        <v>205.3332909160374</v>
       </c>
       <c r="B178" t="n">
-        <v>963.9787408782443</v>
+        <v>963.978244630687</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>206.4999812403525</v>
+        <v>206.4999573416967</v>
       </c>
       <c r="B179" t="n">
-        <v>943.225012947926</v>
+        <v>943.2245226044231</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>207.6666478010325</v>
+        <v>207.666623767356</v>
       </c>
       <c r="B180" t="n">
-        <v>922.9180969692139</v>
+        <v>922.9176125061762</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208.8333143617124</v>
+        <v>208.8332901930153</v>
       </c>
       <c r="B181" t="n">
-        <v>903.0483734215774</v>
+        <v>903.0478948127004</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209.9999809223924</v>
+        <v>209.9999566186746</v>
       </c>
       <c r="B182" t="n">
-        <v>883.6064298857333</v>
+        <v>883.6059571030888</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>211.1666474830724</v>
+        <v>211.1666230443339</v>
       </c>
       <c r="B183" t="n">
-        <v>864.5830565828094</v>
+        <v>864.5825895984717</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>212.3333140437523</v>
+        <v>212.3332894699932</v>
       </c>
       <c r="B184" t="n">
-        <v>845.9692420149764</v>
+        <v>845.9687807978409</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213.4999806044323</v>
+        <v>213.4999558956525</v>
       </c>
       <c r="B185" t="n">
-        <v>827.756168695264</v>
+        <v>827.7557132132052</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>214.6666471651122</v>
+        <v>214.6666223213118</v>
       </c>
       <c r="B186" t="n">
-        <v>809.935208969232</v>
+        <v>809.9347591891261</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>215.8333137257922</v>
+        <v>215.8332887469711</v>
       </c>
       <c r="B187" t="n">
-        <v>792.4979209295632</v>
+        <v>792.4974768178436</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>216.9999802864722</v>
+        <v>216.9999551726304</v>
       </c>
       <c r="B188" t="n">
-        <v>775.4360444182417</v>
+        <v>775.4356059382495</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>218.1666468471521</v>
+        <v>218.1666215982897</v>
       </c>
       <c r="B189" t="n">
-        <v>758.7414971099024</v>
+        <v>758.7410642256453</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>219.3333134078321</v>
+        <v>219.333288023949</v>
       </c>
       <c r="B190" t="n">
-        <v>742.4063706875705</v>
+        <v>742.4059433610731</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>220.499979968512</v>
+        <v>220.4999544496083</v>
       </c>
       <c r="B191" t="n">
-        <v>726.4229270931668</v>
+        <v>726.4225052855581</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>221.666646529192</v>
+        <v>221.6666208752676</v>
       </c>
       <c r="B192" t="n">
-        <v>710.7835948629257</v>
+        <v>710.7831785349927</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>222.8333130898719</v>
+        <v>222.8332873009269</v>
       </c>
       <c r="B193" t="n">
-        <v>695.480965541316</v>
+        <v>695.4805546529876</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>223.9999796505519</v>
+        <v>223.9999537265862</v>
       </c>
       <c r="B194" t="n">
-        <v>680.5077901718638</v>
+        <v>680.5073846811626</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>225.1666462112319</v>
+        <v>225.1666201522455</v>
       </c>
       <c r="B195" t="n">
-        <v>665.85697586114</v>
+        <v>665.8565757263357</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>226.3333127719118</v>
+        <v>226.3332865779049</v>
       </c>
       <c r="B196" t="n">
-        <v>651.521582421784</v>
+        <v>651.521187600343</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>227.4999793325918</v>
+        <v>227.4999530035641</v>
       </c>
       <c r="B197" t="n">
-        <v>637.4948190822839</v>
+        <v>637.4944295303524</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>228.6666458932717</v>
+        <v>228.6666194292235</v>
       </c>
       <c r="B198" t="n">
-        <v>623.7700412720552</v>
+        <v>623.7696569460786</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>229.8333124539517</v>
+        <v>229.8332858548827</v>
       </c>
       <c r="B199" t="n">
-        <v>610.3407474722069</v>
+        <v>610.3403683284125</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>230.9999790146316</v>
+        <v>230.9999522805421</v>
       </c>
       <c r="B200" t="n">
-        <v>597.2005761378691</v>
+        <v>597.2002021301457</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>232.1666455753116</v>
+        <v>232.1666187062014</v>
       </c>
       <c r="B201" t="n">
-        <v>584.3433026814015</v>
+        <v>584.3429337655875</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>233.3333121359915</v>
+        <v>233.3332851318607</v>
       </c>
       <c r="B202" t="n">
-        <v>571.7628365282297</v>
+        <v>571.7624726573229</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>234.4999786966715</v>
+        <v>234.49995155752</v>
       </c>
       <c r="B203" t="n">
-        <v>559.4532182276902</v>
+        <v>559.4528593561342</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>235.6666452573515</v>
+        <v>235.6666179831793</v>
       </c>
       <c r="B204" t="n">
-        <v>547.4086166316956</v>
+        <v>547.4082627121919</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>236.8333118180314</v>
+        <v>236.8332844088386</v>
       </c>
       <c r="B205" t="n">
-        <v>535.623326132147</v>
+        <v>535.6229771183382</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>237.9999783787114</v>
+        <v>237.9999508344979</v>
       </c>
       <c r="B206" t="n">
-        <v>524.0917639592246</v>
+        <v>524.0914198035736</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>239.1666449393913</v>
+        <v>239.1666172601572</v>
       </c>
       <c r="B207" t="n">
-        <v>512.8084675352202</v>
+        <v>512.8081281906254</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>240.3333115000713</v>
+        <v>240.3332836858165</v>
       </c>
       <c r="B208" t="n">
-        <v>501.7680918871129</v>
+        <v>501.7677573058544</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>241.4999780607513</v>
+        <v>241.4999501114758</v>
       </c>
       <c r="B209" t="n">
-        <v>490.9654071168219</v>
+        <v>490.9650772505745</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>242.6666446214312</v>
+        <v>242.6666165371351</v>
       </c>
       <c r="B210" t="n">
-        <v>480.3952959195223</v>
+        <v>480.3949707215046</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>243.8333111821112</v>
+        <v>243.8332829627944</v>
       </c>
       <c r="B211" t="n">
-        <v>470.0527511644441</v>
+        <v>470.0524305856933</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>244.9999777427911</v>
+        <v>244.9999493884537</v>
       </c>
       <c r="B212" t="n">
-        <v>459.9328735183946</v>
+        <v>459.9325575109827</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>246.1666443034711</v>
+        <v>246.166615814113</v>
       </c>
       <c r="B213" t="n">
-        <v>450.0308691290916</v>
+        <v>450.0305576445361</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>247.3333108641511</v>
+        <v>247.3332822397723</v>
       </c>
       <c r="B214" t="n">
-        <v>440.3420473512226</v>
+        <v>440.3417403415662</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>248.499977424831</v>
+        <v>248.4999486654316</v>
       </c>
       <c r="B215" t="n">
-        <v>430.8618185248374</v>
+        <v>430.8615159415913</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>249.666643985511</v>
+        <v>249.6666150910909</v>
       </c>
       <c r="B216" t="n">
-        <v>421.5856918028735</v>
+        <v>421.5853935980977</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>250.8333105461909</v>
+        <v>250.8332815167502</v>
       </c>
       <c r="B217" t="n">
-        <v>412.509273023007</v>
+        <v>412.5089791482527</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>251.9999771068709</v>
+        <v>251.9999479424095</v>
       </c>
       <c r="B218" t="n">
-        <v>403.6282626248965</v>
+        <v>403.6279730317513</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>253.1666436675508</v>
+        <v>253.1666143680688</v>
       </c>
       <c r="B219" t="n">
-        <v>394.9384536154902</v>
+        <v>394.9381682555889</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>254.3333102282308</v>
+        <v>254.3332807937281</v>
       </c>
       <c r="B220" t="n">
-        <v>386.4357295738533</v>
+        <v>386.4354483994224</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>255.4999767889107</v>
+        <v>255.4999472193874</v>
       </c>
       <c r="B221" t="n">
-        <v>378.1160627035233</v>
+        <v>378.1157856663232</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>256.6666433495907</v>
+        <v>256.6666136450467</v>
       </c>
       <c r="B222" t="n">
-        <v>369.9755119227834</v>
+        <v>369.9752389751865</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>257.8333099102707</v>
+        <v>257.8332800707061</v>
       </c>
       <c r="B223" t="n">
-        <v>362.0102209987266</v>
+        <v>362.009952093727</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>258.9999764709506</v>
+        <v>258.9999464963653</v>
       </c>
       <c r="B224" t="n">
-        <v>354.216416720839</v>
+        <v>354.2161518099261</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>260.1666430316306</v>
+        <v>260.1666129220246</v>
       </c>
       <c r="B225" t="n">
-        <v>346.5904071114316</v>
+        <v>346.5901461478036</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>261.3333095923106</v>
+        <v>261.333279347684</v>
       </c>
       <c r="B226" t="n">
-        <v>339.1285796793294</v>
+        <v>339.1283226152325</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>262.4999761529905</v>
+        <v>262.4999457733433</v>
       </c>
       <c r="B227" t="n">
-        <v>331.8273997072056</v>
+        <v>331.8271464966129</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>263.6666427136705</v>
+        <v>263.6666121990025</v>
       </c>
       <c r="B228" t="n">
-        <v>324.6834085784336</v>
+        <v>324.6831591738498</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>264.8333092743504</v>
+        <v>264.8332786246619</v>
       </c>
       <c r="B229" t="n">
-        <v>317.6932221359822</v>
+        <v>317.692976491123</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>265.9999758350304</v>
+        <v>265.9999450503212</v>
       </c>
       <c r="B230" t="n">
-        <v>310.8535290824325</v>
+        <v>310.8532871511638</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>267.1666423957103</v>
+        <v>267.1666114759805</v>
       </c>
       <c r="B231" t="n">
-        <v>304.1610894098994</v>
+        <v>304.1608511457125</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>268.3333089563903</v>
+        <v>268.3332779016397</v>
       </c>
       <c r="B232" t="n">
-        <v>297.612732865201</v>
+        <v>297.6124982228221</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>269.4999755170703</v>
+        <v>269.4999443272991</v>
       </c>
       <c r="B233" t="n">
-        <v>291.205357448672</v>
+        <v>291.2051263824686</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>270.6666420777502</v>
+        <v>270.6666107529584</v>
       </c>
       <c r="B234" t="n">
-        <v>284.9359279434178</v>
+        <v>284.93570040794</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>271.8333086384301</v>
+        <v>271.8332771786177</v>
       </c>
       <c r="B235" t="n">
-        <v>278.8014744792806</v>
+        <v>278.801250429803</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>272.9999751991101</v>
+        <v>272.999943604277</v>
       </c>
       <c r="B236" t="n">
-        <v>272.7990911251104</v>
+        <v>272.7988705171051</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>274.1666417597901</v>
+        <v>274.1666100299363</v>
       </c>
       <c r="B237" t="n">
-        <v>266.9259345120091</v>
+        <v>266.9257173006195</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>275.3333083204701</v>
+        <v>275.3332764555956</v>
       </c>
       <c r="B238" t="n">
-        <v>261.1792224864827</v>
+        <v>261.1790086281319</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>276.49997488115</v>
+        <v>276.4999428812549</v>
       </c>
       <c r="B239" t="n">
-        <v>255.5562327929634</v>
+        <v>255.5560222442939</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>277.6666414418299</v>
+        <v>277.6666093069142</v>
       </c>
       <c r="B240" t="n">
-        <v>250.0543017841042</v>
+        <v>250.0540945009158</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>278.8333080025099</v>
+        <v>278.8332757325735</v>
       </c>
       <c r="B241" t="n">
-        <v>244.6708231583071</v>
+        <v>244.6706190982345</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>279.9999745631899</v>
+        <v>279.9999421582328</v>
       </c>
       <c r="B242" t="n">
-        <v>239.403246726626</v>
+        <v>239.4030458464744</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>281.1666411238699</v>
+        <v>281.1666085838921</v>
       </c>
       <c r="B243" t="n">
-        <v>234.2490772020968</v>
+        <v>234.248879459985</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>282.3333076845498</v>
+        <v>282.3332750095514</v>
       </c>
       <c r="B244" t="n">
-        <v>229.2058730216461</v>
+        <v>229.2056783748762</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>283.4999742452297</v>
+        <v>283.4999414352107</v>
       </c>
       <c r="B245" t="n">
-        <v>224.2712451845537</v>
+        <v>224.2710535922874</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>284.6666408059097</v>
+        <v>284.66660786087</v>
       </c>
       <c r="B246" t="n">
-        <v>219.4428561261624</v>
+        <v>219.4426675467568</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>285.8333073665897</v>
+        <v>285.8332742865293</v>
       </c>
       <c r="B247" t="n">
-        <v>214.7184186054724</v>
+        <v>214.7182329980882</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>286.9999739272696</v>
+        <v>286.9999407121886</v>
       </c>
       <c r="B248" t="n">
-        <v>210.095694625847</v>
+        <v>210.0955119499197</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>288.1666404879496</v>
+        <v>288.1666071378479</v>
       </c>
       <c r="B249" t="n">
-        <v>205.5724943717385</v>
+        <v>205.5723145869842</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>289.3333070486295</v>
+        <v>289.3332735635072</v>
       </c>
       <c r="B250" t="n">
-        <v>201.1466751731845</v>
+        <v>201.1464982396056</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>290.4999736093095</v>
+        <v>290.4999399891665</v>
       </c>
       <c r="B251" t="n">
-        <v>196.8161404905987</v>
+        <v>196.8159663690228</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>291.6666401699894</v>
+        <v>291.6666064148258</v>
       </c>
       <c r="B252" t="n">
-        <v>192.5788389203871</v>
+        <v>192.5786675719387</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>292.8333067306694</v>
+        <v>292.8332728404852</v>
       </c>
       <c r="B253" t="n">
-        <v>188.4327632256668</v>
+        <v>188.4325946112378</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>293.9999732913494</v>
+        <v>293.9999392661445</v>
       </c>
       <c r="B254" t="n">
-        <v>184.3759493814013</v>
+        <v>184.3757834632586</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>295.1666398520293</v>
+        <v>295.1666056918037</v>
       </c>
       <c r="B255" t="n">
-        <v>180.406475649444</v>
+        <v>180.4063123885639</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>296.3333064127092</v>
+        <v>296.333272117463</v>
       </c>
       <c r="B256" t="n">
-        <v>176.5224616626592</v>
+        <v>176.5223010224707</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>297.4999729733892</v>
+        <v>297.4999385431224</v>
       </c>
       <c r="B257" t="n">
-        <v>172.7220675378817</v>
+        <v>172.7219094810667</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>298.6666395340692</v>
+        <v>298.6666049687817</v>
       </c>
       <c r="B258" t="n">
-        <v>169.0034930038296</v>
+        <v>169.0033374933958</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>299.8333060947492</v>
+        <v>299.8332713944409</v>
       </c>
       <c r="B259" t="n">
-        <v>165.3649765466402</v>
+        <v>165.3648235464595</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>300.9999726554291</v>
+        <v>300.9999378201003</v>
       </c>
       <c r="B260" t="n">
-        <v>161.8047945767676</v>
+        <v>161.8046440505124</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>302.166639216109</v>
+        <v>302.1666042457596</v>
       </c>
       <c r="B261" t="n">
-        <v>158.3212606124356</v>
+        <v>158.3211125251852</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>303.333305776789</v>
+        <v>303.3332706714189</v>
       </c>
       <c r="B262" t="n">
-        <v>154.9127244812478</v>
+        <v>154.9125787968225</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>304.499972337469</v>
+        <v>304.4999370970781</v>
       </c>
       <c r="B263" t="n">
-        <v>151.577571535683</v>
+        <v>151.5774282198524</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>305.666638898149</v>
+        <v>305.6666035227375</v>
       </c>
       <c r="B264" t="n">
-        <v>148.3142218926219</v>
+        <v>148.3140809104387</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>306.8333054588289</v>
+        <v>306.8332699483968</v>
       </c>
       <c r="B265" t="n">
-        <v>145.1211296808851</v>
+        <v>145.1209909988252</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>307.9999720195088</v>
+        <v>307.9999363740561</v>
       </c>
       <c r="B266" t="n">
-        <v>141.9967823128024</v>
+        <v>141.9966458966326</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>309.1666385801888</v>
+        <v>309.1666027997154</v>
       </c>
       <c r="B267" t="n">
-        <v>138.9396997627247</v>
+        <v>138.9395655796427</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>310.3333051408688</v>
+        <v>310.3332692253747</v>
       </c>
       <c r="B268" t="n">
-        <v>135.9484338711699</v>
+        <v>135.9483018882057</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>311.4999717015487</v>
+        <v>311.499935651034</v>
       </c>
       <c r="B269" t="n">
-        <v>133.0215676559112</v>
+        <v>133.021437840465</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>312.6666382622287</v>
+        <v>312.6666020766933</v>
       </c>
       <c r="B270" t="n">
-        <v>130.1577146401553</v>
+        <v>130.1575869600006</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>313.8333048229086</v>
+        <v>313.8332685023526</v>
       </c>
       <c r="B271" t="n">
-        <v>127.3555181983425</v>
+        <v>127.35539262163</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>314.9999713835886</v>
+        <v>314.9999349280119</v>
       </c>
       <c r="B272" t="n">
-        <v>124.613650911027</v>
+        <v>124.613527406822</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>316.1666379442685</v>
+        <v>316.1666013536712</v>
       </c>
       <c r="B273" t="n">
-        <v>121.930813937914</v>
+        <v>121.9306924745973</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>317.3333045049485</v>
+        <v>317.3332677793305</v>
       </c>
       <c r="B274" t="n">
-        <v>119.305736401043</v>
+        <v>119.3056169479165</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>318.4999710656285</v>
+        <v>318.4999342049898</v>
       </c>
       <c r="B275" t="n">
-        <v>116.7371747834594</v>
+        <v>116.7370573107489</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>319.6666376263084</v>
+        <v>319.6666006306491</v>
       </c>
       <c r="B276" t="n">
-        <v>114.2239123407016</v>
+        <v>114.2237968184924</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>320.8333041869884</v>
+        <v>320.8332670563084</v>
       </c>
       <c r="B277" t="n">
-        <v>111.7647585240387</v>
+        <v>111.7646449222781</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>321.9999707476683</v>
+        <v>321.9999334819677</v>
       </c>
       <c r="B278" t="n">
-        <v>109.3585484154555</v>
+        <v>109.3584367055581</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>323.1666373083483</v>
+        <v>323.166599907627</v>
       </c>
       <c r="B279" t="n">
-        <v>107.0041421775914</v>
+        <v>107.0040323308401</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>324.3333038690283</v>
+        <v>324.3332663332863</v>
       </c>
       <c r="B280" t="n">
-        <v>104.7004245127584</v>
+        <v>104.7003164997728</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>325.4999704297082</v>
+        <v>325.4999327589456</v>
       </c>
       <c r="B281" t="n">
-        <v>102.4463041337067</v>
+        <v>102.4461979271163</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>326.6666369903882</v>
+        <v>326.6665991846049</v>
       </c>
       <c r="B282" t="n">
-        <v>100.2407132493448</v>
+        <v>100.2406088216555</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>327.8333035510681</v>
+        <v>327.8332656102642</v>
       </c>
       <c r="B283" t="n">
-        <v>98.08260705686702</v>
+        <v>98.08250437992984</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>328.9999701117481</v>
+        <v>328.9999320359236</v>
       </c>
       <c r="B284" t="n">
-        <v>95.97096324616457</v>
+        <v>95.97086229384834</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>330.1666366724281</v>
+        <v>330.1665984615829</v>
       </c>
       <c r="B285" t="n">
-        <v>93.90478151865558</v>
+        <v>93.90468226364523</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>331.333303233108</v>
+        <v>331.3332648872421</v>
       </c>
       <c r="B286" t="n">
-        <v>91.88308310931913</v>
+        <v>91.88298552578853</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>332.499969793788</v>
+        <v>332.4999313129014</v>
       </c>
       <c r="B287" t="n">
-        <v>89.90491032635288</v>
+        <v>89.90481438836498</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>333.6666363544679</v>
+        <v>333.6665977385608</v>
       </c>
       <c r="B288" t="n">
-        <v>87.96932609670498</v>
+        <v>87.96923177821432</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>334.8333029151479</v>
+        <v>334.8332641642201</v>
       </c>
       <c r="B289" t="n">
-        <v>86.07541352121876</v>
+        <v>86.07532079714186</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>335.9999694758278</v>
+        <v>335.9999305898793</v>
       </c>
       <c r="B290" t="n">
-        <v>84.2222754404582</v>
+        <v>84.22218428614175</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>337.1666360365078</v>
+        <v>337.1665970155387</v>
       </c>
       <c r="B291" t="n">
-        <v>82.40903401068017</v>
+        <v>82.4089444013693</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>338.3333025971878</v>
+        <v>338.333263441198</v>
       </c>
       <c r="B292" t="n">
-        <v>80.63483028781727</v>
+        <v>80.63474219919172</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>339.4999691578677</v>
+        <v>339.4999298668573</v>
       </c>
       <c r="B293" t="n">
-        <v>78.89882381947127</v>
+        <v>78.89873722711353</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>340.6666357185477</v>
+        <v>340.6665962925166</v>
       </c>
       <c r="B294" t="n">
-        <v>77.2001922481214</v>
+        <v>77.20010712912087</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>341.8333022792276</v>
+        <v>341.8332627181759</v>
       </c>
       <c r="B295" t="n">
-        <v>75.53813092020698</v>
+        <v>75.53804725102596</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>342.9999688399076</v>
+        <v>342.9999291438352</v>
       </c>
       <c r="B296" t="n">
-        <v>73.91185250642515</v>
+        <v>73.9117702639688</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>344.1666354005876</v>
+        <v>344.1665955694945</v>
       </c>
       <c r="B297" t="n">
-        <v>72.32058662790267</v>
+        <v>72.32050578952109</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>345.3333019612675</v>
+        <v>345.3332619951538</v>
       </c>
       <c r="B298" t="n">
-        <v>70.76357949198081</v>
+        <v>70.76350003547084</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>346.4999685219474</v>
+        <v>346.4999284208131</v>
       </c>
       <c r="B299" t="n">
-        <v>69.24009353334034</v>
+        <v>69.2400154364135</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>347.6666350826274</v>
+        <v>347.6665948464724</v>
       </c>
       <c r="B300" t="n">
-        <v>67.74940706687559</v>
+        <v>67.74933030822795</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>348.8333016433074</v>
+        <v>348.8332612721317</v>
       </c>
       <c r="B301" t="n">
-        <v>66.29081394430672</v>
+        <v>66.29073850201858</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>349.9999682039874</v>
+        <v>349.999927697791</v>
       </c>
       <c r="B302" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>351.1666347646673</v>
+        <v>351.1665941234503</v>
       </c>
       <c r="B303" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>352.3333013253472</v>
+        <v>352.3332605491096</v>
       </c>
       <c r="B304" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>353.4999678860272</v>
+        <v>353.4999269747689</v>
       </c>
       <c r="B305" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>354.6666344467072</v>
+        <v>354.6665934004282</v>
       </c>
       <c r="B306" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>355.8333010073871</v>
+        <v>355.8332598260875</v>
       </c>
       <c r="B307" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>356.9999675680671</v>
+        <v>356.9999262517468</v>
       </c>
       <c r="B308" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>358.166634128747</v>
+        <v>358.1665926774061</v>
       </c>
       <c r="B309" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>359.333300689427</v>
+        <v>359.3332591030654</v>
       </c>
       <c r="B310" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>360.499967250107</v>
+        <v>360.4999255287248</v>
       </c>
       <c r="B311" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>361.6666338107869</v>
+        <v>361.666591954384</v>
       </c>
       <c r="B312" t="n">
         <v>0</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>362.8333003714669</v>
+        <v>362.8332583800433</v>
       </c>
       <c r="B313" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>363.9999669321468</v>
+        <v>363.9999248057026</v>
       </c>
       <c r="B314" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>365.1666334928268</v>
+        <v>365.166591231362</v>
       </c>
       <c r="B315" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>366.3333000535067</v>
+        <v>366.3332576570212</v>
       </c>
       <c r="B316" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>367.4999666141867</v>
+        <v>367.4999240826805</v>
       </c>
       <c r="B317" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>368.6666331748667</v>
+        <v>368.6665905083399</v>
       </c>
       <c r="B318" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>369.8332997355466</v>
+        <v>369.8332569339992</v>
       </c>
       <c r="B319" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>370.9999662962265</v>
+        <v>370.9999233596585</v>
       </c>
       <c r="B320" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>372.1666328569065</v>
+        <v>372.1665897853177</v>
       </c>
       <c r="B321" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>373.3332994175865</v>
+        <v>373.3332562109771</v>
       </c>
       <c r="B322" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>374.4999659782665</v>
+        <v>374.4999226366364</v>
       </c>
       <c r="B323" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>375.6666325389464</v>
+        <v>375.6665890622957</v>
       </c>
       <c r="B324" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>376.8332990996263</v>
+        <v>376.833255487955</v>
       </c>
       <c r="B325" t="n">
         <v>0</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>377.9999656603063</v>
+        <v>377.9999219136143</v>
       </c>
       <c r="B326" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>379.1666322209863</v>
+        <v>379.1665883392736</v>
       </c>
       <c r="B327" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>380.3332987816663</v>
+        <v>380.3332547649329</v>
       </c>
       <c r="B328" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>381.4999653423462</v>
+        <v>381.4999211905922</v>
       </c>
       <c r="B329" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>382.6666319030261</v>
+        <v>382.6665876162515</v>
       </c>
       <c r="B330" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>383.8332984637061</v>
+        <v>383.8332540419108</v>
       </c>
       <c r="B331" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>384.9999650243861</v>
+        <v>384.9999204675701</v>
       </c>
       <c r="B332" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>386.166631585066</v>
+        <v>386.1665868932294</v>
       </c>
       <c r="B333" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>387.333298145746</v>
+        <v>387.3332533188887</v>
       </c>
       <c r="B334" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>388.4999647064259</v>
+        <v>388.499919744548</v>
       </c>
       <c r="B335" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>389.6666312671059</v>
+        <v>389.6665861702073</v>
       </c>
       <c r="B336" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>390.8332978277858</v>
+        <v>390.8332525958666</v>
       </c>
       <c r="B337" t="n">
         <v>0</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>391.9999643884658</v>
+        <v>391.9999190215259</v>
       </c>
       <c r="B338" t="n">
         <v>0</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>393.1666309491458</v>
+        <v>393.1665854471852</v>
       </c>
       <c r="B339" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>394.3332975098257</v>
+        <v>394.3332518728445</v>
       </c>
       <c r="B340" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>395.4999640705057</v>
+        <v>395.4999182985038</v>
       </c>
       <c r="B341" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>396.6666306311856</v>
+        <v>396.6665847241632</v>
       </c>
       <c r="B342" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>397.8332971918656</v>
+        <v>397.8332511498224</v>
       </c>
       <c r="B343" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>398.9999637525456</v>
+        <v>398.9999175754817</v>
       </c>
       <c r="B344" t="n">
         <v>0</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>400.1666303132255</v>
+        <v>400.166584001141</v>
       </c>
       <c r="B345" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>401.3332968739055</v>
+        <v>401.3332504268004</v>
       </c>
       <c r="B346" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>402.4999634345854</v>
+        <v>402.4999168524596</v>
       </c>
       <c r="B347" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>403.6666299952654</v>
+        <v>403.6665832781189</v>
       </c>
       <c r="B348" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>404.8332965559454</v>
+        <v>404.8332497037783</v>
       </c>
       <c r="B349" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>405.9999631166253</v>
+        <v>405.9999161294376</v>
       </c>
       <c r="B350" t="n">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>407.1666296773053</v>
+        <v>407.1665825550969</v>
       </c>
       <c r="B351" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>408.3332962379852</v>
+        <v>408.3332489807562</v>
       </c>
       <c r="B352" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>409.4999627986652</v>
+        <v>409.4999154064155</v>
       </c>
       <c r="B353" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>410.6666293593452</v>
+        <v>410.6665818320748</v>
       </c>
       <c r="B354" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>411.8332959200251</v>
+        <v>411.8332482577341</v>
       </c>
       <c r="B355" t="n">
         <v>0</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>412.9999624807051</v>
+        <v>412.9999146833934</v>
       </c>
       <c r="B356" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>414.166629041385</v>
+        <v>414.1665811090527</v>
       </c>
       <c r="B357" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>415.333295602065</v>
+        <v>415.333247534712</v>
       </c>
       <c r="B358" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>416.4999621627449</v>
+        <v>416.4999139603713</v>
       </c>
       <c r="B359" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>417.6666287234249</v>
+        <v>417.6665803860306</v>
       </c>
       <c r="B360" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>418.8332952841048</v>
+        <v>418.8332468116899</v>
       </c>
       <c r="B361" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>419.9999618447848</v>
+        <v>419.9999132373492</v>
       </c>
       <c r="B362" t="n">
         <v>0</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>421.1666284054647</v>
+        <v>421.1665796630085</v>
       </c>
       <c r="B363" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>422.3332949661447</v>
+        <v>422.3332460886678</v>
       </c>
       <c r="B364" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>423.4999615268247</v>
+        <v>423.4999125143271</v>
       </c>
       <c r="B365" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>424.6666280875046</v>
+        <v>424.6665789399864</v>
       </c>
       <c r="B366" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>425.8332946481846</v>
+        <v>425.8332453656457</v>
       </c>
       <c r="B367" t="n">
         <v>0</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>426.9999612088645</v>
+        <v>426.999911791305</v>
       </c>
       <c r="B368" t="n">
         <v>0</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>428.1666277695445</v>
+        <v>428.1665782169644</v>
       </c>
       <c r="B369" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>429.3332943302245</v>
+        <v>429.3332446426236</v>
       </c>
       <c r="B370" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>430.4999608909044</v>
+        <v>430.4999110682829</v>
       </c>
       <c r="B371" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>431.6666274515844</v>
+        <v>431.6665774939422</v>
       </c>
       <c r="B372" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>432.8332940122643</v>
+        <v>432.8332439196016</v>
       </c>
       <c r="B373" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>433.9999605729443</v>
+        <v>433.9999103452608</v>
       </c>
       <c r="B374" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>435.1666271336243</v>
+        <v>435.1665767709201</v>
       </c>
       <c r="B375" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>436.3332936943042</v>
+        <v>436.3332431965795</v>
       </c>
       <c r="B376" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>437.4999602549842</v>
+        <v>437.4999096222388</v>
       </c>
       <c r="B377" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>438.6666268156641</v>
+        <v>438.666576047898</v>
       </c>
       <c r="B378" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>439.8332933763441</v>
+        <v>439.8332424735573</v>
       </c>
       <c r="B379" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>440.999959937024</v>
+        <v>440.9999088992167</v>
       </c>
       <c r="B380" t="n">
         <v>0</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>442.166626497704</v>
+        <v>442.166575324876</v>
       </c>
       <c r="B381" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>443.333293058384</v>
+        <v>443.3332417505353</v>
       </c>
       <c r="B382" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>444.4999596190639</v>
+        <v>444.4999081761946</v>
       </c>
       <c r="B383" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>445.6666261797438</v>
+        <v>445.6665746018539</v>
       </c>
       <c r="B384" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>446.8332927404238</v>
+        <v>446.8332410275132</v>
       </c>
       <c r="B385" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>447.9999593011038</v>
+        <v>447.9999074531725</v>
       </c>
       <c r="B386" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>449.1666258617838</v>
+        <v>449.1665738788318</v>
       </c>
       <c r="B387" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>450.3332924224637</v>
+        <v>450.3332403044911</v>
       </c>
       <c r="B388" t="n">
         <v>0</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>451.4999589831436</v>
+        <v>451.4999067301504</v>
       </c>
       <c r="B389" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>452.6666255438236</v>
+        <v>452.6665731558097</v>
       </c>
       <c r="B390" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>453.8332921045036</v>
+        <v>453.833239581469</v>
       </c>
       <c r="B391" t="n">
         <v>0</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>454.9999586651836</v>
+        <v>454.9999060071283</v>
       </c>
       <c r="B392" t="n">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>456.1666252258635</v>
+        <v>456.1665724327876</v>
       </c>
       <c r="B393" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>457.3332917865434</v>
+        <v>457.3332388584469</v>
       </c>
       <c r="B394" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>458.4999583472234</v>
+        <v>458.4999052841062</v>
       </c>
       <c r="B395" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>459.6666249079034</v>
+        <v>459.6665717097655</v>
       </c>
       <c r="B396" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>460.8332914685833</v>
+        <v>460.8332381354248</v>
       </c>
       <c r="B397" t="n">
         <v>0</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>461.9999580292633</v>
+        <v>461.9999045610841</v>
       </c>
       <c r="B398" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>463.1666245899432</v>
+        <v>463.1665709867434</v>
       </c>
       <c r="B399" t="n">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>464.3332911506232</v>
+        <v>464.3332374124028</v>
       </c>
       <c r="B400" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>465.4999577113031</v>
+        <v>465.499903838062</v>
       </c>
       <c r="B401" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>466.6666242719831</v>
+        <v>466.6665702637213</v>
       </c>
       <c r="B402" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>467.8332908326631</v>
+        <v>467.8332366893806</v>
       </c>
       <c r="B403" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>468.999957393343</v>
+        <v>468.99990311504</v>
       </c>
       <c r="B404" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>470.166623954023</v>
+        <v>470.1665695406992</v>
       </c>
       <c r="B405" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>471.3332905147029</v>
+        <v>471.3332359663585</v>
       </c>
       <c r="B406" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>472.4999570753829</v>
+        <v>472.4999023920179</v>
       </c>
       <c r="B407" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>473.6666236360629</v>
+        <v>473.6665688176772</v>
       </c>
       <c r="B408" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>474.8332901967428</v>
+        <v>474.8332352433364</v>
       </c>
       <c r="B409" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>475.9999567574228</v>
+        <v>475.9999016689958</v>
       </c>
       <c r="B410" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>477.1666233181027</v>
+        <v>477.1665680946551</v>
       </c>
       <c r="B411" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>478.3332898787827</v>
+        <v>478.3332345203144</v>
       </c>
       <c r="B412" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>479.4999564394627</v>
+        <v>479.4999009459736</v>
       </c>
       <c r="B413" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>480.6666230001426</v>
+        <v>480.666567371633</v>
       </c>
       <c r="B414" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>481.8332895608225</v>
+        <v>481.8332337972923</v>
       </c>
       <c r="B415" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>482.9999561215025</v>
+        <v>482.9999002229516</v>
       </c>
       <c r="B416" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>484.1666226821825</v>
+        <v>484.1665666486109</v>
       </c>
       <c r="B417" t="n">
         <v>0</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>485.3332892428624</v>
+        <v>485.3332330742702</v>
       </c>
       <c r="B418" t="n">
         <v>0</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>486.4999558035424</v>
+        <v>486.4998994999295</v>
       </c>
       <c r="B419" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>487.6666223642223</v>
+        <v>487.6665659255888</v>
       </c>
       <c r="B420" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>488.8332889249023</v>
+        <v>488.8332323512481</v>
       </c>
       <c r="B421" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>489.9999554855823</v>
+        <v>489.9998987769074</v>
       </c>
       <c r="B422" t="n">
         <v>0</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>491.1666220462622</v>
+        <v>491.1665652025667</v>
       </c>
       <c r="B423" t="n">
         <v>0</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>492.3332886069422</v>
+        <v>492.333231628226</v>
       </c>
       <c r="B424" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>493.4999551676221</v>
+        <v>493.4998980538853</v>
       </c>
       <c r="B425" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>494.6666217283021</v>
+        <v>494.6665644795446</v>
       </c>
       <c r="B426" t="n">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>495.833288288982</v>
+        <v>495.8332309052039</v>
       </c>
       <c r="B427" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>496.999954849662</v>
+        <v>496.9998973308632</v>
       </c>
       <c r="B428" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>498.166621410342</v>
+        <v>498.1665637565225</v>
       </c>
       <c r="B429" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>499.3332879710219</v>
+        <v>499.3332301821818</v>
       </c>
       <c r="B430" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>500.4999545317019</v>
+        <v>500.4998966078412</v>
       </c>
       <c r="B431" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>501.6666210923818</v>
+        <v>501.6665630335004</v>
       </c>
       <c r="B432" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>502.8332876530618</v>
+        <v>502.8332294591597</v>
       </c>
       <c r="B433" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>503.9999542137418</v>
+        <v>503.9998958848191</v>
       </c>
       <c r="B434" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>505.1666207744217</v>
+        <v>505.1665623104784</v>
       </c>
       <c r="B435" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>506.3332873351017</v>
+        <v>506.3332287361376</v>
       </c>
       <c r="B436" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>507.4999538957816</v>
+        <v>507.4998951617969</v>
       </c>
       <c r="B437" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>508.6666204564616</v>
+        <v>508.6665615874563</v>
       </c>
       <c r="B438" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>509.8332870171416</v>
+        <v>509.8332280131156</v>
       </c>
       <c r="B439" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>510.9999535778215</v>
+        <v>510.9998944387748</v>
       </c>
       <c r="B440" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>512.1666201385015</v>
+        <v>512.1665608644341</v>
       </c>
       <c r="B441" t="n">
         <v>0</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>513.3332866991814</v>
+        <v>513.3332272900934</v>
       </c>
       <c r="B442" t="n">
         <v>0</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>514.4999532598614</v>
+        <v>514.4998937157528</v>
       </c>
       <c r="B443" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>515.6666198205413</v>
+        <v>515.6665601414121</v>
       </c>
       <c r="B444" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>516.8332863812213</v>
+        <v>516.8332265670714</v>
       </c>
       <c r="B445" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>517.9999529419013</v>
+        <v>517.9998929927307</v>
       </c>
       <c r="B446" t="n">
         <v>0</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>519.1666195025812</v>
+        <v>519.16655941839</v>
       </c>
       <c r="B447" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>520.3332860632612</v>
+        <v>520.3332258440493</v>
       </c>
       <c r="B448" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>521.4999526239411</v>
+        <v>521.4998922697085</v>
       </c>
       <c r="B449" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>522.6666191846211</v>
+        <v>522.6665586953679</v>
       </c>
       <c r="B450" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>523.8332857453011</v>
+        <v>523.8332251210272</v>
       </c>
       <c r="B451" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>524.999952305981</v>
+        <v>524.9998915466865</v>
       </c>
       <c r="B452" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>526.166618866661</v>
+        <v>526.1665579723458</v>
       </c>
       <c r="B453" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>527.3332854273409</v>
+        <v>527.3332243980051</v>
       </c>
       <c r="B454" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>528.4999519880208</v>
+        <v>528.4998908236644</v>
       </c>
       <c r="B455" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>529.6666185487009</v>
+        <v>529.6665572493238</v>
       </c>
       <c r="B456" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>530.8332851093808</v>
+        <v>530.8332236749831</v>
       </c>
       <c r="B457" t="n">
         <v>0</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>531.9999516700608</v>
+        <v>531.9998901006423</v>
       </c>
       <c r="B458" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>533.1666182307407</v>
+        <v>533.1665565263016</v>
       </c>
       <c r="B459" t="n">
         <v>0</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>534.3332847914206</v>
+        <v>534.3332229519609</v>
       </c>
       <c r="B460" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>535.4999513521007</v>
+        <v>535.4998893776202</v>
       </c>
       <c r="B461" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>536.6666179127806</v>
+        <v>536.6665558032795</v>
       </c>
       <c r="B462" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>537.8332844734605</v>
+        <v>537.8332222289389</v>
       </c>
       <c r="B463" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>538.9999510341405</v>
+        <v>538.9998886545982</v>
       </c>
       <c r="B464" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>540.1666175948204</v>
+        <v>540.1665550802575</v>
       </c>
       <c r="B465" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>541.3332841555005</v>
+        <v>541.3332215059168</v>
       </c>
       <c r="B466" t="n">
         <v>0</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>542.4999507161804</v>
+        <v>542.499887931576</v>
       </c>
       <c r="B467" t="n">
         <v>0</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>543.6666172768603</v>
+        <v>543.6665543572353</v>
       </c>
       <c r="B468" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>544.8332838375403</v>
+        <v>544.8332207828946</v>
       </c>
       <c r="B469" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>545.9999503982202</v>
+        <v>545.999887208554</v>
       </c>
       <c r="B470" t="n">
         <v>0</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>547.1666169589002</v>
+        <v>547.1665536342133</v>
       </c>
       <c r="B471" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>548.3332835195802</v>
+        <v>548.3332200598726</v>
       </c>
       <c r="B472" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>549.4999500802601</v>
+        <v>549.4998864855319</v>
       </c>
       <c r="B473" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>550.6666166409401</v>
+        <v>550.6665529111912</v>
       </c>
       <c r="B474" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>551.83328320162</v>
+        <v>551.8332193368504</v>
       </c>
       <c r="B475" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>552.9999497622999</v>
+        <v>552.9998857625097</v>
       </c>
       <c r="B476" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>554.16661632298</v>
+        <v>554.1665521881691</v>
       </c>
       <c r="B477" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>555.3332828836599</v>
+        <v>555.3332186138284</v>
       </c>
       <c r="B478" t="n">
         <v>0</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>556.4999494443399</v>
+        <v>556.4998850394877</v>
       </c>
       <c r="B479" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>557.6666160050198</v>
+        <v>557.666551465147</v>
       </c>
       <c r="B480" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>558.8332825656997</v>
+        <v>558.8332178908063</v>
       </c>
       <c r="B481" t="n">
         <v>0</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>559.9999491263798</v>
+        <v>559.9998843164656</v>
       </c>
       <c r="B482" t="n">
         <v>0</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>561.1666156870597</v>
+        <v>561.1665507421249</v>
       </c>
       <c r="B483" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>562.3332822477397</v>
+        <v>562.3332171677843</v>
       </c>
       <c r="B484" t="n">
         <v>0</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>563.4999488084196</v>
+        <v>563.4998835934435</v>
       </c>
       <c r="B485" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>564.6666153690995</v>
+        <v>564.6665500191028</v>
       </c>
       <c r="B486" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>565.8332819297796</v>
+        <v>565.8332164447621</v>
       </c>
       <c r="B487" t="n">
         <v>0</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>566.9999484904595</v>
+        <v>566.9998828704214</v>
       </c>
       <c r="B488" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>568.1666150511394</v>
+        <v>568.1665492960807</v>
       </c>
       <c r="B489" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>569.3332816118194</v>
+        <v>569.33321572174</v>
       </c>
       <c r="B490" t="n">
         <v>0</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>570.4999481724993</v>
+        <v>570.4998821473994</v>
       </c>
       <c r="B491" t="n">
         <v>0</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>571.6666147331794</v>
+        <v>571.6665485730587</v>
       </c>
       <c r="B492" t="n">
         <v>0</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>572.8332812938593</v>
+        <v>572.8332149987179</v>
       </c>
       <c r="B493" t="n">
         <v>0</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>573.9999478545392</v>
+        <v>573.9998814243772</v>
       </c>
       <c r="B494" t="n">
         <v>0</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>575.1666144152192</v>
+        <v>575.1665478500365</v>
       </c>
       <c r="B495" t="n">
         <v>0</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>576.3332809758991</v>
+        <v>576.3332142756958</v>
       </c>
       <c r="B496" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>577.499947536579</v>
+        <v>577.4998807013552</v>
       </c>
       <c r="B497" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>578.6666140972591</v>
+        <v>578.6665471270145</v>
       </c>
       <c r="B498" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>579.833280657939</v>
+        <v>579.8332135526738</v>
       </c>
       <c r="B499" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>580.999947218619</v>
+        <v>580.9998799783331</v>
       </c>
       <c r="B500" t="n">
         <v>0</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>582.1666137792989</v>
+        <v>582.1665464039924</v>
       </c>
       <c r="B501" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>583.3332803399788</v>
+        <v>583.3332128296516</v>
       </c>
       <c r="B502" t="n">
         <v>0</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>584.4999469006589</v>
+        <v>584.4998792553109</v>
       </c>
       <c r="B503" t="n">
         <v>0</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>585.6666134613388</v>
+        <v>585.6665456809703</v>
       </c>
       <c r="B504" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>586.8332800220188</v>
+        <v>586.8332121066296</v>
       </c>
       <c r="B505" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>587.9999465826987</v>
+        <v>587.9998785322889</v>
       </c>
       <c r="B506" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>589.1666131433786</v>
+        <v>589.1665449579482</v>
       </c>
       <c r="B507" t="n">
         <v>0</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>590.3332797040587</v>
+        <v>590.3332113836075</v>
       </c>
       <c r="B508" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>591.4999462647386</v>
+        <v>591.4998778092668</v>
       </c>
       <c r="B509" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>592.6666128254185</v>
+        <v>592.6665442349261</v>
       </c>
       <c r="B510" t="n">
         <v>0</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>593.8332793860985</v>
+        <v>593.8332106605855</v>
       </c>
       <c r="B511" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>594.9999459467784</v>
+        <v>594.9998770862447</v>
       </c>
       <c r="B512" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>596.1666125074585</v>
+        <v>596.166543511904</v>
       </c>
       <c r="B513" t="n">
         <v>0</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>597.3332790681384</v>
+        <v>597.3332099375633</v>
       </c>
       <c r="B514" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>598.4999456288183</v>
+        <v>598.4998763632226</v>
       </c>
       <c r="B515" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>599.6666121894983</v>
+        <v>599.6665427888819</v>
       </c>
       <c r="B516" t="n">
         <v>0</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>600.8332787501782</v>
+        <v>600.8332092145412</v>
       </c>
       <c r="B517" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>601.9999453108583</v>
+        <v>601.9998756402006</v>
       </c>
       <c r="B518" t="n">
         <v>0</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>603.1666118715382</v>
+        <v>603.1665420658599</v>
       </c>
       <c r="B519" t="n">
         <v>0</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>604.3332784322181</v>
+        <v>604.3332084915191</v>
       </c>
       <c r="B520" t="n">
         <v>0</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>605.4999449928981</v>
+        <v>605.4998749171784</v>
       </c>
       <c r="B521" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>606.666611553578</v>
+        <v>606.6665413428377</v>
       </c>
       <c r="B522" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>607.833278114258</v>
+        <v>607.833207768497</v>
       </c>
       <c r="B523" t="n">
         <v>0</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>608.999944674938</v>
+        <v>608.9998741941563</v>
       </c>
       <c r="B524" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>610.1666112356179</v>
+        <v>610.1665406198157</v>
       </c>
       <c r="B525" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>611.3332777962979</v>
+        <v>611.333207045475</v>
       </c>
       <c r="B526" t="n">
         <v>0</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>612.4999443569778</v>
+        <v>612.4998734711343</v>
       </c>
       <c r="B527" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>613.6666109176577</v>
+        <v>613.6665398967936</v>
       </c>
       <c r="B528" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>614.8332774783378</v>
+        <v>614.8332063224528</v>
       </c>
       <c r="B529" t="n">
         <v>0</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>615.9999440390177</v>
+        <v>615.9998727481121</v>
       </c>
       <c r="B530" t="n">
         <v>0</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>617.1666105996977</v>
+        <v>617.1665391737714</v>
       </c>
       <c r="B531" t="n">
         <v>0</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>618.3332771603776</v>
+        <v>618.3332055994308</v>
       </c>
       <c r="B532" t="n">
         <v>0</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>619.4999437210575</v>
+        <v>619.4998720250901</v>
       </c>
       <c r="B533" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>620.6666102817376</v>
+        <v>620.6665384507494</v>
       </c>
       <c r="B534" t="n">
         <v>0</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>621.8332768424175</v>
+        <v>621.8332048764087</v>
       </c>
       <c r="B535" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>622.9999434030974</v>
+        <v>622.999871302068</v>
       </c>
       <c r="B536" t="n">
         <v>0</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>624.1666099637774</v>
+        <v>624.1665377277272</v>
       </c>
       <c r="B537" t="n">
         <v>0</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>625.3332765244573</v>
+        <v>625.3332041533866</v>
       </c>
       <c r="B538" t="n">
         <v>0</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>626.4999430851374</v>
+        <v>626.4998705790459</v>
       </c>
       <c r="B539" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>627.6666096458173</v>
+        <v>627.6665370047052</v>
       </c>
       <c r="B540" t="n">
         <v>0</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>628.8332762064972</v>
+        <v>628.8332034303645</v>
       </c>
       <c r="B541" t="n">
         <v>0</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>629.9999427671772</v>
+        <v>629.9998698560238</v>
       </c>
       <c r="B542" t="n">
         <v>0</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>631.1666093278571</v>
+        <v>631.1665362816831</v>
       </c>
       <c r="B543" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>632.3332758885371</v>
+        <v>632.3332027073424</v>
       </c>
       <c r="B544" t="n">
         <v>0</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>633.4999424492171</v>
+        <v>633.4998691330018</v>
       </c>
       <c r="B545" t="n">
         <v>0</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>634.666609009897</v>
+        <v>634.6665355586611</v>
       </c>
       <c r="B546" t="n">
         <v>0</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>635.833275570577</v>
+        <v>635.8332019843203</v>
       </c>
       <c r="B547" t="n">
         <v>0</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>636.9999421312569</v>
+        <v>636.9998684099796</v>
       </c>
       <c r="B548" t="n">
         <v>0</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>638.1666086919369</v>
+        <v>638.1665348356389</v>
       </c>
       <c r="B549" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>639.3332752526169</v>
+        <v>639.3332012612982</v>
       </c>
       <c r="B550" t="n">
         <v>0</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>640.4999418132968</v>
+        <v>640.4998676869575</v>
       </c>
       <c r="B551" t="n">
         <v>0</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>641.6666083739768</v>
+        <v>641.6665341126169</v>
       </c>
       <c r="B552" t="n">
         <v>0</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>642.8332749346567</v>
+        <v>642.8332005382762</v>
       </c>
       <c r="B553" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>643.9999414953367</v>
+        <v>643.9998669639355</v>
       </c>
       <c r="B554" t="n">
         <v>0</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>645.1666080560167</v>
+        <v>645.1665333895947</v>
       </c>
       <c r="B555" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>646.3332746166966</v>
+        <v>646.333199815254</v>
       </c>
       <c r="B556" t="n">
         <v>0</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>647.4999411773765</v>
+        <v>647.4998662409133</v>
       </c>
       <c r="B557" t="n">
         <v>0</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>648.6666077380565</v>
+        <v>648.6665326665726</v>
       </c>
       <c r="B558" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>649.8332742987365</v>
+        <v>649.833199092232</v>
       </c>
       <c r="B559" t="n">
         <v>0</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>650.9999408594165</v>
+        <v>650.9998655178913</v>
       </c>
       <c r="B560" t="n">
         <v>0</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>652.1666074200964</v>
+        <v>652.1665319435506</v>
       </c>
       <c r="B561" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>653.3332739807763</v>
+        <v>653.3331983692099</v>
       </c>
       <c r="B562" t="n">
         <v>0</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>654.4999405414563</v>
+        <v>654.4998647948692</v>
       </c>
       <c r="B563" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>655.6666071021363</v>
+        <v>655.6665312205284</v>
       </c>
       <c r="B564" t="n">
         <v>0</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>656.8332736628163</v>
+        <v>656.8331976461877</v>
       </c>
       <c r="B565" t="n">
         <v>0</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>657.9999402234962</v>
+        <v>657.9998640718471</v>
       </c>
       <c r="B566" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>659.1666067841761</v>
+        <v>659.1665304975064</v>
       </c>
       <c r="B567" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>660.3332733448561</v>
+        <v>660.3331969231657</v>
       </c>
       <c r="B568" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>661.4999399055361</v>
+        <v>661.499863348825</v>
       </c>
       <c r="B569" t="n">
         <v>0</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>662.666606466216</v>
+        <v>662.6665297744843</v>
       </c>
       <c r="B570" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>663.833273026896</v>
+        <v>663.8331962001436</v>
       </c>
       <c r="B571" t="n">
         <v>0</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>664.9999395875759</v>
+        <v>664.9998626258028</v>
       </c>
       <c r="B572" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>666.1666061482559</v>
+        <v>666.1665290514622</v>
       </c>
       <c r="B573" t="n">
         <v>0</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>667.3332727089359</v>
+        <v>667.3331954771215</v>
       </c>
       <c r="B574" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>668.4999392696158</v>
+        <v>668.4998619027808</v>
       </c>
       <c r="B575" t="n">
         <v>0</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>669.6666058302958</v>
+        <v>669.6665283284401</v>
       </c>
       <c r="B576" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>670.8332723909757</v>
+        <v>670.8331947540994</v>
       </c>
       <c r="B577" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>671.9999389516556</v>
+        <v>671.9998611797587</v>
       </c>
       <c r="B578" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>673.1666055123357</v>
+        <v>673.1665276054181</v>
       </c>
       <c r="B579" t="n">
         <v>0</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>674.3332720730156</v>
+        <v>674.3331940310774</v>
       </c>
       <c r="B580" t="n">
         <v>0</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>675.4999386336956</v>
+        <v>675.4998604567367</v>
       </c>
       <c r="B581" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>676.6666051943755</v>
+        <v>676.6665268823959</v>
       </c>
       <c r="B582" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>677.8332717550554</v>
+        <v>677.8331933080552</v>
       </c>
       <c r="B583" t="n">
         <v>0</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>678.9999383157354</v>
+        <v>678.9998597337145</v>
       </c>
       <c r="B584" t="n">
         <v>0</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>680.1666048764154</v>
+        <v>680.1665261593738</v>
       </c>
       <c r="B585" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>681.3332714370954</v>
+        <v>681.3331925850332</v>
       </c>
       <c r="B586" t="n">
         <v>0</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>682.4999379977753</v>
+        <v>682.4998590106925</v>
       </c>
       <c r="B587" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>683.6666045584552</v>
+        <v>683.6665254363518</v>
       </c>
       <c r="B588" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>684.8332711191352</v>
+        <v>684.8331918620111</v>
       </c>
       <c r="B589" t="n">
         <v>0</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>685.9999376798152</v>
+        <v>685.9998582876703</v>
       </c>
       <c r="B590" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>687.1666042404951</v>
+        <v>687.1665247133296</v>
       </c>
       <c r="B591" t="n">
         <v>0</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>688.3332708011751</v>
+        <v>688.3331911389889</v>
       </c>
       <c r="B592" t="n">
         <v>0</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>689.499937361855</v>
+        <v>689.4998575646483</v>
       </c>
       <c r="B593" t="n">
         <v>0</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>690.666603922535</v>
+        <v>690.6665239903076</v>
       </c>
       <c r="B594" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>691.833270483215</v>
+        <v>691.8331904159669</v>
       </c>
       <c r="B595" t="n">
         <v>0</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>692.9999370438949</v>
+        <v>692.9998568416262</v>
       </c>
       <c r="B596" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>694.1666036045749</v>
+        <v>694.1665232672855</v>
       </c>
       <c r="B597" t="n">
         <v>0</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>695.3332701652548</v>
+        <v>695.3331896929448</v>
       </c>
       <c r="B598" t="n">
         <v>0</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>696.4999367259348</v>
+        <v>696.499856118604</v>
       </c>
       <c r="B599" t="n">
         <v>0</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>697.6666032866148</v>
+        <v>697.6665225442634</v>
       </c>
       <c r="B600" t="n">
         <v>0</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>698.8332698472947</v>
+        <v>698.8331889699227</v>
       </c>
       <c r="B601" t="n">
         <v>0</v>

--- a/qdote.xlsx
+++ b/qdote.xlsx
@@ -450,2404 +450,2404 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>44426.85046684906</v>
+        <v>49753.1820943663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.166666425659303</v>
+        <v>1.017377804163516</v>
       </c>
       <c r="B3" t="n">
-        <v>43470.37400046764</v>
+        <v>48782.03391444872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.333332851318607</v>
+        <v>2.034755608327031</v>
       </c>
       <c r="B4" t="n">
-        <v>42534.48974850473</v>
+        <v>47829.84188462357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.49999927697791</v>
+        <v>3.052133412490547</v>
       </c>
       <c r="B5" t="n">
-        <v>41618.75437616875</v>
+        <v>46896.23599377018</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.666665702637213</v>
+        <v>4.069511216654062</v>
       </c>
       <c r="B6" t="n">
-        <v>40722.73409333074</v>
+        <v>45980.8534531328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.833332128296517</v>
+        <v>5.086889020817578</v>
       </c>
       <c r="B7" t="n">
-        <v>39846.00444903504</v>
+        <v>45083.3385553445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.99999855395582</v>
+        <v>6.104266824981093</v>
       </c>
       <c r="B8" t="n">
-        <v>38988.15013043427</v>
+        <v>44203.34253620353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.166664979615124</v>
+        <v>7.121644629144608</v>
       </c>
       <c r="B9" t="n">
-        <v>38148.76476605113</v>
+        <v>43340.52343914791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.333331405274427</v>
+        <v>8.139022433308124</v>
       </c>
       <c r="B10" t="n">
-        <v>37327.45073328016</v>
+        <v>42494.54598237383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.49999783093373</v>
+        <v>9.15640023747164</v>
       </c>
       <c r="B11" t="n">
-        <v>36523.81897002861</v>
+        <v>41665.08142855022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.66666425659303</v>
+        <v>10.17377804163516</v>
       </c>
       <c r="B12" t="n">
-        <v>35737.4887904163</v>
+        <v>40851.80745707405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.83333068225234</v>
+        <v>11.19115584579867</v>
       </c>
       <c r="B13" t="n">
-        <v>34968.0877044423</v>
+        <v>40054.40803882101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.99999710791164</v>
+        <v>12.20853364996219</v>
       </c>
       <c r="B14" t="n">
-        <v>34215.25124153325</v>
+        <v>39272.57331334005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.16666353357094</v>
+        <v>13.2259114541257</v>
       </c>
       <c r="B15" t="n">
-        <v>33478.62277789145</v>
+        <v>38505.99946844281</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16.33332995923025</v>
+        <v>14.24328925828922</v>
       </c>
       <c r="B16" t="n">
-        <v>32757.85336755875</v>
+        <v>37754.38862215039</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17.49999638488955</v>
+        <v>15.26066706245273</v>
       </c>
       <c r="B17" t="n">
-        <v>32052.60157712152</v>
+        <v>37017.44870693511</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18.66666281054885</v>
+        <v>16.27804486661625</v>
       </c>
       <c r="B18" t="n">
-        <v>31362.53332396704</v>
+        <v>36294.89335622919</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.83332923620816</v>
+        <v>17.29542267077976</v>
       </c>
       <c r="B19" t="n">
-        <v>30687.32171802925</v>
+        <v>35586.44179314469</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.99999566186746</v>
+        <v>18.31280047494328</v>
       </c>
       <c r="B20" t="n">
-        <v>30026.64690693794</v>
+        <v>34891.81872136576</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.16666208752676</v>
+        <v>19.3301782791068</v>
       </c>
       <c r="B21" t="n">
-        <v>29380.19592450254</v>
+        <v>34210.75421817441</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>23.33332851318607</v>
+        <v>20.34755608327031</v>
       </c>
       <c r="B22" t="n">
-        <v>28747.66254245616</v>
+        <v>33542.98362956038</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>24.49999493884537</v>
+        <v>21.36493388743382</v>
       </c>
       <c r="B23" t="n">
-        <v>28128.74712539645</v>
+        <v>32888.24746737759</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>25.66666136450467</v>
+        <v>22.38231169159734</v>
       </c>
       <c r="B24" t="n">
-        <v>27523.15648884414</v>
+        <v>32246.29130851241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.83332779016398</v>
+        <v>23.39968949576086</v>
       </c>
       <c r="B25" t="n">
-        <v>26930.60376035952</v>
+        <v>31616.86569601644</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.99999421582328</v>
+        <v>24.41706729992437</v>
       </c>
       <c r="B26" t="n">
-        <v>26350.80824364952</v>
+        <v>30999.72604217212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29.16666064148258</v>
+        <v>25.43444510408789</v>
       </c>
       <c r="B27" t="n">
-        <v>25783.49528560033</v>
+        <v>30394.63253344512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.33332706714189</v>
+        <v>26.4518229082514</v>
       </c>
       <c r="B28" t="n">
-        <v>25228.3961461702</v>
+        <v>29801.35003729963</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>31.49999349280119</v>
+        <v>27.46920071241492</v>
       </c>
       <c r="B29" t="n">
-        <v>24685.24787108932</v>
+        <v>29219.64801082585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32.6666599184605</v>
+        <v>28.48657851657843</v>
       </c>
       <c r="B30" t="n">
-        <v>24153.79316729229</v>
+        <v>28649.30041115438</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33.8333263441198</v>
+        <v>29.50395632074195</v>
       </c>
       <c r="B31" t="n">
-        <v>23633.78028103998</v>
+        <v>28090.08560761781</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34.9999927697791</v>
+        <v>30.52133412490547</v>
       </c>
       <c r="B32" t="n">
-        <v>23124.96287866098</v>
+        <v>27541.78629562957</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36.16665919543841</v>
+        <v>31.53871192906898</v>
       </c>
       <c r="B33" t="n">
-        <v>22627.09992985951</v>
+        <v>27004.18941223948</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37.33332562109771</v>
+        <v>32.5560897332325</v>
       </c>
       <c r="B34" t="n">
-        <v>22139.95559354143</v>
+        <v>26477.08605334093</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>38.49999204675701</v>
+        <v>33.57346753739601</v>
       </c>
       <c r="B35" t="n">
-        <v>21663.29910609251</v>
+        <v>25960.27139249245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>39.66665847241632</v>
+        <v>34.59084534155953</v>
       </c>
       <c r="B36" t="n">
-        <v>21196.90467206417</v>
+        <v>25453.5446013259</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>40.83332489807562</v>
+        <v>35.60822314572304</v>
       </c>
       <c r="B37" t="n">
-        <v>20740.55135721273</v>
+        <v>24956.70877150661</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.99999132373492</v>
+        <v>36.62560094988656</v>
       </c>
       <c r="B38" t="n">
-        <v>20294.02298384199</v>
+        <v>24469.57083821343</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>43.16665774939423</v>
+        <v>37.64297875405008</v>
       </c>
       <c r="B39" t="n">
-        <v>19857.10802839782</v>
+        <v>23991.94150512226</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>44.33332417505353</v>
+        <v>38.66035655821359</v>
       </c>
       <c r="B40" t="n">
-        <v>19429.59952126837</v>
+        <v>23523.63517084219</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45.49999060071283</v>
+        <v>39.67773436237711</v>
       </c>
       <c r="B41" t="n">
-        <v>19011.29494874019</v>
+        <v>23064.4698567951</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46.66665702637214</v>
+        <v>40.69511216654062</v>
       </c>
       <c r="B42" t="n">
-        <v>18601.99615706754</v>
+        <v>22614.26713650073</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>47.83332345203144</v>
+        <v>41.71248997070413</v>
       </c>
       <c r="B43" t="n">
-        <v>18201.50925860417</v>
+        <v>22172.85206624143</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>48.99998987769074</v>
+        <v>42.72986777486765</v>
       </c>
       <c r="B44" t="n">
-        <v>17809.64453995912</v>
+        <v>21740.05311708349</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50.16665630335005</v>
+        <v>43.74724557903117</v>
       </c>
       <c r="B45" t="n">
-        <v>17426.21637212631</v>
+        <v>21315.70210821874</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51.33332272900935</v>
+        <v>44.76462338319468</v>
       </c>
       <c r="B46" t="n">
-        <v>17051.04312255215</v>
+        <v>20899.63414161549</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52.49998915466865</v>
+        <v>45.7820011873582</v>
       </c>
       <c r="B47" t="n">
-        <v>16683.94706909321</v>
+        <v>20491.68753793717</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53.66665558032796</v>
+        <v>46.79937899152171</v>
       </c>
       <c r="B48" t="n">
-        <v>16324.75431583168</v>
+        <v>20091.70377372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54.83332200598726</v>
+        <v>47.81675679568523</v>
       </c>
       <c r="B49" t="n">
-        <v>15973.29471069488</v>
+        <v>19699.52741976763</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55.99998843164656</v>
+        <v>48.83413459984875</v>
       </c>
       <c r="B50" t="n">
-        <v>15629.40176485693</v>
+        <v>19315.00608075698</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>57.16665485730586</v>
+        <v>49.85151240401226</v>
       </c>
       <c r="B51" t="n">
-        <v>15292.91257386952</v>
+        <v>18937.9903360188</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>58.33332128296517</v>
+        <v>50.86889020817578</v>
       </c>
       <c r="B52" t="n">
-        <v>14963.66774049474</v>
+        <v>18568.33368147066</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>59.49998770862447</v>
+        <v>51.88626801233929</v>
       </c>
       <c r="B53" t="n">
-        <v>14641.51129919557</v>
+        <v>18205.89247269216</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>60.66665413428377</v>
+        <v>52.90364581650281</v>
       </c>
       <c r="B54" t="n">
-        <v>14326.29064225513</v>
+        <v>17850.52586910301</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61.83332055994308</v>
+        <v>53.92102362066633</v>
       </c>
       <c r="B55" t="n">
-        <v>14017.85644748639</v>
+        <v>17502.09577923495</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>62.99998698560238</v>
+        <v>54.93840142482984</v>
       </c>
       <c r="B56" t="n">
-        <v>13716.06260749482</v>
+        <v>17160.46680707162</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64.16665341126168</v>
+        <v>55.95577922899336</v>
       </c>
       <c r="B57" t="n">
-        <v>13420.7661604673</v>
+        <v>16825.50619943445</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65.33331983692099</v>
+        <v>56.97315703315687</v>
       </c>
       <c r="B58" t="n">
-        <v>13131.82722245108</v>
+        <v>16497.08379439498</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>66.49998626258029</v>
+        <v>57.99053483732038</v>
       </c>
       <c r="B59" t="n">
-        <v>12849.10892108898</v>
+        <v>16175.07197069937</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>67.66665268823959</v>
+        <v>59.0079126414839</v>
       </c>
       <c r="B60" t="n">
-        <v>12572.4773307816</v>
+        <v>15859.3455981717</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>68.8333191138989</v>
+        <v>60.02529044564741</v>
       </c>
       <c r="B61" t="n">
-        <v>12301.80140924657</v>
+        <v>15549.78198909143</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>69.9999855395582</v>
+        <v>61.04266824981093</v>
       </c>
       <c r="B62" t="n">
-        <v>12036.95293544334</v>
+        <v>15246.26085052022</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>71.1666519652175</v>
+        <v>62.06004605397445</v>
       </c>
       <c r="B63" t="n">
-        <v>11777.80644883197</v>
+        <v>14948.66423755463</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72.33331839087681</v>
+        <v>63.07742385813796</v>
       </c>
       <c r="B64" t="n">
-        <v>11524.23918994411</v>
+        <v>14656.87650749626</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>73.49998481653611</v>
+        <v>64.09480166230148</v>
       </c>
       <c r="B65" t="n">
-        <v>11276.13104222924</v>
+        <v>14370.78427491223</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74.66665124219541</v>
+        <v>65.11217946646499</v>
       </c>
       <c r="B66" t="n">
-        <v>11033.36447515589</v>
+        <v>14090.27636757705</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75.83331766785471</v>
+        <v>66.12955727062851</v>
       </c>
       <c r="B67" t="n">
-        <v>10795.8244885353</v>
+        <v>13815.24378326987</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>76.99998409351402</v>
+        <v>67.14693507479203</v>
       </c>
       <c r="B68" t="n">
-        <v>10563.39855804612</v>
+        <v>13545.57964742064</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>78.16665051917333</v>
+        <v>68.16431287895554</v>
       </c>
       <c r="B69" t="n">
-        <v>10335.97658192977</v>
+        <v>13281.17917157622</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>79.33331694483263</v>
+        <v>69.18169068311906</v>
       </c>
       <c r="B70" t="n">
-        <v>10113.45082883711</v>
+        <v>13021.93961268406</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>80.49998337049193</v>
+        <v>70.19906848728257</v>
       </c>
       <c r="B71" t="n">
-        <v>9895.715886790786</v>
+        <v>12767.76023316466</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81.66664979615123</v>
+        <v>71.21644629144609</v>
       </c>
       <c r="B72" t="n">
-        <v>9682.668613255695</v>
+        <v>12518.54226176851</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82.83331622181053</v>
+        <v>72.23382409560961</v>
       </c>
       <c r="B73" t="n">
-        <v>9474.208086276441</v>
+        <v>12274.18885519245</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>83.99998264746984</v>
+        <v>73.25120189977312</v>
       </c>
       <c r="B74" t="n">
-        <v>9270.235556671149</v>
+        <v>12034.60506044985</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>85.16664907312915</v>
+        <v>74.26857970393664</v>
       </c>
       <c r="B75" t="n">
-        <v>9070.654401253278</v>
+        <v>11799.69777797079</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>86.33331549878845</v>
+        <v>75.28595750810015</v>
       </c>
       <c r="B76" t="n">
-        <v>8875.37007705906</v>
+        <v>11569.37572542492</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>87.49998192444775</v>
+        <v>76.30333531226367</v>
       </c>
       <c r="B77" t="n">
-        <v>8684.290076565574</v>
+        <v>11343.54940225216</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88.66664835010705</v>
+        <v>77.32071311642719</v>
       </c>
       <c r="B78" t="n">
-        <v>8497.323883865263</v>
+        <v>11122.13105488064</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>89.83331477576635</v>
+        <v>78.3380909205907</v>
       </c>
       <c r="B79" t="n">
-        <v>8314.382931789478</v>
+        <v>10905.03464262986</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>90.99998120142565</v>
+        <v>79.35546872475422</v>
       </c>
       <c r="B80" t="n">
-        <v>8135.380559954279</v>
+        <v>10692.17580427397</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>92.16664762708497</v>
+        <v>80.37284652891773</v>
       </c>
       <c r="B81" t="n">
-        <v>7960.231973707714</v>
+        <v>10483.47182526043</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>93.33331405274427</v>
+        <v>81.39022433308125</v>
       </c>
       <c r="B82" t="n">
-        <v>7788.854203963063</v>
+        <v>10278.84160556856</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>94.49998047840357</v>
+        <v>82.40760213724475</v>
       </c>
       <c r="B83" t="n">
-        <v>7621.166067894547</v>
+        <v>10078.20562819583</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>95.66664690406287</v>
+        <v>83.42497994140827</v>
       </c>
       <c r="B84" t="n">
-        <v>7457.088130482723</v>
+        <v>9881.485928255914</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>96.83331332972217</v>
+        <v>84.44235774557178</v>
       </c>
       <c r="B85" t="n">
-        <v>7296.542666881199</v>
+        <v>9688.606062684908</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>97.99997975538147</v>
+        <v>85.4597355497353</v>
       </c>
       <c r="B86" t="n">
-        <v>7139.453625603655</v>
+        <v>9499.491080534199</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>99.16664618104079</v>
+        <v>86.47711335389882</v>
       </c>
       <c r="B87" t="n">
-        <v>6985.746592493236</v>
+        <v>9314.067493847568</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100.3333126067001</v>
+        <v>87.49449115806233</v>
       </c>
       <c r="B88" t="n">
-        <v>6835.348755473221</v>
+        <v>9132.263249103555</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>101.4999790323594</v>
+        <v>88.51186896222585</v>
       </c>
       <c r="B89" t="n">
-        <v>6688.188870056594</v>
+        <v>8954.007699215719</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>102.6666454580187</v>
+        <v>89.52924676638936</v>
       </c>
       <c r="B90" t="n">
-        <v>6544.197225596309</v>
+        <v>8779.231576081002</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>103.833311883678</v>
+        <v>90.54662457055288</v>
       </c>
       <c r="B91" t="n">
-        <v>6403.305612261854</v>
+        <v>8607.866963662711</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>104.9999783093373</v>
+        <v>91.5640023747164</v>
       </c>
       <c r="B92" t="n">
-        <v>6265.447288729289</v>
+        <v>8439.847271597733</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>106.1666447349966</v>
+        <v>92.58138017887991</v>
       </c>
       <c r="B93" t="n">
-        <v>6130.556950566083</v>
+        <v>8275.107209323067</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>107.3333111606559</v>
+        <v>93.59875798304343</v>
       </c>
       <c r="B94" t="n">
-        <v>5998.57069929203</v>
+        <v>8113.582760701451</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>108.4999775863152</v>
+        <v>94.61613578720694</v>
       </c>
       <c r="B95" t="n">
-        <v>5869.426012115203</v>
+        <v>7955.211159147954</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>109.6666440119745</v>
+        <v>95.63351359137046</v>
       </c>
       <c r="B96" t="n">
-        <v>5743.061712310881</v>
+        <v>7799.930863238518</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>110.8333104376338</v>
+        <v>96.65089139553398</v>
       </c>
       <c r="B97" t="n">
-        <v>5619.417940242944</v>
+        <v>7647.681532794346</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111.9999768632931</v>
+        <v>97.66826919969749</v>
       </c>
       <c r="B98" t="n">
-        <v>5498.436125009534</v>
+        <v>7498.404005437835</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>113.1666432889524</v>
+        <v>98.68564700386101</v>
       </c>
       <c r="B99" t="n">
-        <v>5380.058956693282</v>
+        <v>7352.040273599855</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>114.3333097146117</v>
+        <v>99.70302480802452</v>
       </c>
       <c r="B100" t="n">
-        <v>5264.230359217644</v>
+        <v>7208.533461978369</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>115.499976140271</v>
+        <v>100.720402612188</v>
       </c>
       <c r="B101" t="n">
-        <v>5150.895463782144</v>
+        <v>7067.82780543982</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>116.6666425659303</v>
+        <v>101.7377804163516</v>
       </c>
       <c r="B102" t="n">
-        <v>5040.000582867983</v>
+        <v>6929.868627346755</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>117.8333089915896</v>
+        <v>102.7551582205151</v>
       </c>
       <c r="B103" t="n">
-        <v>4931.493184810245</v>
+        <v>6794.602318314742</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118.9999754172489</v>
+        <v>103.7725360246786</v>
       </c>
       <c r="B104" t="n">
-        <v>4825.321868909503</v>
+        <v>6661.976315375308</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120.1666418429082</v>
+        <v>104.7899138288421</v>
       </c>
       <c r="B105" t="n">
-        <v>4721.436341084924</v>
+        <v>6531.939081554707</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>121.3333082685675</v>
+        <v>105.8072916330056</v>
       </c>
       <c r="B106" t="n">
-        <v>4619.787390049682</v>
+        <v>6404.44008584523</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>122.4999746942269</v>
+        <v>106.8246694371691</v>
       </c>
       <c r="B107" t="n">
-        <v>4520.326863997433</v>
+        <v>6279.429783570303</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>123.6666411198862</v>
+        <v>107.8420472413327</v>
       </c>
       <c r="B108" t="n">
-        <v>4423.0076477956</v>
+        <v>6156.859597131101</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>124.8333075455455</v>
+        <v>108.8594250454962</v>
       </c>
       <c r="B109" t="n">
-        <v>4327.783640662501</v>
+        <v>6036.681897131632</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>125.9999739712048</v>
+        <v>109.8768028496597</v>
       </c>
       <c r="B110" t="n">
-        <v>4234.609734333655</v>
+        <v>5918.849983867596</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>127.1666403968641</v>
+        <v>110.8941806538232</v>
       </c>
       <c r="B111" t="n">
-        <v>4143.441791690031</v>
+        <v>5803.318069182673</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>128.3333068225234</v>
+        <v>111.9115584579867</v>
       </c>
       <c r="B112" t="n">
-        <v>4054.236625851981</v>
+        <v>5690.04125867267</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>129.4999732481827</v>
+        <v>112.9289362621502</v>
       </c>
       <c r="B113" t="n">
-        <v>3966.951979719634</v>
+        <v>5578.975534242405</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>130.666639673842</v>
+        <v>113.9463140663137</v>
       </c>
       <c r="B114" t="n">
-        <v>3881.546505957603</v>
+        <v>5470.077737000031</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>131.8333060995013</v>
+        <v>114.9636918704772</v>
       </c>
       <c r="B115" t="n">
-        <v>3797.979747407473</v>
+        <v>5363.30555048511</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>132.9999725251606</v>
+        <v>115.9810696746408</v>
       </c>
       <c r="B116" t="n">
-        <v>3716.212117922158</v>
+        <v>5258.617484226178</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>134.1666389508199</v>
+        <v>116.9984474788043</v>
       </c>
       <c r="B117" t="n">
-        <v>3636.20488361363</v>
+        <v>5155.972857616744</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>135.3333053764792</v>
+        <v>118.0158252829678</v>
       </c>
       <c r="B118" t="n">
-        <v>3557.92014450757</v>
+        <v>5055.331784109745</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>136.4999718021385</v>
+        <v>119.0332030871313</v>
       </c>
       <c r="B119" t="n">
-        <v>3481.320816584666</v>
+        <v>4956.655155713921</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>137.6666382277978</v>
+        <v>120.0505808912948</v>
       </c>
       <c r="B120" t="n">
-        <v>3406.370614218176</v>
+        <v>4859.9046278019</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>138.8333046534571</v>
+        <v>121.0679586954583</v>
       </c>
       <c r="B121" t="n">
-        <v>3333.034032983175</v>
+        <v>4765.042604204878</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>139.9999710791164</v>
+        <v>122.0853364996219</v>
       </c>
       <c r="B122" t="n">
-        <v>3261.276332838034</v>
+        <v>4672.032222606794</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>141.1666375047757</v>
+        <v>123.1027143037854</v>
       </c>
       <c r="B123" t="n">
-        <v>3191.063521667973</v>
+        <v>4580.837340219557</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>142.333303930435</v>
+        <v>124.1200921079489</v>
       </c>
       <c r="B124" t="n">
-        <v>3122.362339181617</v>
+        <v>4491.422519735731</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>143.4999703560943</v>
+        <v>125.1374699121124</v>
       </c>
       <c r="B125" t="n">
-        <v>3055.140241158419</v>
+        <v>4403.753015561679</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>144.6666367817536</v>
+        <v>126.1548477162759</v>
       </c>
       <c r="B126" t="n">
-        <v>2989.365384029317</v>
+        <v>4317.794760314046</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>145.8333032074129</v>
+        <v>127.1722255204394</v>
       </c>
       <c r="B127" t="n">
-        <v>2925.006609792777</v>
+        <v>4233.514351579575</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>146.9999696330722</v>
+        <v>128.189603324603</v>
       </c>
       <c r="B128" t="n">
-        <v>2862.033431256057</v>
+        <v>4150.879038940103</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>148.1666360587315</v>
+        <v>129.2069811287665</v>
       </c>
       <c r="B129" t="n">
-        <v>2800.416017592097</v>
+        <v>4069.856711240664</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>149.3333024843908</v>
+        <v>130.22435893293</v>
       </c>
       <c r="B130" t="n">
-        <v>2740.125180209885</v>
+        <v>3990.415884116656</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>150.4999689100501</v>
+        <v>131.2417367370935</v>
       </c>
       <c r="B131" t="n">
-        <v>2681.132358925491</v>
+        <v>3912.525687754327</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>151.6666353357094</v>
+        <v>132.259114541257</v>
       </c>
       <c r="B132" t="n">
-        <v>2623.409608435364</v>
+        <v>3836.15585489928</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>152.8333017613687</v>
+        <v>133.2764923454205</v>
       </c>
       <c r="B133" t="n">
-        <v>2566.929585076412</v>
+        <v>3761.276709093418</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>153.999968187028</v>
+        <v>134.2938701495841</v>
       </c>
       <c r="B134" t="n">
-        <v>2511.665533873398</v>
+        <v>3687.859153141521</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>155.1666346126873</v>
+        <v>135.3112479537476</v>
       </c>
       <c r="B135" t="n">
-        <v>2457.591275866693</v>
+        <v>3615.874657806276</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>156.3333010383467</v>
+        <v>136.3286257579111</v>
       </c>
       <c r="B136" t="n">
-        <v>2404.681195708675</v>
+        <v>3545.29525072313</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>157.4999674640059</v>
+        <v>137.3460035620746</v>
       </c>
       <c r="B137" t="n">
-        <v>2352.910229532461</v>
+        <v>3476.093505526451</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>158.6666338896653</v>
+        <v>138.3633813662381</v>
       </c>
       <c r="B138" t="n">
-        <v>2302.253853075404</v>
+        <v>3408.242531196746</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>159.8333003153245</v>
+        <v>139.3807591704016</v>
       </c>
       <c r="B139" t="n">
-        <v>2252.688070064243</v>
+        <v>3341.715961606921</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160.9999667409839</v>
+        <v>140.3981369745651</v>
       </c>
       <c r="B140" t="n">
-        <v>2204.189400848068</v>
+        <v>3276.487945281043</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>162.1666331666432</v>
+        <v>141.4155147787287</v>
       </c>
       <c r="B141" t="n">
-        <v>2156.734871274263</v>
+        <v>3212.533135344783</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>163.3332995923025</v>
+        <v>142.4328925828922</v>
       </c>
       <c r="B142" t="n">
-        <v>2110.302001805836</v>
+        <v>3149.826679677344</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>164.4999660179618</v>
+        <v>143.4502703870557</v>
       </c>
       <c r="B143" t="n">
-        <v>2064.868796875336</v>
+        <v>3088.344211255065</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>165.6666324436211</v>
+        <v>144.4676481912192</v>
       </c>
       <c r="B144" t="n">
-        <v>2020.413734460917</v>
+        <v>3028.061838681814</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>166.8332988692804</v>
+        <v>145.4850259953827</v>
       </c>
       <c r="B145" t="n">
-        <v>1976.915755895257</v>
+        <v>2968.95613690494</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>167.9999652949397</v>
+        <v>146.5024037995462</v>
       </c>
       <c r="B146" t="n">
-        <v>1934.354255886483</v>
+        <v>2911.004138113717</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>169.166631720599</v>
+        <v>147.5197816037098</v>
       </c>
       <c r="B147" t="n">
-        <v>1892.709072760192</v>
+        <v>2854.183322811711</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>170.3332981462583</v>
+        <v>148.5371594078733</v>
       </c>
       <c r="B148" t="n">
-        <v>1851.960478908145</v>
+        <v>2798.4716110692</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>171.4999645719176</v>
+        <v>149.5545372120368</v>
       </c>
       <c r="B149" t="n">
-        <v>1812.089171441496</v>
+        <v>2743.847353941549</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>172.6666309975769</v>
+        <v>150.5719150162003</v>
       </c>
       <c r="B150" t="n">
-        <v>1773.076263048026</v>
+        <v>2690.289325056001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>173.8332974232362</v>
+        <v>151.5892928203638</v>
       </c>
       <c r="B151" t="n">
-        <v>1734.903273045907</v>
+        <v>2637.776712365036</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>174.9999638488955</v>
+        <v>152.6066706245273</v>
       </c>
       <c r="B152" t="n">
-        <v>1697.552118627576</v>
+        <v>2586.289110057127</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>176.1666302745548</v>
+        <v>153.6240484286909</v>
       </c>
       <c r="B153" t="n">
-        <v>1661.005106294272</v>
+        <v>2535.806510627934</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>177.3332967002141</v>
+        <v>154.6414262328544</v>
       </c>
       <c r="B154" t="n">
-        <v>1625.244923476943</v>
+        <v>2486.309297108285</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>178.4999631258734</v>
+        <v>155.6588040370179</v>
       </c>
       <c r="B155" t="n">
-        <v>1590.254630330188</v>
+        <v>2437.778235436067</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>179.6666295515327</v>
+        <v>156.6761818411814</v>
       </c>
       <c r="B156" t="n">
-        <v>1556.017651713111</v>
+        <v>2390.194466987341</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>180.833295977192</v>
+        <v>157.6935596453449</v>
       </c>
       <c r="B157" t="n">
-        <v>1522.517769333594</v>
+        <v>2343.539501243411</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>181.9999624028513</v>
+        <v>158.7109374495084</v>
       </c>
       <c r="B158" t="n">
-        <v>1489.739114067195</v>
+        <v>2297.795208609159</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>183.1666288285106</v>
+        <v>159.728315253672</v>
       </c>
       <c r="B159" t="n">
-        <v>1457.666158440535</v>
+        <v>2252.943813367333</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>184.3332952541699</v>
+        <v>160.7456930578355</v>
       </c>
       <c r="B160" t="n">
-        <v>1426.283709274365</v>
+        <v>2208.967886768789</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>185.4999616798292</v>
+        <v>161.763070861999</v>
       </c>
       <c r="B161" t="n">
-        <v>1395.576900487373</v>
+        <v>2165.850340263586</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>186.6666281054885</v>
+        <v>162.7804486661625</v>
       </c>
       <c r="B162" t="n">
-        <v>1365.531186052729</v>
+        <v>2123.57441885762</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>187.8332945311478</v>
+        <v>163.797826470326</v>
       </c>
       <c r="B163" t="n">
-        <v>1336.132333110574</v>
+        <v>2082.123694602766</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>188.9999609568071</v>
+        <v>164.8152042744895</v>
       </c>
       <c r="B164" t="n">
-        <v>1307.366415221489</v>
+        <v>2041.482060213795</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>190.1666273824665</v>
+        <v>165.832582078653</v>
       </c>
       <c r="B165" t="n">
-        <v>1279.219805773771</v>
+        <v>2001.633722807751</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>191.3332938081257</v>
+        <v>166.8499598828165</v>
       </c>
       <c r="B166" t="n">
-        <v>1251.679171524218</v>
+        <v>1962.56319776951</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>192.4999602337851</v>
+        <v>167.8673376869801</v>
       </c>
       <c r="B167" t="n">
-        <v>1224.731466286845</v>
+        <v>1924.25530273122</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>193.6666266594443</v>
+        <v>168.8847154911436</v>
       </c>
       <c r="B168" t="n">
-        <v>1198.36392474763</v>
+        <v>1886.695151676083</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>194.8332930851037</v>
+        <v>169.9020932953071</v>
       </c>
       <c r="B169" t="n">
-        <v>1172.564056421317</v>
+        <v>1849.868149151126</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>195.9999595107629</v>
+        <v>170.9194710994706</v>
       </c>
       <c r="B170" t="n">
-        <v>1147.319639734255</v>
+        <v>1813.759984597563</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>197.1666259364223</v>
+        <v>171.9368489036341</v>
       </c>
       <c r="B171" t="n">
-        <v>1122.618716232195</v>
+        <v>1778.356626787717</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>198.3332923620816</v>
+        <v>172.9542267077976</v>
       </c>
       <c r="B172" t="n">
-        <v>1098.449584917865</v>
+        <v>1743.644318375841</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>199.4999587877409</v>
+        <v>173.9716045119611</v>
       </c>
       <c r="B173" t="n">
-        <v>1074.800796709239</v>
+        <v>1709.609570547545</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>200.6666252134002</v>
+        <v>174.9889823161247</v>
       </c>
       <c r="B174" t="n">
-        <v>1051.661149012082</v>
+        <v>1676.239157783737</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>201.8332916390595</v>
+        <v>176.0063601202882</v>
       </c>
       <c r="B175" t="n">
-        <v>1029.019680416404</v>
+        <v>1643.520112716427</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>202.9999580647188</v>
+        <v>177.0237379244517</v>
       </c>
       <c r="B176" t="n">
-        <v>1006.865665503984</v>
+        <v>1611.43972109231</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>204.1666244903781</v>
+        <v>178.0411157286152</v>
       </c>
       <c r="B177" t="n">
-        <v>985.1886097653813</v>
+        <v>1579.985516832505</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>205.3332909160374</v>
+        <v>179.0584935327787</v>
       </c>
       <c r="B178" t="n">
-        <v>963.978244630687</v>
+        <v>1549.145277185985</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>206.4999573416967</v>
+        <v>180.0758713369422</v>
       </c>
       <c r="B179" t="n">
-        <v>943.2245226044231</v>
+        <v>1518.907017982217</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>207.666623767356</v>
+        <v>181.0932491411058</v>
       </c>
       <c r="B180" t="n">
-        <v>922.9176125061762</v>
+        <v>1489.258988974439</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>208.8332901930153</v>
+        <v>182.1106269452693</v>
       </c>
       <c r="B181" t="n">
-        <v>903.0478948127004</v>
+        <v>1460.189669271128</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>209.9999566186746</v>
+        <v>183.1280047494328</v>
       </c>
       <c r="B182" t="n">
-        <v>883.6059571030888</v>
+        <v>1431.687762861153</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>211.1666230443339</v>
+        <v>184.1453825535963</v>
       </c>
       <c r="B183" t="n">
-        <v>864.5825895984717</v>
+        <v>1403.742194224068</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>212.3332894699932</v>
+        <v>185.1627603577598</v>
       </c>
       <c r="B184" t="n">
-        <v>845.9687807978409</v>
+        <v>1376.342104026743</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>213.4999558956525</v>
+        <v>186.1801381619233</v>
       </c>
       <c r="B185" t="n">
-        <v>827.7557132132052</v>
+        <v>1349.47684490145</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>214.6666223213118</v>
+        <v>187.1975159660869</v>
       </c>
       <c r="B186" t="n">
-        <v>809.9347591891261</v>
+        <v>1323.135977310905</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>215.8332887469711</v>
+        <v>188.2148937702504</v>
       </c>
       <c r="B187" t="n">
-        <v>792.4974768178436</v>
+        <v>1297.309265489257</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>216.9999551726304</v>
+        <v>189.2322715744139</v>
       </c>
       <c r="B188" t="n">
-        <v>775.4356059382495</v>
+        <v>1271.98667346758</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>218.1666215982897</v>
+        <v>190.2496493785774</v>
       </c>
       <c r="B189" t="n">
-        <v>758.7410642256453</v>
+        <v>1247.158361170409</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>219.333288023949</v>
+        <v>191.2670271827409</v>
       </c>
       <c r="B190" t="n">
-        <v>742.4059433610731</v>
+        <v>1222.814680594948</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>220.4999544496083</v>
+        <v>192.2844049869044</v>
       </c>
       <c r="B191" t="n">
-        <v>726.4225052855581</v>
+        <v>1198.946172060095</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>221.6666208752676</v>
+        <v>193.301782791068</v>
       </c>
       <c r="B192" t="n">
-        <v>710.7831785349927</v>
+        <v>1175.543560532625</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>222.8332873009269</v>
+        <v>194.3191605952315</v>
       </c>
       <c r="B193" t="n">
-        <v>695.4805546529876</v>
+        <v>1152.597752020133</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>223.9999537265862</v>
+        <v>195.336538399395</v>
       </c>
       <c r="B194" t="n">
-        <v>680.5073846811626</v>
+        <v>1130.099830039295</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>225.1666201522455</v>
+        <v>196.3539162035585</v>
       </c>
       <c r="B195" t="n">
-        <v>665.8565757263357</v>
+        <v>1108.041052150882</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>226.3332865779049</v>
+        <v>197.371294007722</v>
       </c>
       <c r="B196" t="n">
-        <v>651.521187600343</v>
+        <v>1086.412846561534</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>227.4999530035641</v>
+        <v>198.3886718118855</v>
       </c>
       <c r="B197" t="n">
-        <v>637.4944295303524</v>
+        <v>1065.206808793498</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>228.6666194292235</v>
+        <v>199.406049616049</v>
       </c>
       <c r="B198" t="n">
-        <v>623.7696569460786</v>
+        <v>1044.414698418683</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>229.8332858548827</v>
+        <v>200.4234274202126</v>
       </c>
       <c r="B199" t="n">
-        <v>610.3403683284125</v>
+        <v>1024.028435857004</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>230.9999522805421</v>
+        <v>201.4408052243761</v>
       </c>
       <c r="B200" t="n">
-        <v>597.2002021301457</v>
+        <v>1004.040099235973</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>232.1666187062014</v>
+        <v>202.4581830285396</v>
       </c>
       <c r="B201" t="n">
-        <v>584.3429337655875</v>
+        <v>984.4419213127594</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>233.3332851318607</v>
+        <v>203.4755608327031</v>
       </c>
       <c r="B202" t="n">
-        <v>571.7624726573229</v>
+        <v>965.2262864556426</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>234.49995155752</v>
+        <v>204.4929386368666</v>
       </c>
       <c r="B203" t="n">
-        <v>559.4528593561342</v>
+        <v>946.3857276842663</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>235.6666179831793</v>
+        <v>205.5103164410301</v>
       </c>
       <c r="B204" t="n">
-        <v>547.4082627121919</v>
+        <v>927.9129237699013</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>236.8332844088386</v>
+        <v>206.5276942451937</v>
       </c>
       <c r="B205" t="n">
-        <v>535.6229771183382</v>
+        <v>909.8006963889915</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>237.9999508344979</v>
+        <v>207.5450720493572</v>
       </c>
       <c r="B206" t="n">
-        <v>524.0914198035736</v>
+        <v>892.0420073324259</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>239.1666172601572</v>
+        <v>208.5624498535207</v>
       </c>
       <c r="B207" t="n">
-        <v>512.8081281906254</v>
+        <v>874.6299557736035</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>240.3332836858165</v>
+        <v>209.5798276576842</v>
       </c>
       <c r="B208" t="n">
-        <v>501.7677573058544</v>
+        <v>857.5577755854893</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>241.4999501114758</v>
+        <v>210.5972054618477</v>
       </c>
       <c r="B209" t="n">
-        <v>490.9650772505745</v>
+        <v>840.818832710338</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>242.6666165371351</v>
+        <v>211.6145832660112</v>
       </c>
       <c r="B210" t="n">
-        <v>480.3949707215046</v>
+        <v>824.4066225833086</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>243.8332829627944</v>
+        <v>212.6319610701748</v>
       </c>
       <c r="B211" t="n">
-        <v>470.0524305856933</v>
+        <v>808.3147676038466</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>244.9999493884537</v>
+        <v>213.6493388743383</v>
       </c>
       <c r="B212" t="n">
-        <v>459.9325575109827</v>
+        <v>792.537014657896</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>246.166615814113</v>
+        <v>214.6667166785018</v>
       </c>
       <c r="B213" t="n">
-        <v>450.0305576445361</v>
+        <v>777.0672326878788</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>247.3332822397723</v>
+        <v>215.6840944826653</v>
       </c>
       <c r="B214" t="n">
-        <v>440.3417403415662</v>
+        <v>761.8994103110543</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>248.4999486654316</v>
+        <v>216.7014722868288</v>
       </c>
       <c r="B215" t="n">
-        <v>430.8615159415913</v>
+        <v>747.0276534813598</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>249.6666150910909</v>
+        <v>217.7188500909923</v>
       </c>
       <c r="B216" t="n">
-        <v>421.5853935980977</v>
+        <v>732.4461832014665</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>250.8332815167502</v>
+        <v>218.7362278951558</v>
       </c>
       <c r="B217" t="n">
-        <v>412.5089791482527</v>
+        <v>718.1493332764818</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>251.9999479424095</v>
+        <v>219.7536056993194</v>
       </c>
       <c r="B218" t="n">
-        <v>403.6279730317513</v>
+        <v>704.1315481105177</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>253.1666143680688</v>
+        <v>220.7709835034829</v>
       </c>
       <c r="B219" t="n">
-        <v>394.9381682555889</v>
+        <v>690.3873805498021</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>254.3332807937281</v>
+        <v>221.7883613076464</v>
       </c>
       <c r="B220" t="n">
-        <v>386.4354483994224</v>
+        <v>676.9114897662103</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>255.4999472193874</v>
+        <v>222.8057391118099</v>
       </c>
       <c r="B221" t="n">
-        <v>378.1157856663232</v>
+        <v>663.6986391787639</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>256.6666136450467</v>
+        <v>223.8231169159734</v>
       </c>
       <c r="B222" t="n">
-        <v>369.9752389751865</v>
+        <v>650.7436944228981</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>257.8332800707061</v>
+        <v>224.8404947201369</v>
       </c>
       <c r="B223" t="n">
-        <v>362.009952093727</v>
+        <v>638.0416213534108</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>258.9999464963653</v>
+        <v>225.8578725243005</v>
       </c>
       <c r="B224" t="n">
-        <v>354.2161518099261</v>
+        <v>625.5874840859941</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>260.1666129220246</v>
+        <v>226.875250328464</v>
       </c>
       <c r="B225" t="n">
-        <v>346.5901461478036</v>
+        <v>613.3764430834699</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>261.333279347684</v>
+        <v>227.8926281326275</v>
       </c>
       <c r="B226" t="n">
-        <v>339.1283226152325</v>
+        <v>601.4037532726466</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>262.4999457733433</v>
+        <v>228.910005936791</v>
       </c>
       <c r="B227" t="n">
-        <v>331.8271464966129</v>
+        <v>589.6647622015946</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>263.6666121990025</v>
+        <v>229.9273837409545</v>
       </c>
       <c r="B228" t="n">
-        <v>324.6831591738498</v>
+        <v>578.1549082287669</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>264.8332786246619</v>
+        <v>230.944761545118</v>
       </c>
       <c r="B229" t="n">
-        <v>317.692976491123</v>
+        <v>566.8697187555989</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>265.9999450503212</v>
+        <v>231.9621393492815</v>
       </c>
       <c r="B230" t="n">
-        <v>310.8532871511638</v>
+        <v>555.8048084836068</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>267.1666114759805</v>
+        <v>232.979517153445</v>
       </c>
       <c r="B231" t="n">
-        <v>304.1608511457125</v>
+        <v>544.9558777131278</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>268.3332779016397</v>
+        <v>233.9968949576086</v>
       </c>
       <c r="B232" t="n">
-        <v>297.6124982228221</v>
+        <v>534.3187106720682</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>269.4999443272991</v>
+        <v>235.0142727617721</v>
       </c>
       <c r="B233" t="n">
-        <v>291.2051263824686</v>
+        <v>523.8891738758849</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>270.6666107529584</v>
+        <v>236.0316505659356</v>
       </c>
       <c r="B234" t="n">
-        <v>284.93570040794</v>
+        <v>513.6632145249235</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>271.8332771786177</v>
+        <v>237.0490283700991</v>
       </c>
       <c r="B235" t="n">
-        <v>278.801250429803</v>
+        <v>503.636858925639</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>272.999943604277</v>
+        <v>238.0664061742626</v>
       </c>
       <c r="B236" t="n">
-        <v>272.7988705171051</v>
+        <v>493.8062109485621</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>274.1666100299363</v>
+        <v>239.0837839784261</v>
       </c>
       <c r="B237" t="n">
-        <v>266.9257173006195</v>
+        <v>484.1674505156605</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>275.3332764555956</v>
+        <v>240.1011617825897</v>
       </c>
       <c r="B238" t="n">
-        <v>261.1790086281319</v>
+        <v>474.7168321121958</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>276.4999428812549</v>
+        <v>241.1185395867532</v>
       </c>
       <c r="B239" t="n">
-        <v>255.5560222442939</v>
+        <v>465.4506833334885</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>277.6666093069142</v>
+        <v>242.1359173909167</v>
       </c>
       <c r="B240" t="n">
-        <v>250.0540945009158</v>
+        <v>456.3654034592403</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>278.8332757325735</v>
+        <v>243.1532951950802</v>
       </c>
       <c r="B241" t="n">
-        <v>244.6706190982345</v>
+        <v>447.4574620517404</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>279.9999421582328</v>
+        <v>244.1706729992437</v>
       </c>
       <c r="B242" t="n">
-        <v>239.4030458464744</v>
+        <v>438.7233975846923</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>281.1666085838921</v>
+        <v>245.1880508034072</v>
       </c>
       <c r="B243" t="n">
-        <v>234.248879459985</v>
+        <v>430.1598160983741</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>282.3332750095514</v>
+        <v>246.2054286075708</v>
       </c>
       <c r="B244" t="n">
-        <v>229.2056783748762</v>
+        <v>421.7633898823558</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>283.4999414352107</v>
+        <v>247.2228064117343</v>
       </c>
       <c r="B245" t="n">
-        <v>224.2710535922874</v>
+        <v>413.5308561790402</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>284.66660786087</v>
+        <v>248.2401842158978</v>
       </c>
       <c r="B246" t="n">
-        <v>219.4426675467568</v>
+        <v>405.4590159184349</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>285.8332742865293</v>
+        <v>249.2575620200613</v>
       </c>
       <c r="B247" t="n">
-        <v>214.7182329980882</v>
+        <v>397.5447324743593</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>286.9999407121886</v>
+        <v>250.2749398242248</v>
       </c>
       <c r="B248" t="n">
-        <v>210.0955119499197</v>
+        <v>389.7849304451472</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>288.1666071378479</v>
+        <v>251.2923176283883</v>
       </c>
       <c r="B249" t="n">
-        <v>205.5723145869842</v>
+        <v>382.1765944588464</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>289.3332735635072</v>
+        <v>252.3096954325518</v>
       </c>
       <c r="B250" t="n">
-        <v>201.1464982396056</v>
+        <v>374.7167680016885</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>290.4999399891665</v>
+        <v>253.3270732367154</v>
       </c>
       <c r="B251" t="n">
-        <v>196.8159663690228</v>
+        <v>367.4025522686064</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>291.6666064148258</v>
+        <v>254.3444510408789</v>
       </c>
       <c r="B252" t="n">
-        <v>192.5786675719387</v>
+        <v>360.2311050382472</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>292.8332728404852</v>
+        <v>255.3618288450424</v>
       </c>
       <c r="B253" t="n">
-        <v>188.4325946112378</v>
+        <v>353.1996395663573</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>293.9999392661445</v>
+        <v>256.3792066492059</v>
       </c>
       <c r="B254" t="n">
-        <v>184.3757834632586</v>
+        <v>346.3054235048895</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>295.1666056918037</v>
+        <v>257.3965844533694</v>
       </c>
       <c r="B255" t="n">
-        <v>180.4063123885639</v>
+        <v>339.5457778388681</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>296.333272117463</v>
+        <v>258.4139622575329</v>
       </c>
       <c r="B256" t="n">
-        <v>176.5223010224707</v>
+        <v>332.9180758453018</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>297.4999385431224</v>
+        <v>259.4313400616965</v>
       </c>
       <c r="B257" t="n">
-        <v>172.7219094810667</v>
+        <v>326.4197420741431</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>298.6666049687817</v>
+        <v>260.44871786586</v>
       </c>
       <c r="B258" t="n">
-        <v>169.0033374933958</v>
+        <v>320.0482513463943</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>299.8332713944409</v>
+        <v>261.4660956700235</v>
       </c>
       <c r="B259" t="n">
-        <v>165.3648235464595</v>
+        <v>313.8011277711988</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>300.9999378201003</v>
+        <v>262.483473474187</v>
       </c>
       <c r="B260" t="n">
-        <v>161.8046440505124</v>
+        <v>307.6759437880406</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>302.1666042457596</v>
+        <v>263.5008512783505</v>
       </c>
       <c r="B261" t="n">
-        <v>158.3211125251852</v>
+        <v>301.6703192181299</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>303.3332706714189</v>
+        <v>264.518229082514</v>
       </c>
       <c r="B262" t="n">
-        <v>154.9125787968225</v>
+        <v>295.7819203433467</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>304.4999370970781</v>
+        <v>265.5356068866776</v>
       </c>
       <c r="B263" t="n">
-        <v>151.5774282198524</v>
+        <v>290.0084589992703</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>305.6666035227375</v>
+        <v>266.5529846908411</v>
       </c>
       <c r="B264" t="n">
-        <v>148.3140809104387</v>
+        <v>284.3476916816813</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>306.8332699483968</v>
+        <v>267.5703624950046</v>
       </c>
       <c r="B265" t="n">
-        <v>145.1209909988252</v>
+        <v>278.7974186818462</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>307.9999363740561</v>
+        <v>268.5877402991681</v>
       </c>
       <c r="B266" t="n">
-        <v>141.9966458966326</v>
+        <v>273.3554832254775</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>309.1666027997154</v>
+        <v>269.6051181033316</v>
       </c>
       <c r="B267" t="n">
-        <v>138.9395655796427</v>
+        <v>268.0197706374133</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>310.3332692253747</v>
+        <v>270.6224959074951</v>
       </c>
       <c r="B268" t="n">
-        <v>135.9483018882057</v>
+        <v>262.7882075191592</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>311.499935651034</v>
+        <v>271.6398737116587</v>
       </c>
       <c r="B269" t="n">
-        <v>133.021437840465</v>
+        <v>257.6587609454131</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>312.6666020766933</v>
+        <v>272.6572515158222</v>
       </c>
       <c r="B270" t="n">
-        <v>130.1575869600006</v>
+        <v>252.6294376703892</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>313.8332685023526</v>
+        <v>273.6746293199857</v>
       </c>
       <c r="B271" t="n">
-        <v>127.35539262163</v>
+        <v>247.6982833549639</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>314.9999349280119</v>
+        <v>274.6920071241492</v>
       </c>
       <c r="B272" t="n">
-        <v>124.613527406822</v>
+        <v>242.8633818085191</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>316.1666013536712</v>
+        <v>275.7093849283127</v>
       </c>
       <c r="B273" t="n">
-        <v>121.9306924745973</v>
+        <v>238.1228542424211</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>317.3332677793305</v>
+        <v>276.7267627324762</v>
       </c>
       <c r="B274" t="n">
-        <v>119.3056169479165</v>
+        <v>233.47485854126</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>318.4999342049898</v>
+        <v>277.7441405366397</v>
       </c>
       <c r="B275" t="n">
-        <v>116.7370573107489</v>
+        <v>228.9175885457232</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>319.6666006306491</v>
+        <v>278.7615183408033</v>
       </c>
       <c r="B276" t="n">
-        <v>114.2237968184924</v>
+        <v>224.449273352618</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>320.8332670563084</v>
+        <v>279.7788961449668</v>
       </c>
       <c r="B277" t="n">
-        <v>111.7646449222781</v>
+        <v>220.0681766240793</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>321.9999334819677</v>
+        <v>280.7962739491303</v>
       </c>
       <c r="B278" t="n">
-        <v>109.3584367055581</v>
+        <v>215.7725959157617</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>323.166599907627</v>
+        <v>281.8136517532938</v>
       </c>
       <c r="B279" t="n">
-        <v>107.0040323308401</v>
+        <v>211.5608620129935</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>324.3332663332863</v>
+        <v>282.8310295574573</v>
       </c>
       <c r="B280" t="n">
-        <v>104.7003164997728</v>
+        <v>207.4313382834651</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>325.4999327589456</v>
+        <v>283.8484073616208</v>
       </c>
       <c r="B281" t="n">
-        <v>102.4461979271163</v>
+        <v>203.3824200403287</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>326.6665991846049</v>
+        <v>284.8657851657844</v>
       </c>
       <c r="B282" t="n">
-        <v>100.2406088216555</v>
+        <v>199.412533919995</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>327.8332656102642</v>
+        <v>285.8831629699479</v>
       </c>
       <c r="B283" t="n">
-        <v>98.08250437992984</v>
+        <v>195.5201372685044</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>328.9999320359236</v>
+        <v>286.9005407741114</v>
       </c>
       <c r="B284" t="n">
-        <v>95.97086229384834</v>
+        <v>191.7037175450452</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>330.1665984615829</v>
+        <v>287.9179185782749</v>
       </c>
       <c r="B285" t="n">
-        <v>93.90468226364523</v>
+        <v>187.9617917315954</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>331.3332648872421</v>
+        <v>288.9352963824384</v>
       </c>
       <c r="B286" t="n">
-        <v>91.88298552578853</v>
+        <v>184.2929057578752</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>332.4999313129014</v>
+        <v>289.9526741866019</v>
       </c>
       <c r="B287" t="n">
-        <v>89.90481438836498</v>
+        <v>180.6956339360979</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>333.6665977385608</v>
+        <v>290.9700519907655</v>
       </c>
       <c r="B288" t="n">
-        <v>87.96923177821432</v>
+        <v>177.168578406744</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>334.8332641642201</v>
+        <v>291.987429794929</v>
       </c>
       <c r="B289" t="n">
-        <v>86.07532079714186</v>
+        <v>173.7103685953579</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>335.9999305898793</v>
+        <v>293.0048075990925</v>
       </c>
       <c r="B290" t="n">
-        <v>84.22218428614175</v>
+        <v>170.3196606809816</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>337.1665970155387</v>
+        <v>294.022185403256</v>
       </c>
       <c r="B291" t="n">
-        <v>82.4089444013693</v>
+        <v>166.9951370725489</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>338.333263441198</v>
+        <v>295.0395632074195</v>
       </c>
       <c r="B292" t="n">
-        <v>80.63474219919172</v>
+        <v>163.7355058969149</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>339.4999298668573</v>
+        <v>296.056941011583</v>
       </c>
       <c r="B293" t="n">
-        <v>78.89873722711353</v>
+        <v>160.5395004991343</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>340.6665962925166</v>
+        <v>297.0743188157466</v>
       </c>
       <c r="B294" t="n">
-        <v>77.20010712912087</v>
+        <v>157.4058789470264</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>341.8332627181759</v>
+        <v>298.0916966199101</v>
       </c>
       <c r="B295" t="n">
-        <v>75.53804725102596</v>
+        <v>154.3334235498251</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>342.9999291438352</v>
+        <v>299.1090744240736</v>
       </c>
       <c r="B296" t="n">
-        <v>73.9117702639688</v>
+        <v>151.3209403866275</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>344.1665955694945</v>
+        <v>300.1264522282371</v>
       </c>
       <c r="B297" t="n">
-        <v>72.32050578952109</v>
+        <v>148.3672588397418</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>345.3332619951538</v>
+        <v>301.1438300324006</v>
       </c>
       <c r="B298" t="n">
-        <v>70.76350003547084</v>
+        <v>145.4712311421206</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>346.4999284208131</v>
+        <v>302.1612078365641</v>
       </c>
       <c r="B299" t="n">
-        <v>69.2400154364135</v>
+        <v>142.6317319303054</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>347.6665948464724</v>
+        <v>303.1785856407276</v>
       </c>
       <c r="B300" t="n">
-        <v>67.74933030822795</v>
+        <v>139.8476578059457</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>348.8332612721317</v>
+        <v>304.1959634448912</v>
       </c>
       <c r="B301" t="n">
-        <v>66.29073850201858</v>
+        <v>137.1179269101771</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>349.999927697791</v>
+        <v>305.2133412490547</v>
       </c>
       <c r="B302" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>351.1665941234503</v>
+        <v>306.2307190532182</v>
       </c>
       <c r="B303" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>352.3332605491096</v>
+        <v>307.2480968573817</v>
       </c>
       <c r="B304" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>353.4999269747689</v>
+        <v>308.2654746615452</v>
       </c>
       <c r="B305" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>354.6665934004282</v>
+        <v>309.2828524657087</v>
       </c>
       <c r="B306" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>355.8332598260875</v>
+        <v>310.3002302698723</v>
       </c>
       <c r="B307" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>356.9999262517468</v>
+        <v>311.3176080740358</v>
       </c>
       <c r="B308" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>358.1665926774061</v>
+        <v>312.3349858781993</v>
       </c>
       <c r="B309" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>359.3332591030654</v>
+        <v>313.3523636823628</v>
       </c>
       <c r="B310" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>360.4999255287248</v>
+        <v>314.3697414865263</v>
       </c>
       <c r="B311" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>361.666591954384</v>
+        <v>315.3871192906898</v>
       </c>
       <c r="B312" t="n">
         <v>0</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>362.8332583800433</v>
+        <v>316.4044970948534</v>
       </c>
       <c r="B313" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>363.9999248057026</v>
+        <v>317.4218748990169</v>
       </c>
       <c r="B314" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>365.166591231362</v>
+        <v>318.4392527031804</v>
       </c>
       <c r="B315" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>366.3332576570212</v>
+        <v>319.4566305073439</v>
       </c>
       <c r="B316" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>367.4999240826805</v>
+        <v>320.4740083115074</v>
       </c>
       <c r="B317" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>368.6665905083399</v>
+        <v>321.4913861156709</v>
       </c>
       <c r="B318" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>369.8332569339992</v>
+        <v>322.5087639198345</v>
       </c>
       <c r="B319" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>370.9999233596585</v>
+        <v>323.526141723998</v>
       </c>
       <c r="B320" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>372.1665897853177</v>
+        <v>324.5435195281615</v>
       </c>
       <c r="B321" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>373.3332562109771</v>
+        <v>325.560897332325</v>
       </c>
       <c r="B322" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>374.4999226366364</v>
+        <v>326.5782751364885</v>
       </c>
       <c r="B323" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>375.6665890622957</v>
+        <v>327.595652940652</v>
       </c>
       <c r="B324" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>376.833255487955</v>
+        <v>328.6130307448155</v>
       </c>
       <c r="B325" t="n">
         <v>0</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>377.9999219136143</v>
+        <v>329.630408548979</v>
       </c>
       <c r="B326" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>379.1665883392736</v>
+        <v>330.6477863531425</v>
       </c>
       <c r="B327" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>380.3332547649329</v>
+        <v>331.665164157306</v>
       </c>
       <c r="B328" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>381.4999211905922</v>
+        <v>332.6825419614696</v>
       </c>
       <c r="B329" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>382.6665876162515</v>
+        <v>333.6999197656331</v>
       </c>
       <c r="B330" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>383.8332540419108</v>
+        <v>334.7172975697966</v>
       </c>
       <c r="B331" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>384.9999204675701</v>
+        <v>335.7346753739601</v>
       </c>
       <c r="B332" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>386.1665868932294</v>
+        <v>336.7520531781236</v>
       </c>
       <c r="B333" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>387.3332533188887</v>
+        <v>337.7694309822871</v>
       </c>
       <c r="B334" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>388.499919744548</v>
+        <v>338.7868087864506</v>
       </c>
       <c r="B335" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>389.6665861702073</v>
+        <v>339.8041865906142</v>
       </c>
       <c r="B336" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>390.8332525958666</v>
+        <v>340.8215643947777</v>
       </c>
       <c r="B337" t="n">
         <v>0</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>391.9999190215259</v>
+        <v>341.8389421989412</v>
       </c>
       <c r="B338" t="n">
         <v>0</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>393.1665854471852</v>
+        <v>342.8563200031047</v>
       </c>
       <c r="B339" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>394.3332518728445</v>
+        <v>343.8736978072682</v>
       </c>
       <c r="B340" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>395.4999182985038</v>
+        <v>344.8910756114317</v>
       </c>
       <c r="B341" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>396.6665847241632</v>
+        <v>345.9084534155953</v>
       </c>
       <c r="B342" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>397.8332511498224</v>
+        <v>346.9258312197588</v>
       </c>
       <c r="B343" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>398.9999175754817</v>
+        <v>347.9432090239223</v>
       </c>
       <c r="B344" t="n">
         <v>0</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>400.166584001141</v>
+        <v>348.9605868280858</v>
       </c>
       <c r="B345" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>401.3332504268004</v>
+        <v>349.9779646322493</v>
       </c>
       <c r="B346" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>402.4999168524596</v>
+        <v>350.9953424364128</v>
       </c>
       <c r="B347" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>403.6665832781189</v>
+        <v>352.0127202405764</v>
       </c>
       <c r="B348" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>404.8332497037783</v>
+        <v>353.0300980447399</v>
       </c>
       <c r="B349" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>405.9999161294376</v>
+        <v>354.0474758489034</v>
       </c>
       <c r="B350" t="n">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>407.1665825550969</v>
+        <v>355.0648536530669</v>
       </c>
       <c r="B351" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>408.3332489807562</v>
+        <v>356.0822314572304</v>
       </c>
       <c r="B352" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>409.4999154064155</v>
+        <v>357.0996092613939</v>
       </c>
       <c r="B353" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>410.6665818320748</v>
+        <v>358.1169870655575</v>
       </c>
       <c r="B354" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>411.8332482577341</v>
+        <v>359.134364869721</v>
       </c>
       <c r="B355" t="n">
         <v>0</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>412.9999146833934</v>
+        <v>360.1517426738845</v>
       </c>
       <c r="B356" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>414.1665811090527</v>
+        <v>361.169120478048</v>
       </c>
       <c r="B357" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>415.333247534712</v>
+        <v>362.1864982822115</v>
       </c>
       <c r="B358" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>416.4999139603713</v>
+        <v>363.203876086375</v>
       </c>
       <c r="B359" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>417.6665803860306</v>
+        <v>364.2212538905385</v>
       </c>
       <c r="B360" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>418.8332468116899</v>
+        <v>365.2386316947021</v>
       </c>
       <c r="B361" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>419.9999132373492</v>
+        <v>366.2560094988656</v>
       </c>
       <c r="B362" t="n">
         <v>0</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>421.1665796630085</v>
+        <v>367.2733873030291</v>
       </c>
       <c r="B363" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>422.3332460886678</v>
+        <v>368.2907651071926</v>
       </c>
       <c r="B364" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>423.4999125143271</v>
+        <v>369.3081429113561</v>
       </c>
       <c r="B365" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>424.6665789399864</v>
+        <v>370.3255207155196</v>
       </c>
       <c r="B366" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>425.8332453656457</v>
+        <v>371.3428985196832</v>
       </c>
       <c r="B367" t="n">
         <v>0</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>426.999911791305</v>
+        <v>372.3602763238467</v>
       </c>
       <c r="B368" t="n">
         <v>0</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>428.1665782169644</v>
+        <v>373.3776541280102</v>
       </c>
       <c r="B369" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>429.3332446426236</v>
+        <v>374.3950319321737</v>
       </c>
       <c r="B370" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>430.4999110682829</v>
+        <v>375.4124097363372</v>
       </c>
       <c r="B371" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>431.6665774939422</v>
+        <v>376.4297875405007</v>
       </c>
       <c r="B372" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>432.8332439196016</v>
+        <v>377.4471653446643</v>
       </c>
       <c r="B373" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>433.9999103452608</v>
+        <v>378.4645431488278</v>
       </c>
       <c r="B374" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>435.1665767709201</v>
+        <v>379.4819209529913</v>
       </c>
       <c r="B375" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>436.3332431965795</v>
+        <v>380.4992987571548</v>
       </c>
       <c r="B376" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>437.4999096222388</v>
+        <v>381.5166765613183</v>
       </c>
       <c r="B377" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>438.666576047898</v>
+        <v>382.5340543654818</v>
       </c>
       <c r="B378" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>439.8332424735573</v>
+        <v>383.5514321696454</v>
       </c>
       <c r="B379" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>440.9999088992167</v>
+        <v>384.5688099738089</v>
       </c>
       <c r="B380" t="n">
         <v>0</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>442.166575324876</v>
+        <v>385.5861877779724</v>
       </c>
       <c r="B381" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>443.3332417505353</v>
+        <v>386.6035655821359</v>
       </c>
       <c r="B382" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>444.4999081761946</v>
+        <v>387.6209433862994</v>
       </c>
       <c r="B383" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>445.6665746018539</v>
+        <v>388.6383211904629</v>
       </c>
       <c r="B384" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>446.8332410275132</v>
+        <v>389.6556989946264</v>
       </c>
       <c r="B385" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>447.9999074531725</v>
+        <v>390.67307679879</v>
       </c>
       <c r="B386" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>449.1665738788318</v>
+        <v>391.6904546029535</v>
       </c>
       <c r="B387" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>450.3332403044911</v>
+        <v>392.707832407117</v>
       </c>
       <c r="B388" t="n">
         <v>0</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>451.4999067301504</v>
+        <v>393.7252102112805</v>
       </c>
       <c r="B389" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>452.6665731558097</v>
+        <v>394.742588015444</v>
       </c>
       <c r="B390" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>453.833239581469</v>
+        <v>395.7599658196075</v>
       </c>
       <c r="B391" t="n">
         <v>0</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>454.9999060071283</v>
+        <v>396.7773436237711</v>
       </c>
       <c r="B392" t="n">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>456.1665724327876</v>
+        <v>397.7947214279346</v>
       </c>
       <c r="B393" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>457.3332388584469</v>
+        <v>398.8120992320981</v>
       </c>
       <c r="B394" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>458.4999052841062</v>
+        <v>399.8294770362616</v>
       </c>
       <c r="B395" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>459.6665717097655</v>
+        <v>400.8468548404251</v>
       </c>
       <c r="B396" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>460.8332381354248</v>
+        <v>401.8642326445886</v>
       </c>
       <c r="B397" t="n">
         <v>0</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>461.9999045610841</v>
+        <v>402.8816104487522</v>
       </c>
       <c r="B398" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>463.1665709867434</v>
+        <v>403.8989882529157</v>
       </c>
       <c r="B399" t="n">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>464.3332374124028</v>
+        <v>404.9163660570792</v>
       </c>
       <c r="B400" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>465.499903838062</v>
+        <v>405.9337438612427</v>
       </c>
       <c r="B401" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>466.6665702637213</v>
+        <v>406.9511216654062</v>
       </c>
       <c r="B402" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>467.8332366893806</v>
+        <v>407.9684994695697</v>
       </c>
       <c r="B403" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>468.99990311504</v>
+        <v>408.9858772737333</v>
       </c>
       <c r="B404" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>470.1665695406992</v>
+        <v>410.0032550778968</v>
       </c>
       <c r="B405" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>471.3332359663585</v>
+        <v>411.0206328820603</v>
       </c>
       <c r="B406" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>472.4999023920179</v>
+        <v>412.0380106862238</v>
       </c>
       <c r="B407" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>473.6665688176772</v>
+        <v>413.0553884903873</v>
       </c>
       <c r="B408" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>474.8332352433364</v>
+        <v>414.0727662945508</v>
       </c>
       <c r="B409" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>475.9999016689958</v>
+        <v>415.0901440987143</v>
       </c>
       <c r="B410" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>477.1665680946551</v>
+        <v>416.1075219028779</v>
       </c>
       <c r="B411" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>478.3332345203144</v>
+        <v>417.1248997070414</v>
       </c>
       <c r="B412" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>479.4999009459736</v>
+        <v>418.1422775112049</v>
       </c>
       <c r="B413" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>480.666567371633</v>
+        <v>419.1596553153684</v>
       </c>
       <c r="B414" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>481.8332337972923</v>
+        <v>420.1770331195319</v>
       </c>
       <c r="B415" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>482.9999002229516</v>
+        <v>421.1944109236954</v>
       </c>
       <c r="B416" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>484.1665666486109</v>
+        <v>422.211788727859</v>
       </c>
       <c r="B417" t="n">
         <v>0</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>485.3332330742702</v>
+        <v>423.2291665320225</v>
       </c>
       <c r="B418" t="n">
         <v>0</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>486.4998994999295</v>
+        <v>424.246544336186</v>
       </c>
       <c r="B419" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>487.6665659255888</v>
+        <v>425.2639221403495</v>
       </c>
       <c r="B420" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>488.8332323512481</v>
+        <v>426.281299944513</v>
       </c>
       <c r="B421" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>489.9998987769074</v>
+        <v>427.2986777486765</v>
       </c>
       <c r="B422" t="n">
         <v>0</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>491.1665652025667</v>
+        <v>428.3160555528401</v>
       </c>
       <c r="B423" t="n">
         <v>0</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>492.333231628226</v>
+        <v>429.3334333570036</v>
       </c>
       <c r="B424" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>493.4998980538853</v>
+        <v>430.3508111611671</v>
       </c>
       <c r="B425" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>494.6665644795446</v>
+        <v>431.3681889653306</v>
       </c>
       <c r="B426" t="n">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>495.8332309052039</v>
+        <v>432.3855667694941</v>
       </c>
       <c r="B427" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>496.9998973308632</v>
+        <v>433.4029445736576</v>
       </c>
       <c r="B428" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>498.1665637565225</v>
+        <v>434.4203223778212</v>
       </c>
       <c r="B429" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>499.3332301821818</v>
+        <v>435.4377001819847</v>
       </c>
       <c r="B430" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>500.4998966078412</v>
+        <v>436.4550779861482</v>
       </c>
       <c r="B431" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>501.6665630335004</v>
+        <v>437.4724557903117</v>
       </c>
       <c r="B432" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>502.8332294591597</v>
+        <v>438.4898335944752</v>
       </c>
       <c r="B433" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>503.9998958848191</v>
+        <v>439.5072113986387</v>
       </c>
       <c r="B434" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>505.1665623104784</v>
+        <v>440.5245892028022</v>
       </c>
       <c r="B435" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>506.3332287361376</v>
+        <v>441.5419670069658</v>
       </c>
       <c r="B436" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>507.4998951617969</v>
+        <v>442.5593448111293</v>
       </c>
       <c r="B437" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>508.6665615874563</v>
+        <v>443.5767226152928</v>
       </c>
       <c r="B438" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>509.8332280131156</v>
+        <v>444.5941004194563</v>
       </c>
       <c r="B439" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>510.9998944387748</v>
+        <v>445.6114782236198</v>
       </c>
       <c r="B440" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>512.1665608644341</v>
+        <v>446.6288560277833</v>
       </c>
       <c r="B441" t="n">
         <v>0</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>513.3332272900934</v>
+        <v>447.6462338319469</v>
       </c>
       <c r="B442" t="n">
         <v>0</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>514.4998937157528</v>
+        <v>448.6636116361104</v>
       </c>
       <c r="B443" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>515.6665601414121</v>
+        <v>449.6809894402739</v>
       </c>
       <c r="B444" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>516.8332265670714</v>
+        <v>450.6983672444374</v>
       </c>
       <c r="B445" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>517.9998929927307</v>
+        <v>451.7157450486009</v>
       </c>
       <c r="B446" t="n">
         <v>0</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>519.16655941839</v>
+        <v>452.7331228527644</v>
       </c>
       <c r="B447" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>520.3332258440493</v>
+        <v>453.750500656928</v>
       </c>
       <c r="B448" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>521.4998922697085</v>
+        <v>454.7678784610915</v>
       </c>
       <c r="B449" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>522.6665586953679</v>
+        <v>455.7852562652549</v>
       </c>
       <c r="B450" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>523.8332251210272</v>
+        <v>456.8026340694184</v>
       </c>
       <c r="B451" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>524.9998915466865</v>
+        <v>457.820011873582</v>
       </c>
       <c r="B452" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>526.1665579723458</v>
+        <v>458.8373896777455</v>
       </c>
       <c r="B453" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>527.3332243980051</v>
+        <v>459.854767481909</v>
       </c>
       <c r="B454" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>528.4998908236644</v>
+        <v>460.8721452860725</v>
       </c>
       <c r="B455" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>529.6665572493238</v>
+        <v>461.889523090236</v>
       </c>
       <c r="B456" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>530.8332236749831</v>
+        <v>462.9069008943995</v>
       </c>
       <c r="B457" t="n">
         <v>0</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>531.9998901006423</v>
+        <v>463.9242786985631</v>
       </c>
       <c r="B458" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>533.1665565263016</v>
+        <v>464.9416565027266</v>
       </c>
       <c r="B459" t="n">
         <v>0</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>534.3332229519609</v>
+        <v>465.9590343068901</v>
       </c>
       <c r="B460" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>535.4998893776202</v>
+        <v>466.9764121110536</v>
       </c>
       <c r="B461" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>536.6665558032795</v>
+        <v>467.9937899152171</v>
       </c>
       <c r="B462" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>537.8332222289389</v>
+        <v>469.0111677193806</v>
       </c>
       <c r="B463" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>538.9998886545982</v>
+        <v>470.0285455235442</v>
       </c>
       <c r="B464" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>540.1665550802575</v>
+        <v>471.0459233277077</v>
       </c>
       <c r="B465" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>541.3332215059168</v>
+        <v>472.0633011318712</v>
       </c>
       <c r="B466" t="n">
         <v>0</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>542.499887931576</v>
+        <v>473.0806789360347</v>
       </c>
       <c r="B467" t="n">
         <v>0</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>543.6665543572353</v>
+        <v>474.0980567401982</v>
       </c>
       <c r="B468" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>544.8332207828946</v>
+        <v>475.1154345443617</v>
       </c>
       <c r="B469" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>545.999887208554</v>
+        <v>476.1328123485252</v>
       </c>
       <c r="B470" t="n">
         <v>0</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>547.1665536342133</v>
+        <v>477.1501901526888</v>
       </c>
       <c r="B471" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>548.3332200598726</v>
+        <v>478.1675679568523</v>
       </c>
       <c r="B472" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>549.4998864855319</v>
+        <v>479.1849457610158</v>
       </c>
       <c r="B473" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>550.6665529111912</v>
+        <v>480.2023235651793</v>
       </c>
       <c r="B474" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>551.8332193368504</v>
+        <v>481.2197013693428</v>
       </c>
       <c r="B475" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>552.9998857625097</v>
+        <v>482.2370791735063</v>
       </c>
       <c r="B476" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>554.1665521881691</v>
+        <v>483.2544569776699</v>
       </c>
       <c r="B477" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>555.3332186138284</v>
+        <v>484.2718347818334</v>
       </c>
       <c r="B478" t="n">
         <v>0</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>556.4998850394877</v>
+        <v>485.2892125859969</v>
       </c>
       <c r="B479" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>557.666551465147</v>
+        <v>486.3065903901604</v>
       </c>
       <c r="B480" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>558.8332178908063</v>
+        <v>487.3239681943239</v>
       </c>
       <c r="B481" t="n">
         <v>0</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>559.9998843164656</v>
+        <v>488.3413459984874</v>
       </c>
       <c r="B482" t="n">
         <v>0</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>561.1665507421249</v>
+        <v>489.358723802651</v>
       </c>
       <c r="B483" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>562.3332171677843</v>
+        <v>490.3761016068145</v>
       </c>
       <c r="B484" t="n">
         <v>0</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>563.4998835934435</v>
+        <v>491.393479410978</v>
       </c>
       <c r="B485" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>564.6665500191028</v>
+        <v>492.4108572151415</v>
       </c>
       <c r="B486" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>565.8332164447621</v>
+        <v>493.428235019305</v>
       </c>
       <c r="B487" t="n">
         <v>0</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>566.9998828704214</v>
+        <v>494.4456128234685</v>
       </c>
       <c r="B488" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>568.1665492960807</v>
+        <v>495.4629906276321</v>
       </c>
       <c r="B489" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>569.33321572174</v>
+        <v>496.4803684317956</v>
       </c>
       <c r="B490" t="n">
         <v>0</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>570.4998821473994</v>
+        <v>497.4977462359591</v>
       </c>
       <c r="B491" t="n">
         <v>0</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>571.6665485730587</v>
+        <v>498.5151240401226</v>
       </c>
       <c r="B492" t="n">
         <v>0</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>572.8332149987179</v>
+        <v>499.5325018442861</v>
       </c>
       <c r="B493" t="n">
         <v>0</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>573.9998814243772</v>
+        <v>500.5498796484496</v>
       </c>
       <c r="B494" t="n">
         <v>0</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>575.1665478500365</v>
+        <v>501.5672574526131</v>
       </c>
       <c r="B495" t="n">
         <v>0</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>576.3332142756958</v>
+        <v>502.5846352567767</v>
       </c>
       <c r="B496" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>577.4998807013552</v>
+        <v>503.6020130609402</v>
       </c>
       <c r="B497" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>578.6665471270145</v>
+        <v>504.6193908651037</v>
       </c>
       <c r="B498" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>579.8332135526738</v>
+        <v>505.6367686692672</v>
       </c>
       <c r="B499" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>580.9998799783331</v>
+        <v>506.6541464734307</v>
       </c>
       <c r="B500" t="n">
         <v>0</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>582.1665464039924</v>
+        <v>507.6715242775942</v>
       </c>
       <c r="B501" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>583.3332128296516</v>
+        <v>508.6889020817578</v>
       </c>
       <c r="B502" t="n">
         <v>0</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>584.4998792553109</v>
+        <v>509.7062798859213</v>
       </c>
       <c r="B503" t="n">
         <v>0</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>585.6665456809703</v>
+        <v>510.7236576900848</v>
       </c>
       <c r="B504" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>586.8332121066296</v>
+        <v>511.7410354942483</v>
       </c>
       <c r="B505" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>587.9998785322889</v>
+        <v>512.7584132984118</v>
       </c>
       <c r="B506" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>589.1665449579482</v>
+        <v>513.7757911025753</v>
       </c>
       <c r="B507" t="n">
         <v>0</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>590.3332113836075</v>
+        <v>514.7931689067389</v>
       </c>
       <c r="B508" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>591.4998778092668</v>
+        <v>515.8105467109024</v>
       </c>
       <c r="B509" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>592.6665442349261</v>
+        <v>516.8279245150659</v>
       </c>
       <c r="B510" t="n">
         <v>0</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>593.8332106605855</v>
+        <v>517.8453023192294</v>
       </c>
       <c r="B511" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>594.9998770862447</v>
+        <v>518.8626801233929</v>
       </c>
       <c r="B512" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>596.166543511904</v>
+        <v>519.8800579275564</v>
       </c>
       <c r="B513" t="n">
         <v>0</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>597.3332099375633</v>
+        <v>520.89743573172</v>
       </c>
       <c r="B514" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>598.4998763632226</v>
+        <v>521.9148135358835</v>
       </c>
       <c r="B515" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>599.6665427888819</v>
+        <v>522.932191340047</v>
       </c>
       <c r="B516" t="n">
         <v>0</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>600.8332092145412</v>
+        <v>523.9495691442105</v>
       </c>
       <c r="B517" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>601.9998756402006</v>
+        <v>524.966946948374</v>
       </c>
       <c r="B518" t="n">
         <v>0</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>603.1665420658599</v>
+        <v>525.9843247525375</v>
       </c>
       <c r="B519" t="n">
         <v>0</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>604.3332084915191</v>
+        <v>527.001702556701</v>
       </c>
       <c r="B520" t="n">
         <v>0</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>605.4998749171784</v>
+        <v>528.0190803608646</v>
       </c>
       <c r="B521" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>606.6665413428377</v>
+        <v>529.0364581650281</v>
       </c>
       <c r="B522" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>607.833207768497</v>
+        <v>530.0538359691916</v>
       </c>
       <c r="B523" t="n">
         <v>0</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>608.9998741941563</v>
+        <v>531.0712137733551</v>
       </c>
       <c r="B524" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>610.1665406198157</v>
+        <v>532.0885915775186</v>
       </c>
       <c r="B525" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>611.333207045475</v>
+        <v>533.1059693816821</v>
       </c>
       <c r="B526" t="n">
         <v>0</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>612.4998734711343</v>
+        <v>534.1233471858457</v>
       </c>
       <c r="B527" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>613.6665398967936</v>
+        <v>535.1407249900092</v>
       </c>
       <c r="B528" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>614.8332063224528</v>
+        <v>536.1581027941727</v>
       </c>
       <c r="B529" t="n">
         <v>0</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>615.9998727481121</v>
+        <v>537.1754805983362</v>
       </c>
       <c r="B530" t="n">
         <v>0</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>617.1665391737714</v>
+        <v>538.1928584024997</v>
       </c>
       <c r="B531" t="n">
         <v>0</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>618.3332055994308</v>
+        <v>539.2102362066632</v>
       </c>
       <c r="B532" t="n">
         <v>0</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>619.4998720250901</v>
+        <v>540.2276140108268</v>
       </c>
       <c r="B533" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>620.6665384507494</v>
+        <v>541.2449918149903</v>
       </c>
       <c r="B534" t="n">
         <v>0</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>621.8332048764087</v>
+        <v>542.2623696191538</v>
       </c>
       <c r="B535" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>622.999871302068</v>
+        <v>543.2797474233173</v>
       </c>
       <c r="B536" t="n">
         <v>0</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>624.1665377277272</v>
+        <v>544.2971252274808</v>
       </c>
       <c r="B537" t="n">
         <v>0</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>625.3332041533866</v>
+        <v>545.3145030316443</v>
       </c>
       <c r="B538" t="n">
         <v>0</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>626.4998705790459</v>
+        <v>546.3318808358079</v>
       </c>
       <c r="B539" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>627.6665370047052</v>
+        <v>547.3492586399714</v>
       </c>
       <c r="B540" t="n">
         <v>0</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>628.8332034303645</v>
+        <v>548.3666364441349</v>
       </c>
       <c r="B541" t="n">
         <v>0</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>629.9998698560238</v>
+        <v>549.3840142482984</v>
       </c>
       <c r="B542" t="n">
         <v>0</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>631.1665362816831</v>
+        <v>550.4013920524619</v>
       </c>
       <c r="B543" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>632.3332027073424</v>
+        <v>551.4187698566254</v>
       </c>
       <c r="B544" t="n">
         <v>0</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>633.4998691330018</v>
+        <v>552.4361476607889</v>
       </c>
       <c r="B545" t="n">
         <v>0</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>634.6665355586611</v>
+        <v>553.4535254649525</v>
       </c>
       <c r="B546" t="n">
         <v>0</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>635.8332019843203</v>
+        <v>554.470903269116</v>
       </c>
       <c r="B547" t="n">
         <v>0</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>636.9998684099796</v>
+        <v>555.4882810732795</v>
       </c>
       <c r="B548" t="n">
         <v>0</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>638.1665348356389</v>
+        <v>556.505658877443</v>
       </c>
       <c r="B549" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>639.3332012612982</v>
+        <v>557.5230366816065</v>
       </c>
       <c r="B550" t="n">
         <v>0</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>640.4998676869575</v>
+        <v>558.54041448577</v>
       </c>
       <c r="B551" t="n">
         <v>0</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>641.6665341126169</v>
+        <v>559.5577922899336</v>
       </c>
       <c r="B552" t="n">
         <v>0</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>642.8332005382762</v>
+        <v>560.5751700940971</v>
       </c>
       <c r="B553" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>643.9998669639355</v>
+        <v>561.5925478982606</v>
       </c>
       <c r="B554" t="n">
         <v>0</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>645.1665333895947</v>
+        <v>562.6099257024241</v>
       </c>
       <c r="B555" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>646.333199815254</v>
+        <v>563.6273035065876</v>
       </c>
       <c r="B556" t="n">
         <v>0</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>647.4998662409133</v>
+        <v>564.6446813107511</v>
       </c>
       <c r="B557" t="n">
         <v>0</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>648.6665326665726</v>
+        <v>565.6620591149147</v>
       </c>
       <c r="B558" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>649.833199092232</v>
+        <v>566.6794369190782</v>
       </c>
       <c r="B559" t="n">
         <v>0</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>650.9998655178913</v>
+        <v>567.6968147232417</v>
       </c>
       <c r="B560" t="n">
         <v>0</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>652.1665319435506</v>
+        <v>568.7141925274052</v>
       </c>
       <c r="B561" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>653.3331983692099</v>
+        <v>569.7315703315687</v>
       </c>
       <c r="B562" t="n">
         <v>0</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>654.4998647948692</v>
+        <v>570.7489481357322</v>
       </c>
       <c r="B563" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>655.6665312205284</v>
+        <v>571.7663259398958</v>
       </c>
       <c r="B564" t="n">
         <v>0</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>656.8331976461877</v>
+        <v>572.7837037440593</v>
       </c>
       <c r="B565" t="n">
         <v>0</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>657.9998640718471</v>
+        <v>573.8010815482228</v>
       </c>
       <c r="B566" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>659.1665304975064</v>
+        <v>574.8184593523863</v>
       </c>
       <c r="B567" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>660.3331969231657</v>
+        <v>575.8358371565498</v>
       </c>
       <c r="B568" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>661.499863348825</v>
+        <v>576.8532149607133</v>
       </c>
       <c r="B569" t="n">
         <v>0</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>662.6665297744843</v>
+        <v>577.8705927648768</v>
       </c>
       <c r="B570" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>663.8331962001436</v>
+        <v>578.8879705690404</v>
       </c>
       <c r="B571" t="n">
         <v>0</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>664.9998626258028</v>
+        <v>579.9053483732039</v>
       </c>
       <c r="B572" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>666.1665290514622</v>
+        <v>580.9227261773674</v>
       </c>
       <c r="B573" t="n">
         <v>0</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>667.3331954771215</v>
+        <v>581.9401039815309</v>
       </c>
       <c r="B574" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>668.4998619027808</v>
+        <v>582.9574817856944</v>
       </c>
       <c r="B575" t="n">
         <v>0</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>669.6665283284401</v>
+        <v>583.9748595898579</v>
       </c>
       <c r="B576" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>670.8331947540994</v>
+        <v>584.9922373940215</v>
       </c>
       <c r="B577" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>671.9998611797587</v>
+        <v>586.009615198185</v>
       </c>
       <c r="B578" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>673.1665276054181</v>
+        <v>587.0269930023485</v>
       </c>
       <c r="B579" t="n">
         <v>0</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>674.3331940310774</v>
+        <v>588.044370806512</v>
       </c>
       <c r="B580" t="n">
         <v>0</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>675.4998604567367</v>
+        <v>589.0617486106755</v>
       </c>
       <c r="B581" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>676.6665268823959</v>
+        <v>590.079126414839</v>
       </c>
       <c r="B582" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>677.8331933080552</v>
+        <v>591.0965042190026</v>
       </c>
       <c r="B583" t="n">
         <v>0</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>678.9998597337145</v>
+        <v>592.1138820231661</v>
       </c>
       <c r="B584" t="n">
         <v>0</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>680.1665261593738</v>
+        <v>593.1312598273296</v>
       </c>
       <c r="B585" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>681.3331925850332</v>
+        <v>594.1486376314931</v>
       </c>
       <c r="B586" t="n">
         <v>0</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>682.4998590106925</v>
+        <v>595.1660154356566</v>
       </c>
       <c r="B587" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>683.6665254363518</v>
+        <v>596.1833932398201</v>
       </c>
       <c r="B588" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>684.8331918620111</v>
+        <v>597.2007710439837</v>
       </c>
       <c r="B589" t="n">
         <v>0</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>685.9998582876703</v>
+        <v>598.2181488481472</v>
       </c>
       <c r="B590" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>687.1665247133296</v>
+        <v>599.2355266523107</v>
       </c>
       <c r="B591" t="n">
         <v>0</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>688.3331911389889</v>
+        <v>600.2529044564742</v>
       </c>
       <c r="B592" t="n">
         <v>0</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>689.4998575646483</v>
+        <v>601.2702822606377</v>
       </c>
       <c r="B593" t="n">
         <v>0</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>690.6665239903076</v>
+        <v>602.2876600648012</v>
       </c>
       <c r="B594" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>691.8331904159669</v>
+        <v>603.3050378689647</v>
       </c>
       <c r="B595" t="n">
         <v>0</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>692.9998568416262</v>
+        <v>604.3224156731283</v>
       </c>
       <c r="B596" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>694.1665232672855</v>
+        <v>605.3397934772918</v>
       </c>
       <c r="B597" t="n">
         <v>0</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>695.3331896929448</v>
+        <v>606.3571712814553</v>
       </c>
       <c r="B598" t="n">
         <v>0</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>696.499856118604</v>
+        <v>607.3745490856188</v>
       </c>
       <c r="B599" t="n">
         <v>0</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>697.6665225442634</v>
+        <v>608.3919268897823</v>
       </c>
       <c r="B600" t="n">
         <v>0</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>698.8331889699227</v>
+        <v>609.4093046939458</v>
       </c>
       <c r="B601" t="n">
         <v>0</v>

--- a/qdote.xlsx
+++ b/qdote.xlsx
@@ -450,2404 +450,2404 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49753.1820943663</v>
+        <v>44426.86176003738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.017377804163516</v>
+        <v>1.166665719868598</v>
       </c>
       <c r="B3" t="n">
-        <v>48782.03391444872</v>
+        <v>43470.38584222602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.034755608327031</v>
+        <v>2.333331439737196</v>
       </c>
       <c r="B4" t="n">
-        <v>47829.84188462357</v>
+        <v>42534.5021099779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.052133412490547</v>
+        <v>3.499997159605794</v>
       </c>
       <c r="B5" t="n">
-        <v>46896.23599377018</v>
+        <v>41618.76722948982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.069511216654062</v>
+        <v>4.666662879474393</v>
       </c>
       <c r="B6" t="n">
-        <v>45980.8534531328</v>
+        <v>40722.74741159202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.086889020817578</v>
+        <v>5.833328599342991</v>
       </c>
       <c r="B7" t="n">
-        <v>45083.3385553445</v>
+        <v>39846.01820625921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.104266824981093</v>
+        <v>6.999994319211589</v>
       </c>
       <c r="B8" t="n">
-        <v>44203.34253620353</v>
+        <v>38988.16430154713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.121644629144608</v>
+        <v>8.166660039080186</v>
       </c>
       <c r="B9" t="n">
-        <v>43340.52343914791</v>
+        <v>38148.77932685461</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.139022433308124</v>
+        <v>9.333325758948785</v>
       </c>
       <c r="B10" t="n">
-        <v>42494.54598237383</v>
+        <v>37327.46566042671</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.15640023747164</v>
+        <v>10.49999147881738</v>
       </c>
       <c r="B11" t="n">
-        <v>41665.08142855022</v>
+        <v>36523.83424099434</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.17377804163516</v>
+        <v>11.66665719868598</v>
       </c>
       <c r="B12" t="n">
-        <v>40851.80745707405</v>
+        <v>35737.50438347875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.19115584579867</v>
+        <v>12.83332291855458</v>
       </c>
       <c r="B13" t="n">
-        <v>40054.40803882101</v>
+        <v>34968.10359865393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12.20853364996219</v>
+        <v>13.99998863842318</v>
       </c>
       <c r="B14" t="n">
-        <v>39272.57331334005</v>
+        <v>34215.26741669959</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.2259114541257</v>
+        <v>15.16665435829178</v>
       </c>
       <c r="B15" t="n">
-        <v>38505.99946844281</v>
+        <v>33478.63921454753</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14.24328925828922</v>
+        <v>16.33332007816037</v>
       </c>
       <c r="B16" t="n">
-        <v>37754.38862215039</v>
+        <v>32757.87004694866</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15.26066706245273</v>
+        <v>17.49998579802897</v>
       </c>
       <c r="B17" t="n">
-        <v>37017.44870693511</v>
+        <v>32052.61848117465</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16.27804486661625</v>
+        <v>18.66665151789757</v>
       </c>
       <c r="B18" t="n">
-        <v>36294.89335622919</v>
+        <v>31362.55043527848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17.29542267077976</v>
+        <v>19.83331723776617</v>
       </c>
       <c r="B19" t="n">
-        <v>35586.44179314469</v>
+        <v>30687.3390198401</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18.31280047494328</v>
+        <v>20.99998295763477</v>
       </c>
       <c r="B20" t="n">
-        <v>34891.81872136576</v>
+        <v>30026.66438311397</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.3301782791068</v>
+        <v>22.16664867750336</v>
       </c>
       <c r="B21" t="n">
-        <v>34210.75421817441</v>
+        <v>29380.21355951589</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20.34755608327031</v>
+        <v>23.33331439737196</v>
       </c>
       <c r="B22" t="n">
-        <v>33542.98362956038</v>
+        <v>28747.68032136811</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21.36493388743382</v>
+        <v>24.49998011724056</v>
       </c>
       <c r="B23" t="n">
-        <v>32888.24746737759</v>
+        <v>28128.76503383676</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22.38231169159734</v>
+        <v>25.66664583710916</v>
       </c>
       <c r="B24" t="n">
-        <v>32246.29130851241</v>
+        <v>27523.17451299473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23.39968949576086</v>
+        <v>26.83331155697776</v>
       </c>
       <c r="B25" t="n">
-        <v>31616.86569601644</v>
+        <v>26930.62188693689</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24.41706729992437</v>
+        <v>27.99997727684636</v>
       </c>
       <c r="B26" t="n">
-        <v>30999.72604217212</v>
+        <v>26350.82645988981</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25.43444510408789</v>
+        <v>29.16664299671495</v>
       </c>
       <c r="B27" t="n">
-        <v>30394.63253344512</v>
+        <v>25783.51357923999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.4518229082514</v>
+        <v>30.33330871658355</v>
       </c>
       <c r="B28" t="n">
-        <v>29801.35003729963</v>
+        <v>25228.41450543412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27.46920071241492</v>
+        <v>31.49997443645215</v>
       </c>
       <c r="B29" t="n">
-        <v>29219.64801082585</v>
+        <v>24685.26628467187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28.48657851657843</v>
+        <v>32.66664015632075</v>
       </c>
       <c r="B30" t="n">
-        <v>28649.30041115438</v>
+        <v>24153.81162434526</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29.50395632074195</v>
+        <v>33.83330587618934</v>
       </c>
       <c r="B31" t="n">
-        <v>28090.08560761781</v>
+        <v>23633.79877115725</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30.52133412490547</v>
+        <v>34.99997159605795</v>
       </c>
       <c r="B32" t="n">
-        <v>27541.78629562957</v>
+        <v>23124.9813918631</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31.53871192906898</v>
+        <v>36.16663731592654</v>
       </c>
       <c r="B33" t="n">
-        <v>27004.18941223948</v>
+        <v>22627.11845658249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32.5560897332325</v>
+        <v>37.33330303579514</v>
       </c>
       <c r="B34" t="n">
-        <v>26477.08605334093</v>
+        <v>22139.97412462227</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>33.57346753739601</v>
+        <v>38.49996875566374</v>
       </c>
       <c r="B35" t="n">
-        <v>25960.27139249245</v>
+        <v>21663.31763275568</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>34.59084534155953</v>
+        <v>39.66663447553233</v>
       </c>
       <c r="B36" t="n">
-        <v>25453.5446013259</v>
+        <v>21196.92318591078</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35.60822314572304</v>
+        <v>40.83330019540094</v>
       </c>
       <c r="B37" t="n">
-        <v>24956.70877150661</v>
+        <v>20740.56985020742</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>36.62560094988656</v>
+        <v>41.99996591526953</v>
       </c>
       <c r="B38" t="n">
-        <v>24469.57083821343</v>
+        <v>20294.04144830138</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>37.64297875405008</v>
+        <v>43.16663163513813</v>
       </c>
       <c r="B39" t="n">
-        <v>23991.94150512226</v>
+        <v>19857.12645697946</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38.66035655821359</v>
+        <v>44.33329735500673</v>
       </c>
       <c r="B40" t="n">
-        <v>23523.63517084219</v>
+        <v>19429.617906958</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39.67773436237711</v>
+        <v>45.49996307487532</v>
       </c>
       <c r="B41" t="n">
-        <v>23064.4698567951</v>
+        <v>19011.31328484322</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40.69511216654062</v>
+        <v>46.66662879474393</v>
       </c>
       <c r="B42" t="n">
-        <v>22614.26713650073</v>
+        <v>18602.01443719674</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41.71248997070413</v>
+        <v>47.83329451461253</v>
       </c>
       <c r="B43" t="n">
-        <v>22172.85206624143</v>
+        <v>18201.52747667158</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>42.72986777486765</v>
+        <v>48.99996023448112</v>
       </c>
       <c r="B44" t="n">
-        <v>21740.05311708349</v>
+        <v>17809.66269016358</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>43.74724557903117</v>
+        <v>50.16662595434972</v>
       </c>
       <c r="B45" t="n">
-        <v>21315.70210821874</v>
+        <v>17426.2344489453</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44.76462338319468</v>
+        <v>51.33329167421832</v>
       </c>
       <c r="B46" t="n">
-        <v>20899.63414161549</v>
+        <v>17051.06112073297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45.7820011873582</v>
+        <v>52.49995739408691</v>
       </c>
       <c r="B47" t="n">
-        <v>20491.68753793717</v>
+        <v>16683.96498364359</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46.79937899152171</v>
+        <v>53.66662311395552</v>
       </c>
       <c r="B48" t="n">
-        <v>20091.70377372</v>
+        <v>16324.77214200981</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47.81675679568523</v>
+        <v>54.83328883382411</v>
       </c>
       <c r="B49" t="n">
-        <v>19699.52741976763</v>
+        <v>15973.31244400263</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48.83413459984875</v>
+        <v>55.99995455369271</v>
       </c>
       <c r="B50" t="n">
-        <v>19315.00608075698</v>
+        <v>15629.41940103029</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>49.85151240401226</v>
+        <v>57.16662027356131</v>
       </c>
       <c r="B51" t="n">
-        <v>18937.9903360188</v>
+        <v>15292.93010887168</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>50.86889020817578</v>
+        <v>58.3332859934299</v>
       </c>
       <c r="B52" t="n">
-        <v>18568.33368147066</v>
+        <v>14963.68517050756</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51.88626801233929</v>
+        <v>59.49995171329851</v>
       </c>
       <c r="B53" t="n">
-        <v>18205.89247269216</v>
+        <v>14641.528620612</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>52.90364581650281</v>
+        <v>60.6666174331671</v>
       </c>
       <c r="B54" t="n">
-        <v>17850.52586910301</v>
+        <v>14326.30785167222</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>53.92102362066633</v>
+        <v>61.8332831530357</v>
       </c>
       <c r="B55" t="n">
-        <v>17502.09577923495</v>
+        <v>14017.87354169816</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>54.93840142482984</v>
+        <v>62.9999488729043</v>
       </c>
       <c r="B56" t="n">
-        <v>17160.46680707162</v>
+        <v>13716.07958348513</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55.95577922899336</v>
+        <v>64.1666145927729</v>
       </c>
       <c r="B57" t="n">
-        <v>16825.50619943445</v>
+        <v>13420.78301540322</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>56.97315703315687</v>
+        <v>65.33328031264149</v>
       </c>
       <c r="B58" t="n">
-        <v>16497.08379439498</v>
+        <v>13131.84395367619</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>57.99053483732038</v>
+        <v>66.4999460325101</v>
       </c>
       <c r="B59" t="n">
-        <v>16175.07197069937</v>
+        <v>12849.12552611827</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59.0079126414839</v>
+        <v>67.66661175237869</v>
       </c>
       <c r="B60" t="n">
-        <v>15859.3455981717</v>
+        <v>12572.4938072931</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60.02529044564741</v>
+        <v>68.83327747224729</v>
       </c>
       <c r="B61" t="n">
-        <v>15549.78198909143</v>
+        <v>12301.81775507828</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61.04266824981093</v>
+        <v>69.99994319211589</v>
       </c>
       <c r="B62" t="n">
-        <v>15246.26085052022</v>
+        <v>12036.96914858479</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62.06004605397445</v>
+        <v>71.16660891198448</v>
       </c>
       <c r="B63" t="n">
-        <v>14948.66423755463</v>
+        <v>11777.82252742002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63.07742385813796</v>
+        <v>72.33327463185309</v>
       </c>
       <c r="B64" t="n">
-        <v>14656.87650749626</v>
+        <v>11524.25513225766</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64.09480166230148</v>
+        <v>73.49994035172168</v>
       </c>
       <c r="B65" t="n">
-        <v>14370.78427491223</v>
+        <v>11276.1468466833</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65.11217946646499</v>
+        <v>74.66660607159028</v>
       </c>
       <c r="B66" t="n">
-        <v>14090.27636757705</v>
+        <v>11033.38014029733</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66.12955727062851</v>
+        <v>75.83327179145888</v>
       </c>
       <c r="B67" t="n">
-        <v>13815.24378326987</v>
+        <v>10795.84001303686</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67.14693507479203</v>
+        <v>76.99993751132747</v>
       </c>
       <c r="B68" t="n">
-        <v>13545.57964742064</v>
+        <v>10563.41394070314</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68.16431287895554</v>
+        <v>78.16660323119608</v>
       </c>
       <c r="B69" t="n">
-        <v>13281.17917157622</v>
+        <v>10335.99182165414</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69.18169068311906</v>
+        <v>79.33326895106467</v>
       </c>
       <c r="B70" t="n">
-        <v>13021.93961268406</v>
+        <v>10113.46592465286</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70.19906848728257</v>
+        <v>80.49993467093327</v>
       </c>
       <c r="B71" t="n">
-        <v>12767.76023316466</v>
+        <v>9895.730837831194</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71.21644629144609</v>
+        <v>81.66660039080188</v>
       </c>
       <c r="B72" t="n">
-        <v>12518.54226176851</v>
+        <v>9682.6834187572</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72.23382409560961</v>
+        <v>82.83326611067046</v>
       </c>
       <c r="B73" t="n">
-        <v>12274.18885519245</v>
+        <v>9474.222745576244</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73.25120189977312</v>
+        <v>83.99993183053907</v>
       </c>
       <c r="B74" t="n">
-        <v>12034.60506044985</v>
+        <v>9270.250069201042</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74.26857970393664</v>
+        <v>85.16659755040766</v>
       </c>
       <c r="B75" t="n">
-        <v>11799.69777797079</v>
+        <v>9070.668766538807</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75.28595750810015</v>
+        <v>86.33326327027626</v>
       </c>
       <c r="B76" t="n">
-        <v>11569.37572542492</v>
+        <v>8875.384294713836</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76.30333531226367</v>
+        <v>87.49992899014487</v>
       </c>
       <c r="B77" t="n">
-        <v>11343.54940225216</v>
+        <v>8684.304146287692</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77.32071311642719</v>
+        <v>88.66659471001346</v>
       </c>
       <c r="B78" t="n">
-        <v>11122.13105488064</v>
+        <v>8497.337805434241</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78.3380909205907</v>
+        <v>89.83326042988206</v>
       </c>
       <c r="B79" t="n">
-        <v>10905.03464262986</v>
+        <v>8314.396705063697</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79.35546872475422</v>
+        <v>90.99992614975065</v>
       </c>
       <c r="B80" t="n">
-        <v>10692.17580427397</v>
+        <v>8135.394184865727</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80.37284652891773</v>
+        <v>92.16659186961925</v>
       </c>
       <c r="B81" t="n">
-        <v>10483.47182526043</v>
+        <v>7960.24545026098</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81.39022433308125</v>
+        <v>93.33325758948786</v>
       </c>
       <c r="B82" t="n">
-        <v>10278.84160556856</v>
+        <v>7788.867532231094</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82.40760213724475</v>
+        <v>94.49992330935645</v>
       </c>
       <c r="B83" t="n">
-        <v>10078.20562819583</v>
+        <v>7621.179248016003</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83.42497994140827</v>
+        <v>95.66658902922505</v>
       </c>
       <c r="B84" t="n">
-        <v>9881.485928255914</v>
+        <v>7457.101162658218</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84.44235774557178</v>
+        <v>96.83325474909364</v>
       </c>
       <c r="B85" t="n">
-        <v>9688.606062684908</v>
+        <v>7296.555551372735</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85.4597355497353</v>
+        <v>97.99992046896224</v>
       </c>
       <c r="B86" t="n">
-        <v>9499.491080534199</v>
+        <v>7139.466362729232</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86.47711335389882</v>
+        <v>99.16658618883083</v>
       </c>
       <c r="B87" t="n">
-        <v>9314.067493847568</v>
+        <v>6985.759182625695</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87.49449115806233</v>
+        <v>100.3332519086994</v>
       </c>
       <c r="B88" t="n">
-        <v>9132.263249103555</v>
+        <v>6835.361199038554</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88.51186896222585</v>
+        <v>101.499917628568</v>
       </c>
       <c r="B89" t="n">
-        <v>8954.007699215719</v>
+        <v>6688.201167530083</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89.52924676638936</v>
+        <v>102.6665833484366</v>
       </c>
       <c r="B90" t="n">
-        <v>8779.231576081002</v>
+        <v>6544.209377500778</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90.54662457055288</v>
+        <v>103.8332490683052</v>
       </c>
       <c r="B91" t="n">
-        <v>8607.866963662711</v>
+        <v>6403.317619165378</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91.5640023747164</v>
+        <v>104.9999147881738</v>
       </c>
       <c r="B92" t="n">
-        <v>8439.847271597733</v>
+        <v>6265.459151243414</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92.58138017887991</v>
+        <v>106.1665805080424</v>
       </c>
       <c r="B93" t="n">
-        <v>8275.107209323067</v>
+        <v>6130.568669341352</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93.59875798304343</v>
+        <v>107.333246227911</v>
       </c>
       <c r="B94" t="n">
-        <v>8113.582760701451</v>
+        <v>5998.582275020432</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94.61613578720694</v>
+        <v>108.4999119477796</v>
       </c>
       <c r="B95" t="n">
-        <v>7955.211159147954</v>
+        <v>5869.437445523537</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95.63351359137046</v>
+        <v>109.6665776676482</v>
       </c>
       <c r="B96" t="n">
-        <v>7799.930863238518</v>
+        <v>5743.073004162631</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96.65089139553398</v>
+        <v>110.8332433875168</v>
       </c>
       <c r="B97" t="n">
-        <v>7647.681532794346</v>
+        <v>5619.429091333736</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97.66826919969749</v>
+        <v>111.9999091073854</v>
       </c>
       <c r="B98" t="n">
-        <v>7498.404005437835</v>
+        <v>5498.447136165789</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98.68564700386101</v>
+        <v>113.166574827254</v>
       </c>
       <c r="B99" t="n">
-        <v>7352.040273599855</v>
+        <v>5380.069828771898</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99.70302480802452</v>
+        <v>114.3332405471226</v>
       </c>
       <c r="B100" t="n">
-        <v>7208.533461978369</v>
+        <v>5264.241093104078</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100.720402612188</v>
+        <v>115.4999062669912</v>
       </c>
       <c r="B101" t="n">
-        <v>7067.82780543982</v>
+        <v>5150.906060386336</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101.7377804163516</v>
+        <v>116.6665719868598</v>
       </c>
       <c r="B102" t="n">
-        <v>6929.868627346755</v>
+        <v>5040.011043127207</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102.7551582205151</v>
+        <v>117.8332377067284</v>
       </c>
       <c r="B103" t="n">
-        <v>6794.602318314742</v>
+        <v>4931.503509682866</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>103.7725360246786</v>
+        <v>118.999903426597</v>
       </c>
       <c r="B104" t="n">
-        <v>6661.976315375308</v>
+        <v>4825.332059376194</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104.7899138288421</v>
+        <v>120.1665691464656</v>
       </c>
       <c r="B105" t="n">
-        <v>6531.939081554707</v>
+        <v>4721.446398148268</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105.8072916330056</v>
+        <v>121.3332348663342</v>
       </c>
       <c r="B106" t="n">
-        <v>6404.44008584523</v>
+        <v>4619.797314730019</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106.8246694371691</v>
+        <v>122.4999005862028</v>
       </c>
       <c r="B107" t="n">
-        <v>6279.429783570303</v>
+        <v>4520.336657333504</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107.8420472413327</v>
+        <v>123.6665663060714</v>
       </c>
       <c r="B108" t="n">
-        <v>6156.859597131101</v>
+        <v>4423.017310842502</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108.8594250454962</v>
+        <v>124.83323202594</v>
       </c>
       <c r="B109" t="n">
-        <v>6036.681897131632</v>
+        <v>4327.793174491234</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109.8768028496597</v>
+        <v>125.9998977458086</v>
       </c>
       <c r="B110" t="n">
-        <v>5918.849983867596</v>
+        <v>4234.61914002905</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110.8941806538232</v>
+        <v>127.1665634656772</v>
       </c>
       <c r="B111" t="n">
-        <v>5803.318069182673</v>
+        <v>4143.451070350805</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111.9115584579867</v>
+        <v>128.3332291855458</v>
       </c>
       <c r="B112" t="n">
-        <v>5690.04125867267</v>
+        <v>4054.245778587573</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112.9289362621502</v>
+        <v>129.4998949054144</v>
       </c>
       <c r="B113" t="n">
-        <v>5578.975534242405</v>
+        <v>3966.96100765237</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113.9463140663137</v>
+        <v>130.666560625283</v>
       </c>
       <c r="B114" t="n">
-        <v>5470.077737000031</v>
+        <v>3881.555410218441</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>114.9636918704772</v>
+        <v>131.8332263451516</v>
       </c>
       <c r="B115" t="n">
-        <v>5363.30555048511</v>
+        <v>3797.988529137072</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>115.9810696746408</v>
+        <v>132.9998920650202</v>
       </c>
       <c r="B116" t="n">
-        <v>5258.617484226178</v>
+        <v>3716.220778269274</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>116.9984474788043</v>
+        <v>134.1665577848888</v>
       </c>
       <c r="B117" t="n">
-        <v>5155.972857616744</v>
+        <v>3636.21342373456</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>118.0158252829678</v>
+        <v>135.3332235047574</v>
       </c>
       <c r="B118" t="n">
-        <v>5055.331784109745</v>
+        <v>3557.92856556452</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>119.0332030871313</v>
+        <v>136.499889224626</v>
       </c>
       <c r="B119" t="n">
-        <v>4956.655155713921</v>
+        <v>3481.32911974678</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>120.0505808912948</v>
+        <v>137.6665549444946</v>
       </c>
       <c r="B120" t="n">
-        <v>4859.9046278019</v>
+        <v>3406.378800658281</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>121.0679586954583</v>
+        <v>138.8332206643632</v>
       </c>
       <c r="B121" t="n">
-        <v>4765.042604204878</v>
+        <v>3333.042103878253</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>122.0853364996219</v>
+        <v>139.9998863842318</v>
       </c>
       <c r="B122" t="n">
-        <v>4672.032222606794</v>
+        <v>3261.28428936915</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>123.1027143037854</v>
+        <v>141.1665521041004</v>
       </c>
       <c r="B123" t="n">
-        <v>4580.837340219557</v>
+        <v>3191.071365017523</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>124.1200921079489</v>
+        <v>142.333217823969</v>
       </c>
       <c r="B124" t="n">
-        <v>4491.422519735731</v>
+        <v>3122.370070536444</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>125.1374699121124</v>
+        <v>143.4998835438376</v>
       </c>
       <c r="B125" t="n">
-        <v>4403.753015561679</v>
+        <v>3055.147861704901</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>126.1548477162759</v>
+        <v>144.6665492637062</v>
       </c>
       <c r="B126" t="n">
-        <v>4317.794760314046</v>
+        <v>2989.372894954863</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>127.1722255204394</v>
+        <v>145.8332149835748</v>
       </c>
       <c r="B127" t="n">
-        <v>4233.514351579575</v>
+        <v>2925.014012285705</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>128.189603324603</v>
+        <v>146.9998807034434</v>
       </c>
       <c r="B128" t="n">
-        <v>4150.879038940103</v>
+        <v>2862.04072650333</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>129.2069811287665</v>
+        <v>148.166546423312</v>
       </c>
       <c r="B129" t="n">
-        <v>4069.856711240664</v>
+        <v>2800.423206781324</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130.22435893293</v>
+        <v>149.3332121431806</v>
       </c>
       <c r="B130" t="n">
-        <v>3990.415884116656</v>
+        <v>2740.13226452597</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>131.2417367370935</v>
+        <v>150.4998778630492</v>
       </c>
       <c r="B131" t="n">
-        <v>3912.525687754327</v>
+        <v>2681.13933955208</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>132.259114541257</v>
+        <v>151.6665435829178</v>
       </c>
       <c r="B132" t="n">
-        <v>3836.15585489928</v>
+        <v>2623.416486553085</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>133.2764923454205</v>
+        <v>152.8332093027863</v>
       </c>
       <c r="B133" t="n">
-        <v>3761.276709093418</v>
+        <v>2566.936361863234</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>134.2938701495841</v>
+        <v>153.9998750226549</v>
       </c>
       <c r="B134" t="n">
-        <v>3687.859153141521</v>
+        <v>2511.672210504988</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>135.3112479537476</v>
+        <v>155.1665407425236</v>
       </c>
       <c r="B135" t="n">
-        <v>3615.874657806276</v>
+        <v>2457.597853514632</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>136.3286257579111</v>
+        <v>156.3332064623922</v>
       </c>
       <c r="B136" t="n">
-        <v>3545.29525072313</v>
+        <v>2404.687675540262</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>137.3460035620746</v>
+        <v>157.4998721822608</v>
       </c>
       <c r="B137" t="n">
-        <v>3476.093505526451</v>
+        <v>2352.916612710513</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>138.3633813662381</v>
+        <v>158.6665379021293</v>
       </c>
       <c r="B138" t="n">
-        <v>3408.242531196746</v>
+        <v>2302.260140758582</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>139.3807591704016</v>
+        <v>159.8332036219979</v>
       </c>
       <c r="B139" t="n">
-        <v>3341.715961606921</v>
+        <v>2252.694263405235</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>140.3981369745651</v>
+        <v>160.9998693418665</v>
       </c>
       <c r="B140" t="n">
-        <v>3276.487945281043</v>
+        <v>2204.195500994972</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>141.4155147787287</v>
+        <v>162.1665350617351</v>
       </c>
       <c r="B141" t="n">
-        <v>3212.533135344783</v>
+        <v>2156.740879369289</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>142.4328925828922</v>
+        <v>163.3332007816038</v>
       </c>
       <c r="B142" t="n">
-        <v>3149.826679677344</v>
+        <v>2110.307918985605</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>143.4502703870557</v>
+        <v>164.4998665014723</v>
       </c>
       <c r="B143" t="n">
-        <v>3088.344211255065</v>
+        <v>2064.874624269036</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>144.4676481912192</v>
+        <v>165.6665322213409</v>
       </c>
       <c r="B144" t="n">
-        <v>3028.061838681814</v>
+        <v>2020.419473192193</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>145.4850259953827</v>
+        <v>166.8331979412095</v>
       </c>
       <c r="B145" t="n">
-        <v>2968.95613690494</v>
+        <v>1976.921407079821</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>146.5024037995462</v>
+        <v>167.9998636610781</v>
       </c>
       <c r="B146" t="n">
-        <v>2911.004138113717</v>
+        <v>1934.359820635058</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>147.5197816037098</v>
+        <v>169.1665293809467</v>
       </c>
       <c r="B147" t="n">
-        <v>2854.183322811711</v>
+        <v>1892.714552175576</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>148.5371594078733</v>
+        <v>170.3331951008153</v>
       </c>
       <c r="B148" t="n">
-        <v>2798.4716110692</v>
+        <v>1851.965874084407</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>149.5545372120368</v>
+        <v>171.4998608206839</v>
       </c>
       <c r="B149" t="n">
-        <v>2743.847353941549</v>
+        <v>1812.094483466365</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>150.5719150162003</v>
+        <v>172.6665265405525</v>
       </c>
       <c r="B150" t="n">
-        <v>2690.289325056001</v>
+        <v>1773.081493001546</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>151.5892928203638</v>
+        <v>173.8331922604211</v>
       </c>
       <c r="B151" t="n">
-        <v>2637.776712365036</v>
+        <v>1734.908421999076</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>152.6066706245273</v>
+        <v>174.9998579802897</v>
       </c>
       <c r="B152" t="n">
-        <v>2586.289110057127</v>
+        <v>1697.557187644193</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>153.6240484286909</v>
+        <v>176.1665237001583</v>
       </c>
       <c r="B153" t="n">
-        <v>2535.806510627934</v>
+        <v>1661.010096430635</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>154.6414262328544</v>
+        <v>177.3331894200269</v>
       </c>
       <c r="B154" t="n">
-        <v>2486.309297108285</v>
+        <v>1625.249835778875</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>155.6588040370179</v>
+        <v>178.4998551398955</v>
       </c>
       <c r="B155" t="n">
-        <v>2437.778235436067</v>
+        <v>1590.259465836471</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>156.6761818411814</v>
+        <v>179.6665208597641</v>
       </c>
       <c r="B156" t="n">
-        <v>2390.194466987341</v>
+        <v>1556.022411453567</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>157.6935596453449</v>
+        <v>180.8331865796327</v>
       </c>
       <c r="B157" t="n">
-        <v>2343.539501243411</v>
+        <v>1522.522454329301</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>158.7109374495084</v>
+        <v>181.9998522995013</v>
       </c>
       <c r="B158" t="n">
-        <v>2297.795208609159</v>
+        <v>1489.743725330698</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>159.728315253672</v>
+        <v>183.1665180193699</v>
       </c>
       <c r="B159" t="n">
-        <v>2252.943813367333</v>
+        <v>1457.670696974988</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>160.7456930578355</v>
+        <v>184.3331837392385</v>
       </c>
       <c r="B160" t="n">
-        <v>2208.967886768789</v>
+        <v>1426.288176073728</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>161.763070861999</v>
+        <v>185.4998494591071</v>
       </c>
       <c r="B161" t="n">
-        <v>2165.850340263586</v>
+        <v>1395.581296536613</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>162.7804486661625</v>
+        <v>186.6665151789757</v>
       </c>
       <c r="B162" t="n">
-        <v>2123.57441885762</v>
+        <v>1365.535512328549</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>163.797826470326</v>
+        <v>187.8331808988443</v>
       </c>
       <c r="B163" t="n">
-        <v>2082.123694602766</v>
+        <v>1336.136590578929</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>164.8152042744895</v>
+        <v>188.9998466187129</v>
       </c>
       <c r="B164" t="n">
-        <v>2041.482060213795</v>
+        <v>1307.370604840443</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>165.832582078653</v>
+        <v>190.1665123385815</v>
       </c>
       <c r="B165" t="n">
-        <v>2001.633722807751</v>
+        <v>1279.223928491009</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>166.8499598828165</v>
+        <v>191.3331780584501</v>
       </c>
       <c r="B166" t="n">
-        <v>1962.56319776951</v>
+        <v>1251.683228279359</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>167.8673376869801</v>
+        <v>192.4998437783187</v>
       </c>
       <c r="B167" t="n">
-        <v>1924.25530273122</v>
+        <v>1224.735458007876</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>168.8847154911436</v>
+        <v>193.6665094981873</v>
       </c>
       <c r="B168" t="n">
-        <v>1886.695151676083</v>
+        <v>1198.36785235535</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>169.9020932953071</v>
+        <v>194.8331752180559</v>
       </c>
       <c r="B169" t="n">
-        <v>1849.868149151126</v>
+        <v>1172.5679208263</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>170.9194710994706</v>
+        <v>195.9998409379245</v>
       </c>
       <c r="B170" t="n">
-        <v>1813.759984597563</v>
+        <v>1147.323441837009</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>171.9368489036341</v>
+        <v>197.1665066577931</v>
       </c>
       <c r="B171" t="n">
-        <v>1778.356626787717</v>
+        <v>1122.622456924392</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>172.9542267077976</v>
+        <v>198.3331723776617</v>
       </c>
       <c r="B172" t="n">
-        <v>1743.644318375841</v>
+        <v>1098.453265081429</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>173.9716045119611</v>
+        <v>199.4998380975303</v>
       </c>
       <c r="B173" t="n">
-        <v>1709.609570547545</v>
+        <v>1074.804417216496</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>174.9889823161247</v>
+        <v>200.6665038173989</v>
       </c>
       <c r="B174" t="n">
-        <v>1676.239157783737</v>
+        <v>1051.664710725913</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>176.0063601202882</v>
+        <v>201.8331695372675</v>
       </c>
       <c r="B175" t="n">
-        <v>1643.520112716427</v>
+        <v>1029.023184190387</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>177.0237379244517</v>
+        <v>202.9998352571361</v>
       </c>
       <c r="B176" t="n">
-        <v>1611.43972109231</v>
+        <v>1006.869112182005</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>178.0411157286152</v>
+        <v>204.1665009770047</v>
       </c>
       <c r="B177" t="n">
-        <v>1579.985516832505</v>
+        <v>985.1920001817712</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>179.0584935327787</v>
+        <v>205.3331666968733</v>
       </c>
       <c r="B178" t="n">
-        <v>1549.145277185985</v>
+        <v>963.9815796103621</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>180.0758713369422</v>
+        <v>206.4998324167419</v>
       </c>
       <c r="B179" t="n">
-        <v>1518.907017982217</v>
+        <v>943.2278029630172</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>181.0932491411058</v>
+        <v>207.6664981366105</v>
       </c>
       <c r="B180" t="n">
-        <v>1489.258988974439</v>
+        <v>922.9208390496369</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>182.1106269452693</v>
+        <v>208.8331638564791</v>
       </c>
       <c r="B181" t="n">
-        <v>1460.189669271128</v>
+        <v>903.0510683384857</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>183.1280047494328</v>
+        <v>209.9998295763477</v>
       </c>
       <c r="B182" t="n">
-        <v>1431.687762861153</v>
+        <v>883.609078398156</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>184.1453825535963</v>
+        <v>211.1664952962163</v>
       </c>
       <c r="B183" t="n">
-        <v>1403.742194224068</v>
+        <v>864.5856594399344</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>185.1627603577598</v>
+        <v>212.3331610160849</v>
       </c>
       <c r="B184" t="n">
-        <v>1376.342104026743</v>
+        <v>845.9717999552246</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>186.1801381619233</v>
+        <v>213.4998267359535</v>
       </c>
       <c r="B185" t="n">
-        <v>1349.47684490145</v>
+        <v>827.7586824458953</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>187.1975159660869</v>
+        <v>214.6664924558221</v>
       </c>
       <c r="B186" t="n">
-        <v>1323.135977310905</v>
+        <v>809.9376792475496</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>188.2148937702504</v>
+        <v>215.8331581756906</v>
       </c>
       <c r="B187" t="n">
-        <v>1297.309265489257</v>
+        <v>792.5003484430489</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>189.2322715744139</v>
+        <v>216.9998238955592</v>
       </c>
       <c r="B188" t="n">
-        <v>1271.98667346758</v>
+        <v>775.4384298625489</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>190.2496493785774</v>
+        <v>218.1664896154278</v>
       </c>
       <c r="B189" t="n">
-        <v>1247.158361170409</v>
+        <v>758.7438411716558</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>191.2670271827409</v>
+        <v>219.3331553352965</v>
       </c>
       <c r="B190" t="n">
-        <v>1222.814680594948</v>
+        <v>742.4086740423546</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>192.2844049869044</v>
+        <v>220.4998210551651</v>
       </c>
       <c r="B191" t="n">
-        <v>1198.946172060095</v>
+        <v>726.4251904072515</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>193.301782791068</v>
+        <v>221.6664867750336</v>
       </c>
       <c r="B192" t="n">
-        <v>1175.543560532625</v>
+        <v>710.7858187933857</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>194.3191605952315</v>
+        <v>222.8331524949022</v>
       </c>
       <c r="B193" t="n">
-        <v>1152.597752020133</v>
+        <v>695.483150734546</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>195.336538399395</v>
+        <v>223.9998182147708</v>
       </c>
       <c r="B194" t="n">
-        <v>1130.099830039295</v>
+        <v>680.5099372652963</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>196.3539162035585</v>
+        <v>225.1664839346394</v>
       </c>
       <c r="B195" t="n">
-        <v>1108.041052150882</v>
+        <v>665.8590854822893</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>197.371294007722</v>
+        <v>226.333149654508</v>
       </c>
       <c r="B196" t="n">
-        <v>1086.412846561534</v>
+        <v>651.5236551888904</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>198.3886718118855</v>
+        <v>227.4998153743766</v>
       </c>
       <c r="B197" t="n">
-        <v>1065.206808793498</v>
+        <v>637.4968556044209</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>199.406049616049</v>
+        <v>228.6664810942452</v>
       </c>
       <c r="B198" t="n">
-        <v>1044.414698418683</v>
+        <v>623.7720421487015</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>200.4234274202126</v>
+        <v>229.8331468141138</v>
       </c>
       <c r="B199" t="n">
-        <v>1024.028435857004</v>
+        <v>610.3427132949513</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>201.4408052243761</v>
+        <v>230.9998125339824</v>
       </c>
       <c r="B200" t="n">
-        <v>1004.040099235973</v>
+        <v>597.2025074883752</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>202.4581830285396</v>
+        <v>232.166478253851</v>
       </c>
       <c r="B201" t="n">
-        <v>984.4419213127594</v>
+        <v>584.3452001331086</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>203.4755608327031</v>
+        <v>233.3331439737196</v>
       </c>
       <c r="B202" t="n">
-        <v>965.2262864556426</v>
+        <v>571.7647006453815</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>204.4929386368666</v>
+        <v>234.4998096935882</v>
       </c>
       <c r="B203" t="n">
-        <v>946.3857276842663</v>
+        <v>559.4550495659628</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>205.5103164410301</v>
+        <v>235.6664754134568</v>
       </c>
       <c r="B204" t="n">
-        <v>927.9129237699013</v>
+        <v>547.4104157382903</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>206.5276942451937</v>
+        <v>236.8331411333254</v>
       </c>
       <c r="B205" t="n">
-        <v>909.8006963889915</v>
+        <v>535.6250935464152</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>207.5450720493572</v>
+        <v>237.999806853194</v>
       </c>
       <c r="B206" t="n">
-        <v>892.0420073324259</v>
+        <v>524.0935002116875</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>208.5624498535207</v>
+        <v>239.1664725730626</v>
       </c>
       <c r="B207" t="n">
-        <v>874.6299557736035</v>
+        <v>512.8101731487239</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>209.5798276576842</v>
+        <v>240.3331382929312</v>
       </c>
       <c r="B208" t="n">
-        <v>857.5577755854893</v>
+        <v>501.7697673763791</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>210.5972054618477</v>
+        <v>241.4998040127998</v>
       </c>
       <c r="B209" t="n">
-        <v>840.818832710338</v>
+        <v>490.9670529874628</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>211.6145832660112</v>
+        <v>242.6664697326684</v>
       </c>
       <c r="B210" t="n">
-        <v>824.4066225833086</v>
+        <v>480.3969126707918</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>212.6319610701748</v>
+        <v>243.833135452537</v>
       </c>
       <c r="B211" t="n">
-        <v>808.3147676038466</v>
+        <v>470.0543392871813</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>213.6493388743383</v>
+        <v>244.9998011724056</v>
       </c>
       <c r="B212" t="n">
-        <v>792.537014657896</v>
+        <v>459.934433496703</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>214.6667166785018</v>
+        <v>246.1664668922742</v>
       </c>
       <c r="B213" t="n">
-        <v>777.0672326878788</v>
+        <v>450.0324014377459</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>215.6840944826653</v>
+        <v>247.3331326121428</v>
       </c>
       <c r="B214" t="n">
-        <v>761.8994103110543</v>
+        <v>440.3435524589464</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>216.7014722868288</v>
+        <v>248.4997983320114</v>
       </c>
       <c r="B215" t="n">
-        <v>747.0276534813598</v>
+        <v>430.8632968927743</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>217.7188500909923</v>
+        <v>249.66646405188</v>
       </c>
       <c r="B216" t="n">
-        <v>732.4461832014665</v>
+        <v>421.5871438846582</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>218.7362278951558</v>
+        <v>250.8331297717486</v>
       </c>
       <c r="B217" t="n">
-        <v>718.1493332764818</v>
+        <v>412.5106992653693</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>219.7536056993194</v>
+        <v>251.9997954916172</v>
       </c>
       <c r="B218" t="n">
-        <v>704.1315481105177</v>
+        <v>403.6296634671948</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>220.7709835034829</v>
+        <v>253.1664612114858</v>
       </c>
       <c r="B219" t="n">
-        <v>690.3873805498021</v>
+        <v>394.9398294897791</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>221.7883613076464</v>
+        <v>254.3331269313544</v>
       </c>
       <c r="B220" t="n">
-        <v>676.9114897662103</v>
+        <v>386.43708090655</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>222.8057391118099</v>
+        <v>255.499792651223</v>
       </c>
       <c r="B221" t="n">
-        <v>663.6986391787639</v>
+        <v>378.1173899133361</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>223.8231169159734</v>
+        <v>256.6664583710916</v>
       </c>
       <c r="B222" t="n">
-        <v>650.7436944228981</v>
+        <v>369.976815422376</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>224.8404947201369</v>
+        <v>257.8331240909602</v>
       </c>
       <c r="B223" t="n">
-        <v>638.0416213534108</v>
+        <v>362.0115011942454</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>225.8578725243005</v>
+        <v>258.9997898108288</v>
       </c>
       <c r="B224" t="n">
-        <v>625.5874840859941</v>
+        <v>354.2176740109045</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>226.875250328464</v>
+        <v>260.1664555306974</v>
       </c>
       <c r="B225" t="n">
-        <v>613.3764430834699</v>
+        <v>346.5916418887992</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>227.8926281326275</v>
+        <v>261.333121250566</v>
       </c>
       <c r="B226" t="n">
-        <v>601.4037532726466</v>
+        <v>339.129792330947</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>228.910005936791</v>
+        <v>262.4997869704346</v>
       </c>
       <c r="B227" t="n">
-        <v>589.6647622015946</v>
+        <v>331.8285906137351</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>229.9273837409545</v>
+        <v>263.6664526903032</v>
       </c>
       <c r="B228" t="n">
-        <v>578.1549082287669</v>
+        <v>324.684578113238</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>230.944761545118</v>
+        <v>264.8331184101718</v>
       </c>
       <c r="B229" t="n">
-        <v>566.8697187555989</v>
+        <v>317.6943706678496</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>231.9621393492815</v>
+        <v>265.9997841300404</v>
       </c>
       <c r="B230" t="n">
-        <v>555.8048084836068</v>
+        <v>310.8546569740261</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>232.979517153445</v>
+        <v>267.166449849909</v>
       </c>
       <c r="B231" t="n">
-        <v>544.9558777131278</v>
+        <v>304.1621970167409</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>233.9968949576086</v>
+        <v>268.3331155697776</v>
       </c>
       <c r="B232" t="n">
-        <v>534.3187106720682</v>
+        <v>297.6138205389253</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>235.0142727617721</v>
+        <v>269.4997812896462</v>
       </c>
       <c r="B233" t="n">
-        <v>523.8891738758849</v>
+        <v>291.2064255333379</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>236.0316505659356</v>
+        <v>270.6664470095147</v>
       </c>
       <c r="B234" t="n">
-        <v>513.6632145249235</v>
+        <v>284.9369767782266</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>237.0490283700991</v>
+        <v>271.8331127293833</v>
       </c>
       <c r="B235" t="n">
-        <v>503.636858925639</v>
+        <v>278.802504398623</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>238.0664061742626</v>
+        <v>272.9997784492519</v>
       </c>
       <c r="B236" t="n">
-        <v>493.8062109485621</v>
+        <v>272.8001024575443</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>239.0837839784261</v>
+        <v>274.1664441691206</v>
       </c>
       <c r="B237" t="n">
-        <v>484.1674505156605</v>
+        <v>266.9269275797712</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>240.1011617825897</v>
+        <v>275.3331098889892</v>
       </c>
       <c r="B238" t="n">
-        <v>474.7168321121958</v>
+        <v>261.1801976076681</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>241.1185395867532</v>
+        <v>276.4997756088578</v>
       </c>
       <c r="B239" t="n">
-        <v>465.4506833334885</v>
+        <v>255.5571902799674</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>242.1359173909167</v>
+        <v>277.6664413287264</v>
       </c>
       <c r="B240" t="n">
-        <v>456.3654034592403</v>
+        <v>250.0552419441977</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>243.1532951950802</v>
+        <v>278.833107048595</v>
       </c>
       <c r="B241" t="n">
-        <v>447.4574620517404</v>
+        <v>244.6717462936788</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>244.1706729992437</v>
+        <v>279.9997727684636</v>
       </c>
       <c r="B242" t="n">
-        <v>438.7233975846923</v>
+        <v>239.4041531344222</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>245.1880508034072</v>
+        <v>281.1664384883322</v>
       </c>
       <c r="B243" t="n">
-        <v>430.1598160983741</v>
+        <v>234.2499671749955</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>246.2054286075708</v>
+        <v>282.3331042082007</v>
       </c>
       <c r="B244" t="n">
-        <v>421.7633898823558</v>
+        <v>229.2067468468272</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>247.2228064117343</v>
+        <v>283.4997699280693</v>
       </c>
       <c r="B245" t="n">
-        <v>413.5308561790402</v>
+        <v>224.2721031453393</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>248.2401842158978</v>
+        <v>284.6664356479379</v>
       </c>
       <c r="B246" t="n">
-        <v>405.4590159184349</v>
+        <v>219.4436985004515</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>249.2575620200613</v>
+        <v>285.8331013678065</v>
       </c>
       <c r="B247" t="n">
-        <v>397.5447324743593</v>
+        <v>214.7192456668455</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>250.2749398242248</v>
+        <v>286.9997670876751</v>
       </c>
       <c r="B248" t="n">
-        <v>389.7849304451472</v>
+        <v>210.0965066425335</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>251.2923176283883</v>
+        <v>288.1664328075437</v>
       </c>
       <c r="B249" t="n">
-        <v>382.1765944588464</v>
+        <v>205.5732916087872</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>252.3096954325518</v>
+        <v>289.3330985274123</v>
       </c>
       <c r="B250" t="n">
-        <v>374.7167680016885</v>
+        <v>201.147457890896</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>253.3270732367154</v>
+        <v>290.499764247281</v>
       </c>
       <c r="B251" t="n">
-        <v>367.4025522686064</v>
+        <v>196.8169089440242</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>254.3444510408789</v>
+        <v>291.6664299671496</v>
       </c>
       <c r="B252" t="n">
-        <v>360.2311050382472</v>
+        <v>192.5795933614975</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>255.3618288450424</v>
+        <v>292.8330956870182</v>
       </c>
       <c r="B253" t="n">
-        <v>353.1996395663573</v>
+        <v>188.4335039007137</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>256.3792066492059</v>
+        <v>293.9997614068867</v>
       </c>
       <c r="B254" t="n">
-        <v>346.3054235048895</v>
+        <v>184.3766765341531</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>257.3965844533694</v>
+        <v>295.1664271267553</v>
       </c>
       <c r="B255" t="n">
-        <v>339.5457778388681</v>
+        <v>180.4071895185455</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>258.4139622575329</v>
+        <v>296.3330928466239</v>
       </c>
       <c r="B256" t="n">
-        <v>332.9180758453018</v>
+        <v>176.5231624832641</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>259.4313400616965</v>
+        <v>297.4997585664925</v>
       </c>
       <c r="B257" t="n">
-        <v>326.4197420741431</v>
+        <v>172.7227555411473</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>260.44871786586</v>
+        <v>298.6664242863611</v>
       </c>
       <c r="B258" t="n">
-        <v>320.0482513463943</v>
+        <v>169.0041684164117</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>261.4660956700235</v>
+        <v>299.8330900062297</v>
       </c>
       <c r="B259" t="n">
-        <v>313.8011277711988</v>
+        <v>165.3656395917889</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>262.483473474187</v>
+        <v>300.9997557260983</v>
       </c>
       <c r="B260" t="n">
-        <v>307.6759437880406</v>
+        <v>161.8054454738206</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>263.5008512783505</v>
+        <v>302.1664214459669</v>
       </c>
       <c r="B261" t="n">
-        <v>301.6703192181299</v>
+        <v>158.321899577913</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>264.518229082514</v>
+        <v>303.3330871658355</v>
       </c>
       <c r="B262" t="n">
-        <v>295.7819203433467</v>
+        <v>154.9133517262082</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>265.5356068866776</v>
+        <v>304.4997528857041</v>
       </c>
       <c r="B263" t="n">
-        <v>290.0084589992703</v>
+        <v>151.578187268953</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>266.5529846908411</v>
+        <v>305.6664186055727</v>
       </c>
       <c r="B264" t="n">
-        <v>284.3476916816813</v>
+        <v>148.3148263192195</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>267.5703624950046</v>
+        <v>306.8330843254413</v>
       </c>
       <c r="B265" t="n">
-        <v>278.7974186818462</v>
+        <v>145.1217230031121</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>268.5877402991681</v>
+        <v>307.9997500453099</v>
       </c>
       <c r="B266" t="n">
-        <v>273.3554832254775</v>
+        <v>141.9973647270639</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>269.6051181033316</v>
+        <v>309.1664157651785</v>
       </c>
       <c r="B267" t="n">
-        <v>268.0197706374133</v>
+        <v>138.9402714648935</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>270.6224959074951</v>
+        <v>310.3330814850471</v>
       </c>
       <c r="B268" t="n">
-        <v>262.7882075191592</v>
+        <v>135.9489950523365</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>271.6398737116587</v>
+        <v>311.4997472049157</v>
       </c>
       <c r="B269" t="n">
-        <v>257.6587609454131</v>
+        <v>133.022118503475</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>272.6572515158222</v>
+        <v>312.6664129247843</v>
       </c>
       <c r="B270" t="n">
-        <v>252.6294376703892</v>
+        <v>130.1582553394481</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>273.6746293199857</v>
+        <v>313.8330786446529</v>
       </c>
       <c r="B271" t="n">
-        <v>247.6982833549639</v>
+        <v>127.3560489310484</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>274.6920071241492</v>
+        <v>314.9997443645215</v>
       </c>
       <c r="B272" t="n">
-        <v>242.8633818085191</v>
+        <v>124.6141718557373</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>275.7093849283127</v>
+        <v>316.1664100843901</v>
       </c>
       <c r="B273" t="n">
-        <v>238.1228542424211</v>
+        <v>121.9313252696135</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>276.7267627324762</v>
+        <v>317.3330758042587</v>
       </c>
       <c r="B274" t="n">
-        <v>233.47485854126</v>
+        <v>119.3062382921987</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>277.7441405366397</v>
+        <v>318.4997415241273</v>
       </c>
       <c r="B275" t="n">
-        <v>228.9175885457232</v>
+        <v>116.7376674040398</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>278.7615183408033</v>
+        <v>319.6664072439959</v>
       </c>
       <c r="B276" t="n">
-        <v>224.449273352618</v>
+        <v>114.2243958571282</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>279.7788961449668</v>
+        <v>320.8330729638645</v>
       </c>
       <c r="B277" t="n">
-        <v>220.0681766240793</v>
+        <v>111.7652331002728</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>280.7962739491303</v>
+        <v>321.9997386837331</v>
       </c>
       <c r="B278" t="n">
-        <v>215.7725959157617</v>
+        <v>109.3590142119486</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>281.8136517532938</v>
+        <v>323.1664044036017</v>
       </c>
       <c r="B279" t="n">
-        <v>211.5608620129935</v>
+        <v>107.0045993523716</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>282.8310295574573</v>
+        <v>324.3330701234703</v>
       </c>
       <c r="B280" t="n">
-        <v>207.4313382834651</v>
+        <v>104.7008732209136</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>283.8484073616208</v>
+        <v>325.4997358433389</v>
       </c>
       <c r="B281" t="n">
-        <v>203.3824200403287</v>
+        <v>102.4467445284705</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>284.8657851657844</v>
+        <v>326.6664015632075</v>
       </c>
       <c r="B282" t="n">
-        <v>199.412533919995</v>
+        <v>100.2411454805108</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>285.8831629699479</v>
+        <v>327.833067283076</v>
       </c>
       <c r="B283" t="n">
-        <v>195.5201372685044</v>
+        <v>98.08303127133971</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>286.9005407741114</v>
+        <v>328.9997330029447</v>
       </c>
       <c r="B284" t="n">
-        <v>191.7037175450452</v>
+        <v>95.97137958957778</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>287.9179185782749</v>
+        <v>330.1663987228133</v>
       </c>
       <c r="B285" t="n">
-        <v>187.9617917315954</v>
+        <v>93.90519013271785</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>288.9352963824384</v>
+        <v>331.3330644426819</v>
       </c>
       <c r="B286" t="n">
-        <v>184.2929057578752</v>
+        <v>91.8834841339656</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>289.9526741866019</v>
+        <v>332.4997301625505</v>
       </c>
       <c r="B287" t="n">
-        <v>180.6956339360979</v>
+        <v>89.90530389922631</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>290.9700519907655</v>
+        <v>333.6663958824191</v>
       </c>
       <c r="B288" t="n">
-        <v>177.168578406744</v>
+        <v>87.96971235263666</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>291.987429794929</v>
+        <v>334.8330616022877</v>
       </c>
       <c r="B289" t="n">
-        <v>173.7103685953579</v>
+        <v>86.07579259277705</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>293.0048075990925</v>
+        <v>335.9997273221563</v>
       </c>
       <c r="B290" t="n">
-        <v>170.3196606809816</v>
+        <v>84.22264745796275</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>294.022185403256</v>
+        <v>337.1663930420249</v>
       </c>
       <c r="B291" t="n">
-        <v>166.9951370725489</v>
+        <v>82.40939910274987</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>295.0395632074195</v>
+        <v>338.3330587618935</v>
       </c>
       <c r="B292" t="n">
-        <v>163.7355058969149</v>
+        <v>80.63518857924777</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>296.056941011583</v>
+        <v>339.499724481762</v>
       </c>
       <c r="B293" t="n">
-        <v>160.5395004991343</v>
+        <v>78.89917543445249</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>297.0743188157466</v>
+        <v>340.6663902016306</v>
       </c>
       <c r="B294" t="n">
-        <v>157.4058789470264</v>
+        <v>77.20053730758036</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>298.0916966199101</v>
+        <v>341.8330559214992</v>
       </c>
       <c r="B295" t="n">
-        <v>154.3334235498251</v>
+        <v>75.53846954395681</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>299.1090744240736</v>
+        <v>342.9997216413678</v>
       </c>
       <c r="B296" t="n">
-        <v>151.3209403866275</v>
+        <v>73.91218481157533</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>300.1264522282371</v>
+        <v>344.1663873612364</v>
       </c>
       <c r="B297" t="n">
-        <v>148.3672588397418</v>
+        <v>72.32091272993945</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>301.1438300324006</v>
+        <v>345.333053081105</v>
       </c>
       <c r="B298" t="n">
-        <v>145.4712311421206</v>
+        <v>70.76389950317694</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>302.1612078365641</v>
+        <v>346.4997188009737</v>
       </c>
       <c r="B299" t="n">
-        <v>142.6317319303054</v>
+        <v>69.24040756490299</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>303.1785856407276</v>
+        <v>347.6663845208423</v>
       </c>
       <c r="B300" t="n">
-        <v>139.8476578059457</v>
+        <v>67.74971522842372</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>304.1959634448912</v>
+        <v>348.8330502407109</v>
       </c>
       <c r="B301" t="n">
-        <v>137.1179269101771</v>
+        <v>66.29111634281423</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>305.2133412490547</v>
+        <v>349.9997159605795</v>
       </c>
       <c r="B302" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>306.2307190532182</v>
+        <v>351.166381680448</v>
       </c>
       <c r="B303" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>307.2480968573817</v>
+        <v>352.3330474003166</v>
       </c>
       <c r="B304" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>308.2654746615452</v>
+        <v>353.4997131201852</v>
       </c>
       <c r="B305" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>309.2828524657087</v>
+        <v>354.6663788400538</v>
       </c>
       <c r="B306" t="n">
         <v>0</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>310.3002302698723</v>
+        <v>355.8330445599224</v>
       </c>
       <c r="B307" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>311.3176080740358</v>
+        <v>356.999710279791</v>
       </c>
       <c r="B308" t="n">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>312.3349858781993</v>
+        <v>358.1663759996596</v>
       </c>
       <c r="B309" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>313.3523636823628</v>
+        <v>359.3330417195282</v>
       </c>
       <c r="B310" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>314.3697414865263</v>
+        <v>360.4997074393968</v>
       </c>
       <c r="B311" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>315.3871192906898</v>
+        <v>361.6663731592654</v>
       </c>
       <c r="B312" t="n">
         <v>0</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>316.4044970948534</v>
+        <v>362.833038879134</v>
       </c>
       <c r="B313" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>317.4218748990169</v>
+        <v>363.9997045990026</v>
       </c>
       <c r="B314" t="n">
         <v>0</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>318.4392527031804</v>
+        <v>365.1663703188712</v>
       </c>
       <c r="B315" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>319.4566305073439</v>
+        <v>366.3330360387398</v>
       </c>
       <c r="B316" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>320.4740083115074</v>
+        <v>367.4997017586084</v>
       </c>
       <c r="B317" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>321.4913861156709</v>
+        <v>368.666367478477</v>
       </c>
       <c r="B318" t="n">
         <v>0</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>322.5087639198345</v>
+        <v>369.8330331983456</v>
       </c>
       <c r="B319" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>323.526141723998</v>
+        <v>370.9996989182142</v>
       </c>
       <c r="B320" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>324.5435195281615</v>
+        <v>372.1663646380828</v>
       </c>
       <c r="B321" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>325.560897332325</v>
+        <v>373.3330303579514</v>
       </c>
       <c r="B322" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>326.5782751364885</v>
+        <v>374.49969607782</v>
       </c>
       <c r="B323" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>327.595652940652</v>
+        <v>375.6663617976886</v>
       </c>
       <c r="B324" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>328.6130307448155</v>
+        <v>376.8330275175572</v>
       </c>
       <c r="B325" t="n">
         <v>0</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>329.630408548979</v>
+        <v>377.9996932374258</v>
       </c>
       <c r="B326" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>330.6477863531425</v>
+        <v>379.1663589572944</v>
       </c>
       <c r="B327" t="n">
         <v>0</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>331.665164157306</v>
+        <v>380.333024677163</v>
       </c>
       <c r="B328" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>332.6825419614696</v>
+        <v>381.4996903970316</v>
       </c>
       <c r="B329" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>333.6999197656331</v>
+        <v>382.6663561169002</v>
       </c>
       <c r="B330" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>334.7172975697966</v>
+        <v>383.8330218367688</v>
       </c>
       <c r="B331" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>335.7346753739601</v>
+        <v>384.9996875566374</v>
       </c>
       <c r="B332" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>336.7520531781236</v>
+        <v>386.166353276506</v>
       </c>
       <c r="B333" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>337.7694309822871</v>
+        <v>387.3330189963746</v>
       </c>
       <c r="B334" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>338.7868087864506</v>
+        <v>388.4996847162432</v>
       </c>
       <c r="B335" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>339.8041865906142</v>
+        <v>389.6663504361118</v>
       </c>
       <c r="B336" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>340.8215643947777</v>
+        <v>390.8330161559804</v>
       </c>
       <c r="B337" t="n">
         <v>0</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>341.8389421989412</v>
+        <v>391.999681875849</v>
       </c>
       <c r="B338" t="n">
         <v>0</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>342.8563200031047</v>
+        <v>393.1663475957176</v>
       </c>
       <c r="B339" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>343.8736978072682</v>
+        <v>394.3330133155862</v>
       </c>
       <c r="B340" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>344.8910756114317</v>
+        <v>395.4996790354548</v>
       </c>
       <c r="B341" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>345.9084534155953</v>
+        <v>396.6663447553233</v>
       </c>
       <c r="B342" t="n">
         <v>0</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>346.9258312197588</v>
+        <v>397.8330104751919</v>
       </c>
       <c r="B343" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>347.9432090239223</v>
+        <v>398.9996761950605</v>
       </c>
       <c r="B344" t="n">
         <v>0</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>348.9605868280858</v>
+        <v>400.1663419149291</v>
       </c>
       <c r="B345" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>349.9779646322493</v>
+        <v>401.3330076347978</v>
       </c>
       <c r="B346" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>350.9953424364128</v>
+        <v>402.4996733546664</v>
       </c>
       <c r="B347" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>352.0127202405764</v>
+        <v>403.666339074535</v>
       </c>
       <c r="B348" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>353.0300980447399</v>
+        <v>404.8330047944036</v>
       </c>
       <c r="B349" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>354.0474758489034</v>
+        <v>405.9996705142722</v>
       </c>
       <c r="B350" t="n">
         <v>0</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>355.0648536530669</v>
+        <v>407.1663362341408</v>
       </c>
       <c r="B351" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>356.0822314572304</v>
+        <v>408.3330019540093</v>
       </c>
       <c r="B352" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>357.0996092613939</v>
+        <v>409.4996676738779</v>
       </c>
       <c r="B353" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>358.1169870655575</v>
+        <v>410.6663333937465</v>
       </c>
       <c r="B354" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>359.134364869721</v>
+        <v>411.8329991136151</v>
       </c>
       <c r="B355" t="n">
         <v>0</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>360.1517426738845</v>
+        <v>412.9996648334837</v>
       </c>
       <c r="B356" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>361.169120478048</v>
+        <v>414.1663305533523</v>
       </c>
       <c r="B357" t="n">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>362.1864982822115</v>
+        <v>415.3329962732209</v>
       </c>
       <c r="B358" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>363.203876086375</v>
+        <v>416.4996619930895</v>
       </c>
       <c r="B359" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>364.2212538905385</v>
+        <v>417.6663277129582</v>
       </c>
       <c r="B360" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>365.2386316947021</v>
+        <v>418.8329934328268</v>
       </c>
       <c r="B361" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>366.2560094988656</v>
+        <v>419.9996591526953</v>
       </c>
       <c r="B362" t="n">
         <v>0</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>367.2733873030291</v>
+        <v>421.1663248725639</v>
       </c>
       <c r="B363" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>368.2907651071926</v>
+        <v>422.3329905924325</v>
       </c>
       <c r="B364" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>369.3081429113561</v>
+        <v>423.4996563123011</v>
       </c>
       <c r="B365" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>370.3255207155196</v>
+        <v>424.6663220321697</v>
       </c>
       <c r="B366" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>371.3428985196832</v>
+        <v>425.8329877520383</v>
       </c>
       <c r="B367" t="n">
         <v>0</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>372.3602763238467</v>
+        <v>426.9996534719069</v>
       </c>
       <c r="B368" t="n">
         <v>0</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>373.3776541280102</v>
+        <v>428.1663191917755</v>
       </c>
       <c r="B369" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>374.3950319321737</v>
+        <v>429.3329849116441</v>
       </c>
       <c r="B370" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>375.4124097363372</v>
+        <v>430.4996506315127</v>
       </c>
       <c r="B371" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>376.4297875405007</v>
+        <v>431.6663163513813</v>
       </c>
       <c r="B372" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>377.4471653446643</v>
+        <v>432.8329820712499</v>
       </c>
       <c r="B373" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>378.4645431488278</v>
+        <v>433.9996477911185</v>
       </c>
       <c r="B374" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>379.4819209529913</v>
+        <v>435.1663135109871</v>
       </c>
       <c r="B375" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>380.4992987571548</v>
+        <v>436.3329792308557</v>
       </c>
       <c r="B376" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>381.5166765613183</v>
+        <v>437.4996449507243</v>
       </c>
       <c r="B377" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>382.5340543654818</v>
+        <v>438.6663106705929</v>
       </c>
       <c r="B378" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>383.5514321696454</v>
+        <v>439.8329763904615</v>
       </c>
       <c r="B379" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>384.5688099738089</v>
+        <v>440.9996421103301</v>
       </c>
       <c r="B380" t="n">
         <v>0</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>385.5861877779724</v>
+        <v>442.1663078301987</v>
       </c>
       <c r="B381" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>386.6035655821359</v>
+        <v>443.3329735500673</v>
       </c>
       <c r="B382" t="n">
         <v>0</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>387.6209433862994</v>
+        <v>444.4996392699359</v>
       </c>
       <c r="B383" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>388.6383211904629</v>
+        <v>445.6663049898045</v>
       </c>
       <c r="B384" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>389.6556989946264</v>
+        <v>446.8329707096731</v>
       </c>
       <c r="B385" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>390.67307679879</v>
+        <v>447.9996364295417</v>
       </c>
       <c r="B386" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>391.6904546029535</v>
+        <v>449.1663021494103</v>
       </c>
       <c r="B387" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>392.707832407117</v>
+        <v>450.3329678692789</v>
       </c>
       <c r="B388" t="n">
         <v>0</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>393.7252102112805</v>
+        <v>451.4996335891475</v>
       </c>
       <c r="B389" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>394.742588015444</v>
+        <v>452.6662993090161</v>
       </c>
       <c r="B390" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>395.7599658196075</v>
+        <v>453.8329650288846</v>
       </c>
       <c r="B391" t="n">
         <v>0</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>396.7773436237711</v>
+        <v>454.9996307487532</v>
       </c>
       <c r="B392" t="n">
         <v>0</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>397.7947214279346</v>
+        <v>456.1662964686219</v>
       </c>
       <c r="B393" t="n">
         <v>0</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>398.8120992320981</v>
+        <v>457.3329621884905</v>
       </c>
       <c r="B394" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>399.8294770362616</v>
+        <v>458.4996279083591</v>
       </c>
       <c r="B395" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>400.8468548404251</v>
+        <v>459.6662936282277</v>
       </c>
       <c r="B396" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>401.8642326445886</v>
+        <v>460.8329593480963</v>
       </c>
       <c r="B397" t="n">
         <v>0</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>402.8816104487522</v>
+        <v>461.9996250679649</v>
       </c>
       <c r="B398" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>403.8989882529157</v>
+        <v>463.1662907878335</v>
       </c>
       <c r="B399" t="n">
         <v>0</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>404.9163660570792</v>
+        <v>464.3329565077021</v>
       </c>
       <c r="B400" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>405.9337438612427</v>
+        <v>465.4996222275706</v>
       </c>
       <c r="B401" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>406.9511216654062</v>
+        <v>466.6662879474392</v>
       </c>
       <c r="B402" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>407.9684994695697</v>
+        <v>467.8329536673078</v>
       </c>
       <c r="B403" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>408.9858772737333</v>
+        <v>468.9996193871764</v>
       </c>
       <c r="B404" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>410.0032550778968</v>
+        <v>470.166285107045</v>
       </c>
       <c r="B405" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>411.0206328820603</v>
+        <v>471.3329508269136</v>
       </c>
       <c r="B406" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>412.0380106862238</v>
+        <v>472.4996165467822</v>
       </c>
       <c r="B407" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>413.0553884903873</v>
+        <v>473.6662822666509</v>
       </c>
       <c r="B408" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>414.0727662945508</v>
+        <v>474.8329479865195</v>
       </c>
       <c r="B409" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>415.0901440987143</v>
+        <v>475.9996137063881</v>
       </c>
       <c r="B410" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>416.1075219028779</v>
+        <v>477.1662794262566</v>
       </c>
       <c r="B411" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>417.1248997070414</v>
+        <v>478.3329451461252</v>
       </c>
       <c r="B412" t="n">
         <v>0</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>418.1422775112049</v>
+        <v>479.4996108659938</v>
       </c>
       <c r="B413" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>419.1596553153684</v>
+        <v>480.6662765858624</v>
       </c>
       <c r="B414" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>420.1770331195319</v>
+        <v>481.832942305731</v>
       </c>
       <c r="B415" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>421.1944109236954</v>
+        <v>482.9996080255996</v>
       </c>
       <c r="B416" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>422.211788727859</v>
+        <v>484.1662737454682</v>
       </c>
       <c r="B417" t="n">
         <v>0</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>423.2291665320225</v>
+        <v>485.3329394653368</v>
       </c>
       <c r="B418" t="n">
         <v>0</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>424.246544336186</v>
+        <v>486.4996051852054</v>
       </c>
       <c r="B419" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>425.2639221403495</v>
+        <v>487.666270905074</v>
       </c>
       <c r="B420" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>426.281299944513</v>
+        <v>488.8329366249426</v>
       </c>
       <c r="B421" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>427.2986777486765</v>
+        <v>489.9996023448112</v>
       </c>
       <c r="B422" t="n">
         <v>0</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>428.3160555528401</v>
+        <v>491.1662680646798</v>
       </c>
       <c r="B423" t="n">
         <v>0</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>429.3334333570036</v>
+        <v>492.3329337845484</v>
       </c>
       <c r="B424" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>430.3508111611671</v>
+        <v>493.499599504417</v>
       </c>
       <c r="B425" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>431.3681889653306</v>
+        <v>494.6662652242856</v>
       </c>
       <c r="B426" t="n">
         <v>0</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>432.3855667694941</v>
+        <v>495.8329309441542</v>
       </c>
       <c r="B427" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>433.4029445736576</v>
+        <v>496.9995966640228</v>
       </c>
       <c r="B428" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>434.4203223778212</v>
+        <v>498.1662623838914</v>
       </c>
       <c r="B429" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>435.4377001819847</v>
+        <v>499.33292810376</v>
       </c>
       <c r="B430" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>436.4550779861482</v>
+        <v>500.4995938236286</v>
       </c>
       <c r="B431" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>437.4724557903117</v>
+        <v>501.6662595434972</v>
       </c>
       <c r="B432" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>438.4898335944752</v>
+        <v>502.8329252633658</v>
       </c>
       <c r="B433" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>439.5072113986387</v>
+        <v>503.9995909832344</v>
       </c>
       <c r="B434" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>440.5245892028022</v>
+        <v>505.166256703103</v>
       </c>
       <c r="B435" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>441.5419670069658</v>
+        <v>506.3329224229716</v>
       </c>
       <c r="B436" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>442.5593448111293</v>
+        <v>507.4995881428402</v>
       </c>
       <c r="B437" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>443.5767226152928</v>
+        <v>508.6662538627088</v>
       </c>
       <c r="B438" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>444.5941004194563</v>
+        <v>509.8329195825774</v>
       </c>
       <c r="B439" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>445.6114782236198</v>
+        <v>510.999585302446</v>
       </c>
       <c r="B440" t="n">
         <v>0</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>446.6288560277833</v>
+        <v>512.1662510223146</v>
       </c>
       <c r="B441" t="n">
         <v>0</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>447.6462338319469</v>
+        <v>513.3329167421832</v>
       </c>
       <c r="B442" t="n">
         <v>0</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>448.6636116361104</v>
+        <v>514.4995824620518</v>
       </c>
       <c r="B443" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>449.6809894402739</v>
+        <v>515.6662481819204</v>
       </c>
       <c r="B444" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>450.6983672444374</v>
+        <v>516.832913901789</v>
       </c>
       <c r="B445" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>451.7157450486009</v>
+        <v>517.9995796216575</v>
       </c>
       <c r="B446" t="n">
         <v>0</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>452.7331228527644</v>
+        <v>519.1662453415262</v>
       </c>
       <c r="B447" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>453.750500656928</v>
+        <v>520.3329110613947</v>
       </c>
       <c r="B448" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>454.7678784610915</v>
+        <v>521.4995767812634</v>
       </c>
       <c r="B449" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>455.7852562652549</v>
+        <v>522.6662425011319</v>
       </c>
       <c r="B450" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>456.8026340694184</v>
+        <v>523.8329082210006</v>
       </c>
       <c r="B451" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>457.820011873582</v>
+        <v>524.9995739408691</v>
       </c>
       <c r="B452" t="n">
         <v>0</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>458.8373896777455</v>
+        <v>526.1662396607378</v>
       </c>
       <c r="B453" t="n">
         <v>0</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>459.854767481909</v>
+        <v>527.3329053806063</v>
       </c>
       <c r="B454" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>460.8721452860725</v>
+        <v>528.4995711004749</v>
       </c>
       <c r="B455" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>461.889523090236</v>
+        <v>529.6662368203436</v>
       </c>
       <c r="B456" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>462.9069008943995</v>
+        <v>530.8329025402121</v>
       </c>
       <c r="B457" t="n">
         <v>0</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>463.9242786985631</v>
+        <v>531.9995682600808</v>
       </c>
       <c r="B458" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>464.9416565027266</v>
+        <v>533.1662339799493</v>
       </c>
       <c r="B459" t="n">
         <v>0</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>465.9590343068901</v>
+        <v>534.332899699818</v>
       </c>
       <c r="B460" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>466.9764121110536</v>
+        <v>535.4995654196865</v>
       </c>
       <c r="B461" t="n">
         <v>0</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>467.9937899152171</v>
+        <v>536.6662311395552</v>
       </c>
       <c r="B462" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>469.0111677193806</v>
+        <v>537.8328968594237</v>
       </c>
       <c r="B463" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>470.0285455235442</v>
+        <v>538.9995625792924</v>
       </c>
       <c r="B464" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>471.0459233277077</v>
+        <v>540.1662282991609</v>
       </c>
       <c r="B465" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>472.0633011318712</v>
+        <v>541.3328940190295</v>
       </c>
       <c r="B466" t="n">
         <v>0</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>473.0806789360347</v>
+        <v>542.4995597388981</v>
       </c>
       <c r="B467" t="n">
         <v>0</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>474.0980567401982</v>
+        <v>543.6662254587667</v>
       </c>
       <c r="B468" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>475.1154345443617</v>
+        <v>544.8328911786354</v>
       </c>
       <c r="B469" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>476.1328123485252</v>
+        <v>545.9995568985039</v>
       </c>
       <c r="B470" t="n">
         <v>0</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>477.1501901526888</v>
+        <v>547.1662226183726</v>
       </c>
       <c r="B471" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>478.1675679568523</v>
+        <v>548.3328883382411</v>
       </c>
       <c r="B472" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>479.1849457610158</v>
+        <v>549.4995540581098</v>
       </c>
       <c r="B473" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>480.2023235651793</v>
+        <v>550.6662197779783</v>
       </c>
       <c r="B474" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>481.2197013693428</v>
+        <v>551.8328854978469</v>
       </c>
       <c r="B475" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>482.2370791735063</v>
+        <v>552.9995512177155</v>
       </c>
       <c r="B476" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>483.2544569776699</v>
+        <v>554.1662169375841</v>
       </c>
       <c r="B477" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>484.2718347818334</v>
+        <v>555.3328826574527</v>
       </c>
       <c r="B478" t="n">
         <v>0</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>485.2892125859969</v>
+        <v>556.4995483773213</v>
       </c>
       <c r="B479" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>486.3065903901604</v>
+        <v>557.6662140971899</v>
       </c>
       <c r="B480" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>487.3239681943239</v>
+        <v>558.8328798170585</v>
       </c>
       <c r="B481" t="n">
         <v>0</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>488.3413459984874</v>
+        <v>559.9995455369271</v>
       </c>
       <c r="B482" t="n">
         <v>0</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>489.358723802651</v>
+        <v>561.1662112567957</v>
       </c>
       <c r="B483" t="n">
         <v>0</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>490.3761016068145</v>
+        <v>562.3328769766644</v>
       </c>
       <c r="B484" t="n">
         <v>0</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>491.393479410978</v>
+        <v>563.4995426965329</v>
       </c>
       <c r="B485" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>492.4108572151415</v>
+        <v>564.6662084164014</v>
       </c>
       <c r="B486" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>493.428235019305</v>
+        <v>565.8328741362701</v>
       </c>
       <c r="B487" t="n">
         <v>0</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>494.4456128234685</v>
+        <v>566.9995398561387</v>
       </c>
       <c r="B488" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>495.4629906276321</v>
+        <v>568.1662055760073</v>
       </c>
       <c r="B489" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>496.4803684317956</v>
+        <v>569.3328712958759</v>
       </c>
       <c r="B490" t="n">
         <v>0</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>497.4977462359591</v>
+        <v>570.4995370157445</v>
       </c>
       <c r="B491" t="n">
         <v>0</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>498.5151240401226</v>
+        <v>571.6662027356131</v>
       </c>
       <c r="B492" t="n">
         <v>0</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>499.5325018442861</v>
+        <v>572.8328684554817</v>
       </c>
       <c r="B493" t="n">
         <v>0</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>500.5498796484496</v>
+        <v>573.9995341753503</v>
       </c>
       <c r="B494" t="n">
         <v>0</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>501.5672574526131</v>
+        <v>575.1661998952188</v>
       </c>
       <c r="B495" t="n">
         <v>0</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>502.5846352567767</v>
+        <v>576.3328656150875</v>
       </c>
       <c r="B496" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>503.6020130609402</v>
+        <v>577.499531334956</v>
       </c>
       <c r="B497" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>504.6193908651037</v>
+        <v>578.6661970548247</v>
       </c>
       <c r="B498" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>505.6367686692672</v>
+        <v>579.8328627746932</v>
       </c>
       <c r="B499" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>506.6541464734307</v>
+        <v>580.9995284945619</v>
       </c>
       <c r="B500" t="n">
         <v>0</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>507.6715242775942</v>
+        <v>582.1661942144304</v>
       </c>
       <c r="B501" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>508.6889020817578</v>
+        <v>583.3328599342991</v>
       </c>
       <c r="B502" t="n">
         <v>0</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>509.7062798859213</v>
+        <v>584.4995256541677</v>
       </c>
       <c r="B503" t="n">
         <v>0</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>510.7236576900848</v>
+        <v>585.6661913740363</v>
       </c>
       <c r="B504" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>511.7410354942483</v>
+        <v>586.8328570939049</v>
       </c>
       <c r="B505" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>512.7584132984118</v>
+        <v>587.9995228137734</v>
       </c>
       <c r="B506" t="n">
         <v>0</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>513.7757911025753</v>
+        <v>589.1661885336421</v>
       </c>
       <c r="B507" t="n">
         <v>0</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>514.7931689067389</v>
+        <v>590.3328542535106</v>
       </c>
       <c r="B508" t="n">
         <v>0</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>515.8105467109024</v>
+        <v>591.4995199733793</v>
       </c>
       <c r="B509" t="n">
         <v>0</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>516.8279245150659</v>
+        <v>592.6661856932478</v>
       </c>
       <c r="B510" t="n">
         <v>0</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>517.8453023192294</v>
+        <v>593.8328514131165</v>
       </c>
       <c r="B511" t="n">
         <v>0</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>518.8626801233929</v>
+        <v>594.999517132985</v>
       </c>
       <c r="B512" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>519.8800579275564</v>
+        <v>596.1661828528537</v>
       </c>
       <c r="B513" t="n">
         <v>0</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>520.89743573172</v>
+        <v>597.3328485727222</v>
       </c>
       <c r="B514" t="n">
         <v>0</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>521.9148135358835</v>
+        <v>598.4995142925908</v>
       </c>
       <c r="B515" t="n">
         <v>0</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>522.932191340047</v>
+        <v>599.6661800124594</v>
       </c>
       <c r="B516" t="n">
         <v>0</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>523.9495691442105</v>
+        <v>600.832845732328</v>
       </c>
       <c r="B517" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>524.966946948374</v>
+        <v>601.9995114521967</v>
       </c>
       <c r="B518" t="n">
         <v>0</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>525.9843247525375</v>
+        <v>603.1661771720652</v>
       </c>
       <c r="B519" t="n">
         <v>0</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>527.001702556701</v>
+        <v>604.3328428919339</v>
       </c>
       <c r="B520" t="n">
         <v>0</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>528.0190803608646</v>
+        <v>605.4995086118024</v>
       </c>
       <c r="B521" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>529.0364581650281</v>
+        <v>606.6661743316711</v>
       </c>
       <c r="B522" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>530.0538359691916</v>
+        <v>607.8328400515396</v>
       </c>
       <c r="B523" t="n">
         <v>0</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>531.0712137733551</v>
+        <v>608.9995057714082</v>
       </c>
       <c r="B524" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>532.0885915775186</v>
+        <v>610.1661714912768</v>
       </c>
       <c r="B525" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>533.1059693816821</v>
+        <v>611.3328372111454</v>
       </c>
       <c r="B526" t="n">
         <v>0</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>534.1233471858457</v>
+        <v>612.499502931014</v>
       </c>
       <c r="B527" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>535.1407249900092</v>
+        <v>613.6661686508826</v>
       </c>
       <c r="B528" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>536.1581027941727</v>
+        <v>614.8328343707512</v>
       </c>
       <c r="B529" t="n">
         <v>0</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>537.1754805983362</v>
+        <v>615.9995000906198</v>
       </c>
       <c r="B530" t="n">
         <v>0</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>538.1928584024997</v>
+        <v>617.1661658104885</v>
       </c>
       <c r="B531" t="n">
         <v>0</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>539.2102362066632</v>
+        <v>618.332831530357</v>
       </c>
       <c r="B532" t="n">
         <v>0</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>540.2276140108268</v>
+        <v>619.4994972502257</v>
       </c>
       <c r="B533" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>541.2449918149903</v>
+        <v>620.6661629700942</v>
       </c>
       <c r="B534" t="n">
         <v>0</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>542.2623696191538</v>
+        <v>621.8328286899628</v>
       </c>
       <c r="B535" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>543.2797474233173</v>
+        <v>622.9994944098314</v>
       </c>
       <c r="B536" t="n">
         <v>0</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>544.2971252274808</v>
+        <v>624.1661601297</v>
       </c>
       <c r="B537" t="n">
         <v>0</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>545.3145030316443</v>
+        <v>625.3328258495686</v>
       </c>
       <c r="B538" t="n">
         <v>0</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>546.3318808358079</v>
+        <v>626.4994915694372</v>
       </c>
       <c r="B539" t="n">
         <v>0</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>547.3492586399714</v>
+        <v>627.6661572893058</v>
       </c>
       <c r="B540" t="n">
         <v>0</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>548.3666364441349</v>
+        <v>628.8328230091744</v>
       </c>
       <c r="B541" t="n">
         <v>0</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>549.3840142482984</v>
+        <v>629.999488729043</v>
       </c>
       <c r="B542" t="n">
         <v>0</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>550.4013920524619</v>
+        <v>631.1661544489116</v>
       </c>
       <c r="B543" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>551.4187698566254</v>
+        <v>632.3328201687801</v>
       </c>
       <c r="B544" t="n">
         <v>0</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>552.4361476607889</v>
+        <v>633.4994858886488</v>
       </c>
       <c r="B545" t="n">
         <v>0</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>553.4535254649525</v>
+        <v>634.6661516085173</v>
       </c>
       <c r="B546" t="n">
         <v>0</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>554.470903269116</v>
+        <v>635.832817328386</v>
       </c>
       <c r="B547" t="n">
         <v>0</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>555.4882810732795</v>
+        <v>636.9994830482545</v>
       </c>
       <c r="B548" t="n">
         <v>0</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>556.505658877443</v>
+        <v>638.1661487681232</v>
       </c>
       <c r="B549" t="n">
         <v>0</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>557.5230366816065</v>
+        <v>639.3328144879918</v>
       </c>
       <c r="B550" t="n">
         <v>0</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>558.54041448577</v>
+        <v>640.4994802078604</v>
       </c>
       <c r="B551" t="n">
         <v>0</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>559.5577922899336</v>
+        <v>641.666145927729</v>
       </c>
       <c r="B552" t="n">
         <v>0</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>560.5751700940971</v>
+        <v>642.8328116475976</v>
       </c>
       <c r="B553" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>561.5925478982606</v>
+        <v>643.9994773674662</v>
       </c>
       <c r="B554" t="n">
         <v>0</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>562.6099257024241</v>
+        <v>645.1661430873347</v>
       </c>
       <c r="B555" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>563.6273035065876</v>
+        <v>646.3328088072034</v>
       </c>
       <c r="B556" t="n">
         <v>0</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>564.6446813107511</v>
+        <v>647.4994745270719</v>
       </c>
       <c r="B557" t="n">
         <v>0</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>565.6620591149147</v>
+        <v>648.6661402469406</v>
       </c>
       <c r="B558" t="n">
         <v>0</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>566.6794369190782</v>
+        <v>649.8328059668091</v>
       </c>
       <c r="B559" t="n">
         <v>0</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>567.6968147232417</v>
+        <v>650.9994716866778</v>
       </c>
       <c r="B560" t="n">
         <v>0</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>568.7141925274052</v>
+        <v>652.1661374065463</v>
       </c>
       <c r="B561" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>569.7315703315687</v>
+        <v>653.332803126415</v>
       </c>
       <c r="B562" t="n">
         <v>0</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>570.7489481357322</v>
+        <v>654.4994688462835</v>
       </c>
       <c r="B563" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>571.7663259398958</v>
+        <v>655.6661345661521</v>
       </c>
       <c r="B564" t="n">
         <v>0</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>572.7837037440593</v>
+        <v>656.8328002860208</v>
       </c>
       <c r="B565" t="n">
         <v>0</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>573.8010815482228</v>
+        <v>657.9994660058893</v>
       </c>
       <c r="B566" t="n">
         <v>0</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>574.8184593523863</v>
+        <v>659.166131725758</v>
       </c>
       <c r="B567" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>575.8358371565498</v>
+        <v>660.3327974456265</v>
       </c>
       <c r="B568" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>576.8532149607133</v>
+        <v>661.4994631654952</v>
       </c>
       <c r="B569" t="n">
         <v>0</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>577.8705927648768</v>
+        <v>662.6661288853637</v>
       </c>
       <c r="B570" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>578.8879705690404</v>
+        <v>663.8327946052324</v>
       </c>
       <c r="B571" t="n">
         <v>0</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>579.9053483732039</v>
+        <v>664.9994603251009</v>
       </c>
       <c r="B572" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>580.9227261773674</v>
+        <v>666.1661260449696</v>
       </c>
       <c r="B573" t="n">
         <v>0</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>581.9401039815309</v>
+        <v>667.3327917648381</v>
       </c>
       <c r="B574" t="n">
         <v>0</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>582.9574817856944</v>
+        <v>668.4994574847067</v>
       </c>
       <c r="B575" t="n">
         <v>0</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>583.9748595898579</v>
+        <v>669.6661232045753</v>
       </c>
       <c r="B576" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>584.9922373940215</v>
+        <v>670.8327889244439</v>
       </c>
       <c r="B577" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>586.009615198185</v>
+        <v>671.9994546443126</v>
       </c>
       <c r="B578" t="n">
         <v>0</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>587.0269930023485</v>
+        <v>673.1661203641811</v>
       </c>
       <c r="B579" t="n">
         <v>0</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>588.044370806512</v>
+        <v>674.3327860840498</v>
       </c>
       <c r="B580" t="n">
         <v>0</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>589.0617486106755</v>
+        <v>675.4994518039183</v>
       </c>
       <c r="B581" t="n">
         <v>0</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>590.079126414839</v>
+        <v>676.666117523787</v>
       </c>
       <c r="B582" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>591.0965042190026</v>
+        <v>677.8327832436555</v>
       </c>
       <c r="B583" t="n">
         <v>0</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>592.1138820231661</v>
+        <v>678.9994489635241</v>
       </c>
       <c r="B584" t="n">
         <v>0</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>593.1312598273296</v>
+        <v>680.1661146833927</v>
       </c>
       <c r="B585" t="n">
         <v>0</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>594.1486376314931</v>
+        <v>681.3327804032613</v>
       </c>
       <c r="B586" t="n">
         <v>0</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>595.1660154356566</v>
+        <v>682.4994461231299</v>
       </c>
       <c r="B587" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>596.1833932398201</v>
+        <v>683.6661118429985</v>
       </c>
       <c r="B588" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>597.2007710439837</v>
+        <v>684.8327775628671</v>
       </c>
       <c r="B589" t="n">
         <v>0</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>598.2181488481472</v>
+        <v>685.9994432827357</v>
       </c>
       <c r="B590" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>599.2355266523107</v>
+        <v>687.1661090026043</v>
       </c>
       <c r="B591" t="n">
         <v>0</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>600.2529044564742</v>
+        <v>688.3327747224729</v>
       </c>
       <c r="B592" t="n">
         <v>0</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>601.2702822606377</v>
+        <v>689.4994404423414</v>
       </c>
       <c r="B593" t="n">
         <v>0</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>602.2876600648012</v>
+        <v>690.6661061622101</v>
       </c>
       <c r="B594" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>603.3050378689647</v>
+        <v>691.8327718820786</v>
       </c>
       <c r="B595" t="n">
         <v>0</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>604.3224156731283</v>
+        <v>692.9994376019473</v>
       </c>
       <c r="B596" t="n">
         <v>0</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>605.3397934772918</v>
+        <v>694.1661033218159</v>
       </c>
       <c r="B597" t="n">
         <v>0</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>606.3571712814553</v>
+        <v>695.3327690416845</v>
       </c>
       <c r="B598" t="n">
         <v>0</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>607.3745490856188</v>
+        <v>696.4994347615531</v>
       </c>
       <c r="B599" t="n">
         <v>0</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>608.3919268897823</v>
+        <v>697.6661004814217</v>
       </c>
       <c r="B600" t="n">
         <v>0</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>609.4093046939458</v>
+        <v>698.8327662012903</v>
       </c>
       <c r="B601" t="n">
         <v>0</v>
